--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB38EB1B-355C-499C-AD37-0DC6352997AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195C3904-7DDD-4BB3-8616-50579F85E590}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
   <si>
     <t>time submitted</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>memory</t>
-  </si>
-  <si>
-    <t>language</t>
   </si>
   <si>
     <t>Easy</t>
@@ -190,6 +187,30 @@
   </si>
   <si>
     <t>Dynamic Programming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sliding Window</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -233,12 +254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="等线"/>
@@ -252,6 +267,14 @@
       <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -300,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -323,102 +346,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,7 +365,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -439,20 +377,35 @@
     <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +682,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -2644,2226 +2597,1697 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="6" customWidth="1"/>
-    <col min="3" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="11" customWidth="1"/>
+    <col min="3" max="4" width="15.625" style="13" customWidth="1"/>
+    <col min="5" max="7" width="15.625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="11" t="str">
         <f>IF($G2=_xlfn.MAXIFS($G:$G, $A:$A, $A2), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C2" s="1">
         <v>44642</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="D2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2">
         <v>0.87370000000000003</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="2">
         <v>0.2011</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="2">
         <f>SQRT($E2*$F2)</f>
         <v>0.41916711464522122</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="str">
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="str">
         <f>IF($G3=_xlfn.MAXIFS($G:$G, $A:$A, $A3), "latest", "")</f>
         <v/>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
+        <v>44652</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.67906666666666671</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9.9600000000000008E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SQRT($E3*$F3)</f>
+        <v>0.26006737588555778</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="str">
+        <f>IF($G4=_xlfn.MAXIFS($G:$G, $A:$A, $A4), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C4" s="1">
         <v>44642</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
         <v>0.68379999999999996</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F4" s="2">
         <v>0.2356</v>
       </c>
-      <c r="G3" s="8">
-        <f t="shared" ref="G3:G56" si="0">SQRT($E3*$F3)</f>
+      <c r="G4" s="2">
+        <f>SQRT($E4*$F4)</f>
         <v>0.40137673076549912</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="H4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f>IF($G4=_xlfn.MAXIFS($G:$G, $A:$A, $A4), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44642</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.8669</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.35160000000000002</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.55208879720566695</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="11" t="str">
         <f>IF($G5=_xlfn.MAXIFS($G:$G, $A:$A, $A5), "latest", "")</f>
         <v/>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>44642</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.86509999999999998</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.3498</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.55010179058061615</v>
-      </c>
-      <c r="H5" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="str">
+      <c r="E5" s="2">
+        <v>0.8669</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="G5" s="2">
+        <f>SQRT($E5*$F5)</f>
+        <v>0.55208879720566695</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11" t="str">
         <f>IF($G6=_xlfn.MAXIFS($G:$G, $A:$A, $A6), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="15">
+        <v>44652</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.93163333333333342</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.97280000000000011</v>
+      </c>
+      <c r="G6" s="2">
+        <f>SQRT($E6*$F6)</f>
+        <v>0.95199417365163896</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="str">
+        <f>IF($G7=_xlfn.MAXIFS($G:$G, $A:$A, $A7), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C7" s="1">
         <v>44642</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.9355</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.52410000000000001</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.70021107531943538</v>
-      </c>
-      <c r="H6" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f>IF($G7=_xlfn.MAXIFS($G:$G, $A:$A, $A7), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44642</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.77859999999999996</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.57609999999999995</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.66973984501446526</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="str">
+      <c r="E7" s="2">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.3498</v>
+      </c>
+      <c r="G7" s="2">
+        <f>SQRT($E7*$F7)</f>
+        <v>0.55010179058061615</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="str">
         <f>IF($G8=_xlfn.MAXIFS($G:$G, $A:$A, $A8), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>44642</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.1217</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.19780432250079877</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="E8" s="2">
+        <v>0.9355</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <f>SQRT($E8*$F8)</f>
+        <v>0.70021107531943538</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="I8" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="str">
         <f>IF($G9=_xlfn.MAXIFS($G:$G, $A:$A, $A9), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44642</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.72589999999999999</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.51403073838049806</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="str">
+        <v/>
+      </c>
+      <c r="C9" s="15">
+        <v>44652</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.71633333333333338</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.65930000000000011</v>
+      </c>
+      <c r="G9" s="2">
+        <f>SQRT($E9*$F9)</f>
+        <v>0.68722526631859715</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11" t="str">
         <f>IF($G10=_xlfn.MAXIFS($G:$G, $A:$A, $A10), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>44642</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="10">
-        <v>0.76559999999999995</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.62449710968106165</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="str">
+      <c r="E10" s="2">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.57609999999999995</v>
+      </c>
+      <c r="G10" s="2">
+        <f>SQRT($E10*$F10)</f>
+        <v>0.66973984501446526</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="str">
         <f>IF($G11=_xlfn.MAXIFS($G:$G, $A:$A, $A11), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>44642</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.87060000000000004</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.59970000000000001</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.72256405944386692</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="str">
+      <c r="E11" s="2">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.1217</v>
+      </c>
+      <c r="G11" s="2">
+        <f>SQRT($E11*$F11)</f>
+        <v>0.19780432250079877</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="str">
         <f>IF($G12=_xlfn.MAXIFS($G:$G, $A:$A, $A12), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C12" s="2">
-        <v>44643</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="C12" s="1">
+        <v>44642</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <f>SQRT($E12*$F12)</f>
+        <v>0.51403073838049806</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="10">
-        <v>0.77580000000000005</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.65558614994522268</v>
-      </c>
-      <c r="H12" s="11" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>7</v>
       </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="11" t="str">
         <f>IF($G13=_xlfn.MAXIFS($G:$G, $A:$A, $A13), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C13" s="2">
-        <v>44643</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="1">
+        <v>44642</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="G13" s="2">
+        <f>SQRT($E13*$F13)</f>
+        <v>0.62449710968106165</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="str">
+        <f>IF($G14=_xlfn.MAXIFS($G:$G, $A:$A, $A14), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44642</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.59970000000000001</v>
+      </c>
+      <c r="G14" s="2">
+        <f>SQRT($E14*$F14)</f>
+        <v>0.72256405944386692</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>9</v>
       </c>
-      <c r="E13" s="10">
-        <v>0.83530000000000004</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.1835</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.39150676877928947</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <f>IF($G14=_xlfn.MAXIFS($G:$G, $A:$A, $A14), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C14" s="2">
-        <v>44643</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.80010000000000003</v>
-      </c>
-      <c r="F14" s="10">
-        <v>0.18920000000000001</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.38907444017822607</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="11" t="str">
         <f>IF($G15=_xlfn.MAXIFS($G:$G, $A:$A, $A15), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>44643</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.77580000000000005</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G15" s="2">
+        <f>SQRT($E15*$F15)</f>
+        <v>0.65558614994522268</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11" t="str">
+        <f>IF($G16=_xlfn.MAXIFS($G:$G, $A:$A, $A16), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="10">
-        <v>0.72340000000000004</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.54730000000000001</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.62921921458264451</v>
-      </c>
-      <c r="H15" s="11" t="s">
+      <c r="E16" s="2">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.1835</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SQRT($E16*$F16)</f>
+        <v>0.39150676877928947</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
         <v>10</v>
       </c>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <f>IF($G16=_xlfn.MAXIFS($G:$G, $A:$A, $A16), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C16" s="2">
-        <v>44646</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.70950000000000002</v>
-      </c>
-      <c r="F16" s="10">
-        <v>0.64559999999999995</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.67679627658550245</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="11" t="str">
         <f>IF($G17=_xlfn.MAXIFS($G:$G, $A:$A, $A17), "latest", "")</f>
         <v/>
       </c>
-      <c r="C17" s="2">
-        <v>44646</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="10">
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0.2412</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.12472930690098459</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>12</v>
-      </c>
-      <c r="B18" s="3" t="str">
+      <c r="E17" s="2">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.18920000000000001</v>
+      </c>
+      <c r="G17" s="2">
+        <f>SQRT($E17*$F17)</f>
+        <v>0.38907444017822607</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>11</v>
+      </c>
+      <c r="B18" s="11" t="str">
         <f>IF($G18=_xlfn.MAXIFS($G:$G, $A:$A, $A18), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="G18" s="2">
+        <f>SQRT($E18*$F18)</f>
+        <v>0.62921921458264451</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>12</v>
+      </c>
+      <c r="B19" s="11" t="str">
+        <f>IF($G19=_xlfn.MAXIFS($G:$G, $A:$A, $A19), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C19" s="1">
         <v>44646</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="10">
+      <c r="D19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="G19" s="2">
+        <f>SQRT($E19*$F19)</f>
+        <v>0.67679627658550245</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>12</v>
+      </c>
+      <c r="B20" s="11" t="str">
+        <f>IF($G20=_xlfn.MAXIFS($G:$G, $A:$A, $A20), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C20" s="1">
+        <v>44646</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.2412</v>
+      </c>
+      <c r="G20" s="2">
+        <f>SQRT($E20*$F20)</f>
+        <v>0.12472930690098459</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>12</v>
+      </c>
+      <c r="B21" s="11" t="str">
+        <f>IF($G21=_xlfn.MAXIFS($G:$G, $A:$A, $A21), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44646</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2">
         <v>0.9103</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F21" s="2">
         <v>0.60550000000000004</v>
       </c>
-      <c r="G18" s="8">
-        <f t="shared" si="0"/>
+      <c r="G21" s="2">
+        <f>SQRT($E21*$F21)</f>
         <v>0.74241945691098377</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="H21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
         <v>13</v>
       </c>
-      <c r="B19" s="3" t="str">
-        <f>IF($G19=_xlfn.MAXIFS($G:$G, $A:$A, $A19), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C19" s="2">
-        <v>44646</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.78969999999999996</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.47739999999999999</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="0"/>
-        <v>0.61400552114781504</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3" t="str">
-        <f>IF($G20=_xlfn.MAXIFS($G:$G, $A:$A, $A20), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C20" s="2">
-        <v>44646</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.62480000000000002</v>
-      </c>
-      <c r="F20" s="10">
-        <v>0.14610000000000001</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.30213122976613987</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="19"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3" t="str">
-        <f>IF($G21=_xlfn.MAXIFS($G:$G, $A:$A, $A21), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C21" s="2">
-        <v>44647</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.33479999999999999</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0.55289999999999995</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="0"/>
-        <v>0.43024518591147537</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>15</v>
-      </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="11" t="str">
         <f>IF($G22=_xlfn.MAXIFS($G:$G, $A:$A, $A22), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
+        <v>44646</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.47739999999999999</v>
+      </c>
+      <c r="G22" s="2">
+        <f>SQRT($E22*$F22)</f>
+        <v>0.61400552114781504</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11" t="str">
+        <f>IF($G23=_xlfn.MAXIFS($G:$G, $A:$A, $A23), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44646</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="G23" s="2">
+        <f>SQRT($E23*$F23)</f>
+        <v>0.30213122976613987</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>15</v>
+      </c>
+      <c r="B24" s="11" t="str">
+        <f>IF($G24=_xlfn.MAXIFS($G:$G, $A:$A, $A24), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C24" s="1">
         <v>44647</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.79110000000000003</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="G22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.65208607560658738</v>
-      </c>
-      <c r="H22" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="E24" s="2">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.55289999999999995</v>
+      </c>
+      <c r="G24" s="2">
+        <f>SQRT($E24*$F24)</f>
+        <v>0.43024518591147537</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>15</v>
       </c>
-      <c r="B23" s="3" t="str">
-        <f>IF($G23=_xlfn.MAXIFS($G:$G, $A:$A, $A23), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C23" s="2">
-        <v>44647</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.65029999999999999</v>
-      </c>
-      <c r="F23" s="10">
-        <v>0.55859999999999999</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.60270853652491096</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>16</v>
-      </c>
-      <c r="B24" s="3" t="str">
-        <f>IF($G24=_xlfn.MAXIFS($G:$G, $A:$A, $A24), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C24" s="2">
-        <v>44647</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.9597</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0.13489999999999999</v>
-      </c>
-      <c r="G24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.35981040840976236</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="11" t="str">
         <f>IF($G25=_xlfn.MAXIFS($G:$G, $A:$A, $A25), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C25" s="2">
-        <v>44649</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.70179999999999998</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0.50239999999999996</v>
-      </c>
-      <c r="G25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59378811035587431</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>18</v>
-      </c>
-      <c r="B26" s="3" t="str">
+      <c r="C25" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.79110000000000003</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="G25" s="2">
+        <f>SQRT($E25*$F25)</f>
+        <v>0.65208607560658738</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>15</v>
+      </c>
+      <c r="B26" s="11" t="str">
         <f>IF($G26=_xlfn.MAXIFS($G:$G, $A:$A, $A26), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C26" s="2">
-        <v>44649</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.4768</v>
-      </c>
-      <c r="F26" s="10">
-        <v>0.48149999999999998</v>
-      </c>
-      <c r="G26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.4791442371562033</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>19</v>
-      </c>
-      <c r="B27" s="3" t="str">
+        <v/>
+      </c>
+      <c r="C26" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <f>SQRT($E26*$F26)</f>
+        <v>0.60270853652491096</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>16</v>
+      </c>
+      <c r="B27" s="11" t="str">
         <f>IF($G27=_xlfn.MAXIFS($G:$G, $A:$A, $A27), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C27" s="2">
-        <v>44649</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0.62590000000000001</v>
-      </c>
-      <c r="F27" s="10">
-        <v>0.86723333333333341</v>
-      </c>
-      <c r="G27" s="8">
-        <f t="shared" si="0"/>
-        <v>0.73675052991723966</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>20</v>
-      </c>
-      <c r="B28" s="3" t="str">
+      <c r="C27" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.9597</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="G27" s="2">
+        <f>SQRT($E27*$F27)</f>
+        <v>0.35981040840976236</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>17</v>
+      </c>
+      <c r="B28" s="11" t="str">
         <f>IF($G28=_xlfn.MAXIFS($G:$G, $A:$A, $A28), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>44649</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0.64560000000000006</v>
-      </c>
-      <c r="G28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.50791904866819082</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>21</v>
-      </c>
-      <c r="B29" s="3" t="str">
+      <c r="D28" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="G28" s="2">
+        <f>SQRT($E28*$F28)</f>
+        <v>0.59378811035587431</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>18</v>
+      </c>
+      <c r="B29" s="11" t="str">
         <f>IF($G29=_xlfn.MAXIFS($G:$G, $A:$A, $A29), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>44649</v>
       </c>
-      <c r="D29" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.33506666666666668</v>
-      </c>
-      <c r="F29" s="10">
-        <v>0.44596666666666662</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.38655991055002642</v>
-      </c>
-      <c r="H29" s="11" t="s">
+      <c r="D29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.4768</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="G29" s="2">
+        <f>SQRT($E29*$F29)</f>
+        <v>0.4791442371562033</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
         <v>19</v>
       </c>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>22</v>
-      </c>
-      <c r="B30" s="3" t="str">
+      <c r="B30" s="11" t="str">
         <f>IF($G30=_xlfn.MAXIFS($G:$G, $A:$A, $A30), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>44649</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.86723333333333341</v>
+      </c>
+      <c r="G30" s="2">
+        <f>SQRT($E30*$F30)</f>
+        <v>0.73675052991723966</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="10">
-        <v>0.77693333333333348</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.4543666666666667</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59414864208284524</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3" t="str">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>20</v>
+      </c>
+      <c r="B31" s="11" t="str">
         <f>IF($G31=_xlfn.MAXIFS($G:$G, $A:$A, $A31), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C31" s="2">
-        <v>44651</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.78489999999999993</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0.84616666666666673</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" si="0"/>
-        <v>0.8149578005434801</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="C31" s="1">
+        <v>44649</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="3" t="str">
+      <c r="E31" s="2">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.64560000000000006</v>
+      </c>
+      <c r="G31" s="2">
+        <f>SQRT($E31*$F31)</f>
+        <v>0.50791904866819082</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>21</v>
+      </c>
+      <c r="B32" s="11" t="str">
         <f>IF($G32=_xlfn.MAXIFS($G:$G, $A:$A, $A32), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C32" s="2">
-        <v>44651</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="C32" s="1">
+        <v>44649</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.33506666666666668</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.44596666666666662</v>
+      </c>
+      <c r="G32" s="2">
+        <f>SQRT($E32*$F32)</f>
+        <v>0.38655991055002642</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>22</v>
+      </c>
+      <c r="B33" s="11" t="str">
+        <f>IF($G33=_xlfn.MAXIFS($G:$G, $A:$A, $A33), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44649</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.77693333333333348</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0.4543666666666667</v>
+      </c>
+      <c r="G33" s="2">
+        <f>SQRT($E33*$F33)</f>
+        <v>0.59414864208284524</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0.62870000000000004</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="0"/>
-        <v>0.79290604739779857</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>25</v>
-      </c>
-      <c r="B33" s="3" t="str">
-        <f>IF($G33=_xlfn.MAXIFS($G:$G, $A:$A, $A33), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C33" s="2">
-        <v>44651</v>
-      </c>
-      <c r="D33" s="9" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
         <v>23</v>
       </c>
-      <c r="E33" s="10">
-        <v>0.45840000000000003</v>
-      </c>
-      <c r="F33" s="10">
-        <v>0.54510000000000003</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="0"/>
-        <v>0.49987382407963715</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>25</v>
-      </c>
-      <c r="B34" s="3" t="str">
+      <c r="B34" s="11" t="str">
         <f>IF($G34=_xlfn.MAXIFS($G:$G, $A:$A, $A34), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>44651</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0.80540000000000012</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0.65079999999999993</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="0"/>
-        <v>0.72398502746949134</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>26</v>
-      </c>
-      <c r="B35" s="3" t="str">
+      <c r="D34" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.78489999999999993</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.84616666666666673</v>
+      </c>
+      <c r="G34" s="2">
+        <f>SQRT($E34*$F34)</f>
+        <v>0.8149578005434801</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>24</v>
+      </c>
+      <c r="B35" s="11" t="str">
         <f>IF($G35=_xlfn.MAXIFS($G:$G, $A:$A, $A35), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>44651</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.37839999999999996</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0.17220000000000002</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" si="0"/>
-        <v>0.25526550883344973</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>27</v>
-      </c>
-      <c r="B36" s="3" t="str">
+      <c r="D35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.62870000000000004</v>
+      </c>
+      <c r="G35" s="2">
+        <f>SQRT($E35*$F35)</f>
+        <v>0.79290604739779857</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>25</v>
+      </c>
+      <c r="B36" s="11" t="str">
         <f>IF($G36=_xlfn.MAXIFS($G:$G, $A:$A, $A36), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C36" s="2">
+        <v/>
+      </c>
+      <c r="C36" s="1">
         <v>44651</v>
       </c>
-      <c r="D36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0.47896666666666671</v>
-      </c>
-      <c r="F36" s="10">
-        <v>0.3685666666666666</v>
-      </c>
-      <c r="G36" s="8">
-        <f t="shared" si="0"/>
-        <v>0.42015609929855563</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>28</v>
-      </c>
-      <c r="B37" s="3" t="str">
+      <c r="D36" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.45840000000000003</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="G36" s="2">
+        <f>SQRT($E36*$F36)</f>
+        <v>0.49987382407963715</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>25</v>
+      </c>
+      <c r="B37" s="11" t="str">
         <f>IF($G37=_xlfn.MAXIFS($G:$G, $A:$A, $A37), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C37" s="2">
-        <v>44652</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>70</v>
-      </c>
-      <c r="B38" s="3" t="str">
+      <c r="C37" s="1">
+        <v>44651</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.80540000000000012</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.65079999999999993</v>
+      </c>
+      <c r="G37" s="2">
+        <f>SQRT($E37*$F37)</f>
+        <v>0.72398502746949134</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>26</v>
+      </c>
+      <c r="B38" s="11" t="str">
         <f>IF($G38=_xlfn.MAXIFS($G:$G, $A:$A, $A38), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>44651</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.40550000000000003</v>
-      </c>
-      <c r="F38" s="10">
-        <v>0.45430000000000009</v>
-      </c>
-      <c r="G38" s="8">
-        <f t="shared" si="0"/>
-        <v>0.42920700134084488</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>172</v>
-      </c>
-      <c r="B39" s="3" t="str">
+      <c r="D38" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.37839999999999996</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.17220000000000002</v>
+      </c>
+      <c r="G38" s="2">
+        <f>SQRT($E38*$F38)</f>
+        <v>0.25526550883344973</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>27</v>
+      </c>
+      <c r="B39" s="11" t="str">
         <f>IF($G39=_xlfn.MAXIFS($G:$G, $A:$A, $A39), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C39" s="2">
-        <v>44645</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.84789999999999999</v>
-      </c>
-      <c r="F39" s="10">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="G39" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52736249392614187</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>300</v>
-      </c>
-      <c r="B40" s="3" t="str">
+      <c r="C39" s="1">
+        <v>44651</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.47896666666666671</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.3685666666666666</v>
+      </c>
+      <c r="G39" s="2">
+        <f>SQRT($E39*$F39)</f>
+        <v>0.42015609929855563</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>28</v>
+      </c>
+      <c r="B40" s="11" t="str">
         <f>IF($G40=_xlfn.MAXIFS($G:$G, $A:$A, $A40), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C40" s="2">
-        <v>44651</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.6990666666666665</v>
-      </c>
-      <c r="F40" s="10">
-        <v>0.32386666666666664</v>
-      </c>
-      <c r="G40" s="8">
-        <f t="shared" si="0"/>
-        <v>0.47581970441661098</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>404</v>
-      </c>
-      <c r="B41" s="3" t="str">
+      <c r="C40" s="1">
+        <v>44652</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <f>SQRT($E40*$F40)</f>
+        <v>1</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>70</v>
+      </c>
+      <c r="B41" s="11" t="str">
         <f>IF($G41=_xlfn.MAXIFS($G:$G, $A:$A, $A41), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C41" s="2">
-        <v>44643</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="C41" s="1">
+        <v>44651</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.45430000000000009</v>
+      </c>
+      <c r="G41" s="2">
+        <f>SQRT($E41*$F41)</f>
+        <v>0.42920700134084488</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>172</v>
+      </c>
+      <c r="B42" s="11" t="str">
+        <f>IF($G42=_xlfn.MAXIFS($G:$G, $A:$A, $A42), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44645</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G42" s="2">
+        <f>SQRT($E42*$F42)</f>
+        <v>0.52736249392614187</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="10">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="F41" s="10">
-        <v>0.14369999999999999</v>
-      </c>
-      <c r="G41" s="8">
-        <f t="shared" si="0"/>
-        <v>0.32600693244162771</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>440</v>
-      </c>
-      <c r="B42" s="3" t="str">
-        <f>IF($G42=_xlfn.MAXIFS($G:$G, $A:$A, $A42), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C42" s="2">
-        <v>44643</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="F42" s="10">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="G42" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17093653793147912</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="19"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>440</v>
-      </c>
-      <c r="B43" s="3" t="str">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>300</v>
+      </c>
+      <c r="B43" s="11" t="str">
         <f>IF($G43=_xlfn.MAXIFS($G:$G, $A:$A, $A43), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C43" s="2">
-        <v>44643</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.68120000000000003</v>
-      </c>
-      <c r="F43" s="10">
-        <v>0.13519999999999999</v>
-      </c>
-      <c r="G43" s="8">
-        <f t="shared" si="0"/>
-        <v>0.30347691839742935</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>440</v>
-      </c>
-      <c r="B44" s="3" t="str">
+        <v>latest</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44651</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.6990666666666665</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.32386666666666664</v>
+      </c>
+      <c r="G43" s="2">
+        <f>SQRT($E43*$F43)</f>
+        <v>0.47581970441661098</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>404</v>
+      </c>
+      <c r="B44" s="11" t="str">
         <f>IF($G44=_xlfn.MAXIFS($G:$G, $A:$A, $A44), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>44643</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0.87919999999999998</v>
-      </c>
-      <c r="F44" s="10">
-        <v>0.1739</v>
-      </c>
-      <c r="G44" s="8">
-        <f t="shared" si="0"/>
-        <v>0.39101519152073877</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>653</v>
-      </c>
-      <c r="B45" s="3" t="str">
+      <c r="D44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="G44" s="2">
+        <f>SQRT($E44*$F44)</f>
+        <v>0.32600693244162771</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>440</v>
+      </c>
+      <c r="B45" s="11" t="str">
         <f>IF($G45=_xlfn.MAXIFS($G:$G, $A:$A, $A45), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C45" s="2">
-        <v>44642</v>
-      </c>
-      <c r="D45" s="9" t="s">
+        <v/>
+      </c>
+      <c r="C45" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="G45" s="2">
+        <f>SQRT($E45*$F45)</f>
+        <v>0.17093653793147912</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="10">
-        <v>0.88719999999999999</v>
-      </c>
-      <c r="F45" s="10">
-        <v>0.4602</v>
-      </c>
-      <c r="G45" s="8">
-        <f t="shared" si="0"/>
-        <v>0.63897530468712171</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>661</v>
-      </c>
-      <c r="B46" s="3" t="str">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>440</v>
+      </c>
+      <c r="B46" s="11" t="str">
         <f>IF($G46=_xlfn.MAXIFS($G:$G, $A:$A, $A46), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C46" s="2">
-        <v>44644</v>
-      </c>
-      <c r="D46" s="9" t="s">
+        <v/>
+      </c>
+      <c r="C46" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="G46" s="2">
+        <f>SQRT($E46*$F46)</f>
+        <v>0.30347691839742935</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="10">
-        <v>0.16830000000000001</v>
-      </c>
-      <c r="F46" s="10">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G46" s="8">
-        <f t="shared" si="0"/>
-        <v>0.10378439189011034</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>682</v>
-      </c>
-      <c r="B47" s="3" t="str">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>440</v>
+      </c>
+      <c r="B47" s="11" t="str">
         <f>IF($G47=_xlfn.MAXIFS($G:$G, $A:$A, $A47), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C47" s="2">
-        <v>44646</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="C47" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.1739</v>
+      </c>
+      <c r="G47" s="2">
+        <f>SQRT($E47*$F47)</f>
+        <v>0.39101519152073877</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="10">
-        <v>0.91139999999999999</v>
-      </c>
-      <c r="F47" s="10">
-        <v>0.9819</v>
-      </c>
-      <c r="G47" s="8">
-        <f t="shared" si="0"/>
-        <v>0.94599347777878473</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>693</v>
-      </c>
-      <c r="B48" s="3" t="str">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>653</v>
+      </c>
+      <c r="B48" s="11" t="str">
         <f>IF($G48=_xlfn.MAXIFS($G:$G, $A:$A, $A48), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C48" s="2">
-        <v>44648</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="C48" s="1">
+        <v>44642</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.4602</v>
+      </c>
+      <c r="G48" s="2">
+        <f>SQRT($E48*$F48)</f>
+        <v>0.63897530468712171</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="10">
-        <v>1</v>
-      </c>
-      <c r="F48" s="10">
-        <v>0.42049999999999998</v>
-      </c>
-      <c r="G48" s="8">
-        <f t="shared" si="0"/>
-        <v>0.64845971347493903</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>728</v>
-      </c>
-      <c r="B49" s="3" t="str">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>661</v>
+      </c>
+      <c r="B49" s="11" t="str">
         <f>IF($G49=_xlfn.MAXIFS($G:$G, $A:$A, $A49), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C49" s="2">
-        <v>44651</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="10">
-        <v>1</v>
-      </c>
-      <c r="F49" s="10">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="G49" s="8">
-        <f t="shared" si="0"/>
-        <v>0.77717436910901794</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="19"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>954</v>
-      </c>
-      <c r="B50" s="3" t="str">
+      <c r="C49" s="1">
+        <v>44644</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G49" s="2">
+        <f>SQRT($E49*$F49)</f>
+        <v>0.10378439189011034</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>682</v>
+      </c>
+      <c r="B50" s="11" t="str">
         <f>IF($G50=_xlfn.MAXIFS($G:$G, $A:$A, $A50), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C50" s="2">
-        <v>44652</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="F50" s="10">
-        <v>0.38096666666666662</v>
-      </c>
-      <c r="G50" s="8">
-        <f t="shared" si="0"/>
-        <v>0.61394496496021522</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>1606</v>
-      </c>
-      <c r="B51" s="3" t="str">
+      <c r="C50" s="1">
+        <v>44646</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.9819</v>
+      </c>
+      <c r="G50" s="2">
+        <f>SQRT($E50*$F50)</f>
+        <v>0.94599347777878473</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>693</v>
+      </c>
+      <c r="B51" s="11" t="str">
         <f>IF($G51=_xlfn.MAXIFS($G:$G, $A:$A, $A51), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C51" s="2">
-        <v>44650</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="10">
-        <v>5.6600000000000004E-2</v>
-      </c>
-      <c r="F51" s="10">
+      <c r="C51" s="1">
+        <v>44648</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2">
         <v>1</v>
       </c>
-      <c r="G51" s="8">
-        <f t="shared" si="0"/>
-        <v>0.23790754506740638</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>2024</v>
-      </c>
-      <c r="B52" s="3" t="str">
+      <c r="F51" s="2">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="G51" s="2">
+        <f>SQRT($E51*$F51)</f>
+        <v>0.64845971347493903</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>728</v>
+      </c>
+      <c r="B52" s="11" t="str">
         <f>IF($G52=_xlfn.MAXIFS($G:$G, $A:$A, $A52), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C52" s="2">
-        <v>44649</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0.87609999999999999</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0.49359999999999998</v>
-      </c>
-      <c r="G52" s="8">
-        <f t="shared" si="0"/>
-        <v>0.65760395375940373</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>2028</v>
-      </c>
-      <c r="B53" s="3" t="str">
+      <c r="C52" s="1">
+        <v>44651</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="G52" s="2">
+        <f>SQRT($E52*$F52)</f>
+        <v>0.77717436910901794</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>954</v>
+      </c>
+      <c r="B53" s="11" t="str">
         <f>IF($G53=_xlfn.MAXIFS($G:$G, $A:$A, $A53), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C53" s="2">
-        <v>44647</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F53" s="10">
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="G53" s="8">
-        <f t="shared" si="0"/>
-        <v>0.13444775937143766</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>2028</v>
-      </c>
-      <c r="B54" s="3" t="str">
+        <v>latest</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44652</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.38096666666666662</v>
+      </c>
+      <c r="G53" s="2">
+        <f>SQRT($E53*$F53)</f>
+        <v>0.61394496496021522</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>1606</v>
+      </c>
+      <c r="B54" s="11" t="str">
         <f>IF($G54=_xlfn.MAXIFS($G:$G, $A:$A, $A54), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C54" s="2">
-        <v>44647</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="F54" s="10">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="G54" s="8">
-        <f t="shared" si="0"/>
-        <v>9.3642298134977445E-2</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>2028</v>
-      </c>
-      <c r="B55" s="3" t="str">
+        <v>latest</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5.6600000000000004E-2</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <f>SQRT($E54*$F54)</f>
+        <v>0.23790754506740638</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B55" s="11" t="str">
         <f>IF($G55=_xlfn.MAXIFS($G:$G, $A:$A, $A55), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
+        <v>44649</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="G55" s="2">
+        <f>SQRT($E55*$F55)</f>
+        <v>0.65760395375940373</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B56" s="11" t="str">
+        <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C56" s="1">
         <v>44647</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="D56" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="G56" s="2">
+        <f>SQRT($E56*$F56)</f>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B57" s="11" t="str">
+        <f>IF($G57=_xlfn.MAXIFS($G:$G, $A:$A, $A57), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C57" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="F57" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G57" s="2">
+        <f>SQRT($E57*$F57)</f>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B58" s="11" t="str">
+        <f>IF($G58=_xlfn.MAXIFS($G:$G, $A:$A, $A58), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2">
         <v>0.9677</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F58" s="2">
         <v>0.90539999999999998</v>
       </c>
-      <c r="G55" s="8">
-        <f t="shared" si="0"/>
+      <c r="G58" s="2">
+        <f>SQRT($E58*$F58)</f>
         <v>0.9360318263819879</v>
       </c>
-      <c r="H55" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="H58" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
         <v>2038</v>
       </c>
-      <c r="B56" s="3" t="str">
-        <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
+      <c r="B59" s="11" t="str">
+        <f>IF($G59=_xlfn.MAXIFS($G:$G, $A:$A, $A59), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C59" s="1">
         <v>44647</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="10">
+      <c r="D59" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2">
         <v>0.79410000000000003</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F59" s="2">
         <v>0.76470000000000005</v>
       </c>
-      <c r="G56" s="8">
-        <f t="shared" si="0"/>
+      <c r="G59" s="2">
+        <f>SQRT($E59*$F59)</f>
         <v>0.77926136180359928</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="19"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-      <c r="B87" s="5"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-      <c r="B90" s="5"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-      <c r="B92" s="5"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="5"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-      <c r="B94" s="5"/>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-      <c r="B96" s="5"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-      <c r="B99" s="5"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-      <c r="B105" s="5"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-      <c r="B106" s="5"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-      <c r="B107" s="5"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-      <c r="B108" s="5"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-      <c r="B109" s="5"/>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-      <c r="B110" s="5"/>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-      <c r="B111" s="5"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-      <c r="B112" s="5"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-      <c r="B114" s="5"/>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-      <c r="B115" s="5"/>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-      <c r="B116" s="5"/>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-      <c r="B117" s="5"/>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-      <c r="B118" s="5"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-      <c r="B119" s="5"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-      <c r="B121" s="5"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-      <c r="B123" s="5"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-      <c r="B124" s="5"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-      <c r="B125" s="5"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-      <c r="B126" s="5"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="5"/>
-      <c r="B188" s="5"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="5"/>
-      <c r="B189" s="5"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="5"/>
-      <c r="B190" s="5"/>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="5"/>
-      <c r="B191" s="5"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="5"/>
-      <c r="B192" s="5"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="5"/>
-      <c r="B193" s="5"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="5"/>
-      <c r="B194" s="5"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="5"/>
-      <c r="B195" s="5"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5"/>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="5"/>
-      <c r="B197" s="5"/>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="5"/>
-      <c r="B198" s="5"/>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="5"/>
-      <c r="B199" s="5"/>
+      <c r="H59" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I60">
+    <sortCondition ref="A2:A60"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4873,7 +4297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4883,7 +4307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4895,23 +4319,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
         <color theme="5" tint="0.59999389629810485"/>
         <color theme="8" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4924,8 +4380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD799A93-4D55-406D-8E57-BD372718F680}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4936,63 +4392,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9">
+        <f>COUNTIFS(record!$H:$H,$A2, record!$B:$B, "=latest")</f>
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17">
-        <f>COUNTIFS(record!$H:$H,$A2, record!$B:$B, "=latest")</f>
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="17">
+      <c r="E2" s="9">
         <f>COUNTIFS(record!$D:$D,$D2, record!$B:$B, "=latest")</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="17">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9">
         <f>COUNTIFS(record!$H:$H,$A3, record!$B:$B, "=latest")</f>
-        <v>18</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="17">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="9">
         <f>COUNTIFS(record!$D:$D,$D3, record!$B:$B, "=latest")</f>
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9">
         <f>COUNTIFS(record!$H:$H,$A4, record!$B:$B, "=latest")</f>
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="17">
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9">
         <f>COUNTIFS(record!$D:$D,$D4, record!$B:$B, "=latest")</f>
         <v>16</v>
       </c>
@@ -5076,45 +4532,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
-        <v>100</v>
-      </c>
-      <c r="B2" s="14">
-        <v>100</v>
+      <c r="A2" s="6">
+        <v>77.66</v>
+      </c>
+      <c r="B2" s="6">
+        <v>58.01</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>100</v>
-      </c>
-      <c r="B3" s="14">
-        <v>100</v>
+      <c r="A3" s="7">
+        <v>68.62</v>
+      </c>
+      <c r="B3" s="6">
+        <v>69.540000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>100</v>
-      </c>
-      <c r="B4" s="14">
-        <v>100</v>
+      <c r="A4" s="6">
+        <v>68.62</v>
+      </c>
+      <c r="B4" s="6">
+        <v>70.239999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="5">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="13">
+        <v>0.71633333333333338</v>
+      </c>
+      <c r="B5" s="5">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>1</v>
+        <v>0.65930000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4725A8CA-1886-4A65-818F-0B0B19E15A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72C58C9-A620-410B-BD02-2A42DDD146AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="15">
   <si>
     <t>time submitted</t>
   </si>
@@ -70,6 +70,10 @@
   <si>
     <t>Python</t>
   </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +119,16 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,12 +244,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -257,23 +272,86 @@
     <xf numFmtId="10" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -605,1250 +683,1409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF929EE3-1B26-4D22-8D85-52367CB0BF0D}">
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="7" customWidth="1"/>
-    <col min="2" max="6" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
+    <col min="2" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>44642</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>0.87370000000000003</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>0.2011</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="F2" s="8">
+        <f>SQRT(D2*E2)</f>
+        <v>0.41916711464522122</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>44642</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10">
         <v>0.68379999999999996</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>0.2356</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F40" si="0">SQRT(D3*E3)</f>
+        <v>0.40137673076549912</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>44642</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10">
         <v>0.8669</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>0.35160000000000002</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55208879720566695</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>44642</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="10">
         <v>0.86509999999999998</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>0.3498</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.55010179058061615</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>44642</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10">
         <v>0.9355</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>0.52410000000000001</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.70021107531943538</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>44642</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>0.77859999999999996</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>0.57609999999999995</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66973984501446526</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>44642</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10">
         <v>0.32150000000000001</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>0.1217</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19780432250079877</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>44642</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10">
         <v>0.72589999999999999</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>0.36399999999999999</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.51403073838049806</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
         <v>44642</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10">
         <v>0.76559999999999995</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>0.50939999999999996</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.62449710968106165</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
         <v>44642</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10">
         <v>0.87060000000000004</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>0.59970000000000001</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.72256405944386692</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>44643</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>0.77580000000000005</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65558614994522268</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>44643</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>0.83530000000000004</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="10">
         <v>0.1835</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.39150676877928947</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>44643</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>0.80010000000000003</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="10">
         <v>0.18920000000000001</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38907444017822607</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>44643</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="10">
         <v>0.72340000000000004</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="10">
         <v>0.54730000000000001</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.62921921458264451</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>44646</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10">
         <v>0.70950000000000002</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="10">
         <v>0.64559999999999995</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.67679627658550245</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>44646</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="10">
         <v>0.2412</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.12472930690098459</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>12</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>44646</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="12">
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10">
         <v>0.9103</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="10">
         <v>0.60550000000000004</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.74241945691098377</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>13</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>44646</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>0.78969999999999996</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="10">
         <v>0.47739999999999999</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.61400552114781504</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>14</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>44646</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>0.62480000000000002</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="10">
         <v>0.14610000000000001</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30213122976613987</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>15</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>44647</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="12">
+      <c r="C21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10">
         <v>0.33479999999999999</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>0.55289999999999995</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.43024518591147537</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>15</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>44647</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="C22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10">
         <v>0.79110000000000003</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="10">
         <v>0.53749999999999998</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65208607560658738</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>15</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>44647</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="12">
+      <c r="C23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="10">
         <v>0.65029999999999999</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>0.55859999999999999</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60270853652491096</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>16</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>44647</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="C24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="10">
         <v>0.9597</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="10">
         <v>0.13489999999999999</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.35981040840976236</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>17</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>44649</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="12">
+      <c r="C25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="10">
         <v>0.70179999999999998</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>0.50239999999999996</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.59378811035587431</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>18</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>44649</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>0.4768</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="10">
         <v>0.48149999999999998</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.4791442371562033</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>172</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>44645</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="12">
+      <c r="C27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="10">
         <v>0.84789999999999999</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="10">
         <v>0.32800000000000001</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="F27" s="8">
+        <f t="shared" si="0"/>
+        <v>0.52736249392614187</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>404</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>44643</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>0.73960000000000004</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="10">
         <v>0.14369999999999999</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32600693244162771</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>440</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>44643</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>0.55549999999999999</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="10">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="F29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17093653793147912</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>440</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>44643</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>0.68120000000000003</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="10">
         <v>0.13519999999999999</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30347691839742935</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>440</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>44643</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>0.87919999999999998</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="10">
         <v>0.1739</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.39101519152073877</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>653</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>44642</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>0.88719999999999999</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="10">
         <v>0.4602</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.63897530468712171</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>661</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>44644</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>0.16830000000000001</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="10">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F33" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="F33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10378439189011034</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>682</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>44646</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <v>0.91139999999999999</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="10">
         <v>0.9819</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.94599347777878473</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>693</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>44648</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>1</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="10">
         <v>0.42049999999999998</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.64845971347493903</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>2024</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>44649</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="10">
         <v>0.87609999999999999</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="10">
         <v>0.49359999999999998</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65760395375940373</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>2028</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>44647</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="12">
+      <c r="C37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="10">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="10">
         <v>0.12820000000000001</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>2028</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>44647</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="12">
+      <c r="C38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="10">
         <v>0.12820000000000001</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="10">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>2028</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>44647</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="12">
+      <c r="C39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="10">
         <v>0.9677</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="10">
         <v>0.90539999999999998</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="G39" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>2038</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>44647</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="12">
+      <c r="C40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="10">
         <v>0.79410000000000003</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="10">
         <v>0.76470000000000005</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
+      <c r="F40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.77926136180359928</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
+      <c r="A49" s="5"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
+      <c r="A50" s="5"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
+      <c r="A51" s="5"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6"/>
+      <c r="A52" s="5"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
+      <c r="A53" s="5"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="6"/>
+      <c r="A54" s="5"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="6"/>
+      <c r="A55" s="5"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="6"/>
+      <c r="A56" s="5"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="6"/>
+      <c r="A57" s="5"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
+      <c r="A58" s="5"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6"/>
+      <c r="A59" s="5"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6"/>
+      <c r="A60" s="5"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="6"/>
+      <c r="A61" s="5"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6"/>
+      <c r="A62" s="5"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
+      <c r="A63" s="5"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
+      <c r="A64" s="5"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
+      <c r="A65" s="5"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
+      <c r="A66" s="5"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
+      <c r="A67" s="5"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
+      <c r="A68" s="5"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
+      <c r="A69" s="5"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="6"/>
+      <c r="A70" s="5"/>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6"/>
+      <c r="A71" s="5"/>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6"/>
+      <c r="A72" s="5"/>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6"/>
+      <c r="A73" s="5"/>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="6"/>
+      <c r="A74" s="5"/>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6"/>
+      <c r="A75" s="5"/>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6"/>
+      <c r="A76" s="5"/>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6"/>
+      <c r="A77" s="5"/>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="6"/>
+      <c r="A78" s="5"/>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="6"/>
+      <c r="A79" s="5"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="6"/>
+      <c r="A80" s="5"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="6"/>
+      <c r="A81" s="5"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="6"/>
+      <c r="A82" s="5"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="6"/>
+      <c r="A83" s="5"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="6"/>
+      <c r="A84" s="5"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="6"/>
+      <c r="A85" s="5"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="6"/>
+      <c r="A86" s="5"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="6"/>
+      <c r="A87" s="5"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="6"/>
+      <c r="A88" s="5"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="6"/>
+      <c r="A89" s="5"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="6"/>
+      <c r="A90" s="5"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="6"/>
+      <c r="A91" s="5"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="6"/>
+      <c r="A92" s="5"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="6"/>
+      <c r="A93" s="5"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="6"/>
+      <c r="A94" s="5"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="6"/>
+      <c r="A95" s="5"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="6"/>
+      <c r="A96" s="5"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="6"/>
+      <c r="A97" s="5"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="6"/>
+      <c r="A98" s="5"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="6"/>
+      <c r="A99" s="5"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="6"/>
+      <c r="A100" s="5"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="6"/>
+      <c r="A101" s="5"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6"/>
+      <c r="A102" s="5"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="6"/>
+      <c r="A103" s="5"/>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="6"/>
+      <c r="A104" s="5"/>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="6"/>
+      <c r="A105" s="5"/>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="6"/>
+      <c r="A106" s="5"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="6"/>
+      <c r="A107" s="5"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="6"/>
+      <c r="A108" s="5"/>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="6"/>
+      <c r="A109" s="5"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="6"/>
+      <c r="A110" s="5"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="6"/>
+      <c r="A111" s="5"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="6"/>
+      <c r="A112" s="5"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="6"/>
+      <c r="A113" s="5"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="6"/>
+      <c r="A114" s="5"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="6"/>
+      <c r="A115" s="5"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="6"/>
+      <c r="A116" s="5"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="6"/>
+      <c r="A117" s="5"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="6"/>
+      <c r="A118" s="5"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="6"/>
+      <c r="A119" s="5"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="6"/>
+      <c r="A120" s="5"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="6"/>
+      <c r="A121" s="5"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="6"/>
+      <c r="A122" s="5"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="6"/>
+      <c r="A123" s="5"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="6"/>
+      <c r="A124" s="5"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="6"/>
+      <c r="A125" s="5"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="6"/>
+      <c r="A126" s="5"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="6"/>
+      <c r="A127" s="5"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="6"/>
+      <c r="A128" s="5"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="6"/>
+      <c r="A129" s="5"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="6"/>
+      <c r="A130" s="5"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
+      <c r="A131" s="5"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="6"/>
+      <c r="A132" s="5"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="6"/>
+      <c r="A133" s="5"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="6"/>
+      <c r="A134" s="5"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="6"/>
+      <c r="A135" s="5"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="6"/>
+      <c r="A136" s="5"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="6"/>
+      <c r="A137" s="5"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="6"/>
+      <c r="A138" s="5"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="6"/>
+      <c r="A139" s="5"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="6"/>
+      <c r="A140" s="5"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="6"/>
+      <c r="A141" s="5"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="6"/>
+      <c r="A142" s="5"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="6"/>
+      <c r="A143" s="5"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="6"/>
+      <c r="A144" s="5"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="6"/>
+      <c r="A145" s="5"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="6"/>
+      <c r="A146" s="5"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="6"/>
+      <c r="A147" s="5"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="6"/>
+      <c r="A148" s="5"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="6"/>
+      <c r="A149" s="5"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="6"/>
+      <c r="A150" s="5"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="6"/>
+      <c r="A151" s="5"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="6"/>
+      <c r="A152" s="5"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="6"/>
+      <c r="A153" s="5"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="6"/>
+      <c r="A154" s="5"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="6"/>
+      <c r="A155" s="5"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="6"/>
+      <c r="A156" s="5"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="6"/>
+      <c r="A157" s="5"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="6"/>
+      <c r="A158" s="5"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="6"/>
+      <c r="A159" s="5"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="6"/>
+      <c r="A160" s="5"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="6"/>
+      <c r="A161" s="5"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="6"/>
+      <c r="A162" s="5"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="6"/>
+      <c r="A163" s="5"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="6"/>
+      <c r="A164" s="5"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="6"/>
+      <c r="A165" s="5"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="6"/>
+      <c r="A166" s="5"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="6"/>
+      <c r="A167" s="5"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="6"/>
+      <c r="A168" s="5"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="6"/>
+      <c r="A169" s="5"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="6"/>
+      <c r="A170" s="5"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
+      <c r="A171" s="5"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="6"/>
+      <c r="A172" s="5"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="6"/>
+      <c r="A173" s="5"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="6"/>
+      <c r="A174" s="5"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="6"/>
+      <c r="A175" s="5"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="6"/>
+      <c r="A176" s="5"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="6"/>
+      <c r="A177" s="5"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="6"/>
+      <c r="A178" s="5"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="6"/>
+      <c r="A179" s="5"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="6"/>
+      <c r="A180" s="5"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="6"/>
+      <c r="A181" s="5"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="6"/>
+      <c r="A182" s="5"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="6"/>
+      <c r="A183" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A41:A183">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -1858,7 +2095,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E40">
+  <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -1868,28 +2105,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D40">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="8" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C40">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B40">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1901,6 +2117,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72C58C9-A620-410B-BD02-2A42DDD146AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA7BD7B-91EC-4E8C-8028-FF9F04DC16DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Record" sheetId="1" r:id="rId1"/>
+    <sheet name="Statistic" sheetId="3" r:id="rId2"/>
+    <sheet name="Calculator" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
   <si>
     <t>time submitted</t>
   </si>
@@ -74,15 +76,76 @@
     <t>mean</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>runtime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>language</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>difficulty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +190,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +222,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,6 +374,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -292,7 +397,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -306,7 +411,21 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -320,21 +439,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -348,7 +453,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -375,6 +480,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -384,6 +494,1792 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              </a:rPr>
+              <a:t>编程语言使用比例</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E244-4881-A5C2-C17DC2AEA1C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E244-4881-A5C2-C17DC2AEA1C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-E244-4881-A5C2-C17DC2AEA1C5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistic!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C++</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistic!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E244-4881-A5C2-C17DC2AEA1C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="华文中宋" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="华文中宋" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+                <a:ea typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>题目难度比例</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr lang="zh-CN" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="华文宋体" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-556D-47DF-AC43-8A08B03B8B59}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CF87-4A57-9490-0BDC2F12915A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="CC0000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-556D-47DF-AC43-8A08B03B8B59}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Statistic!$D$2:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Hard</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Medium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Easy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistic!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-556D-47DF-AC43-8A08B03B8B59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="华文中宋" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="华文中宋" panose="02010600040101010101" pitchFamily="2" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5013</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5011</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D2BE19-B1A1-40BF-951C-9A2F21BF0001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="2250905"/>
+          <a:ext cx="5208671" cy="1985211"/>
+          <a:chOff x="0" y="1524000"/>
+          <a:chExt cx="5208671" cy="1985211"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="图表 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF518C3C-0FEC-4532-B169-2430A0593F97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="0" y="1526315"/>
+          <a:ext cx="2391276" cy="1982895"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="图表 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6DA76C-2D6B-4FBE-8E3E-E4ED734F15F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="2817396" y="1524000"/>
+          <a:ext cx="2391275" cy="1985211"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF929EE3-1B26-4D22-8D85-52367CB0BF0D}">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -759,7 +2655,7 @@
         <v>0.2356</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F40" si="0">SQRT(D3*E3)</f>
+        <f t="shared" ref="F3:F42" si="0">SQRT(D3*E3)</f>
         <v>0.40137673076549912</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -1320,71 +3216,71 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="B27" s="2">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D27" s="10">
-        <v>0.84789999999999999</v>
+        <v>0.62590000000000001</v>
       </c>
       <c r="E27" s="10">
-        <v>0.32800000000000001</v>
+        <v>0.86723333333333341</v>
       </c>
       <c r="F27" s="8">
         <f t="shared" si="0"/>
-        <v>0.52736249392614187</v>
+        <v>0.73675052991723966</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>404</v>
+        <v>20</v>
       </c>
       <c r="B28" s="2">
-        <v>44643</v>
+        <v>44649</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D28" s="10">
-        <v>0.73960000000000004</v>
+        <v>0.39960000000000001</v>
       </c>
       <c r="E28" s="10">
-        <v>0.14369999999999999</v>
+        <v>0.64560000000000006</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" si="0"/>
-        <v>0.32600693244162771</v>
+        <v>0.50791904866819082</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="B29" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="10">
-        <v>0.55549999999999999</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="E29" s="10">
-        <v>5.2600000000000001E-2</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" si="0"/>
-        <v>0.17093653793147912</v>
+        <v>0.52736249392614187</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>7</v>
@@ -1392,23 +3288,23 @@
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="B30" s="2">
         <v>44643</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30" s="10">
-        <v>0.68120000000000003</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="E30" s="10">
-        <v>0.13519999999999999</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="0"/>
-        <v>0.30347691839742935</v>
+        <v>0.32600693244162771</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>7</v>
@@ -1425,14 +3321,14 @@
         <v>9</v>
       </c>
       <c r="D31" s="10">
-        <v>0.87919999999999998</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="E31" s="10">
-        <v>0.1739</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="0"/>
-        <v>0.39101519152073877</v>
+        <v>0.17093653793147912</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>7</v>
@@ -1440,23 +3336,23 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>653</v>
+        <v>440</v>
       </c>
       <c r="B32" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D32" s="10">
-        <v>0.88719999999999999</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="E32" s="10">
-        <v>0.4602</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="0"/>
-        <v>0.63897530468712171</v>
+        <v>0.30347691839742935</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>7</v>
@@ -1464,23 +3360,23 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>661</v>
+        <v>440</v>
       </c>
       <c r="B33" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33" s="10">
-        <v>0.16830000000000001</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="E33" s="10">
-        <v>6.4000000000000001E-2</v>
+        <v>0.1739</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="0"/>
-        <v>0.10378439189011034</v>
+        <v>0.39101519152073877</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>7</v>
@@ -1488,71 +3384,71 @@
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="B34" s="2">
-        <v>44646</v>
+        <v>44642</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="10">
-        <v>0.91139999999999999</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="E34" s="10">
-        <v>0.9819</v>
+        <v>0.4602</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="0"/>
-        <v>0.94599347777878473</v>
+        <v>0.63897530468712171</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="B35" s="2">
-        <v>44648</v>
+        <v>44644</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="10">
-        <v>1</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="E35" s="10">
-        <v>0.42049999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="0"/>
-        <v>0.64845971347493903</v>
+        <v>0.10378439189011034</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>2024</v>
+        <v>682</v>
       </c>
       <c r="B36" s="2">
-        <v>44649</v>
+        <v>44646</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="10">
-        <v>0.87609999999999999</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="E36" s="10">
-        <v>0.49359999999999998</v>
+        <v>0.9819</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="0"/>
-        <v>0.65760395375940373</v>
+        <v>0.94599347777878473</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>10</v>
@@ -1560,50 +3456,50 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>2028</v>
+        <v>693</v>
       </c>
       <c r="B37" s="2">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D37" s="10">
-        <v>0.14099999999999999</v>
+        <v>1</v>
       </c>
       <c r="E37" s="10">
-        <v>0.12820000000000001</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="0"/>
-        <v>0.13444775937143766</v>
+        <v>0.64845971347493903</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B38" s="2">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="10">
-        <v>0.12820000000000001</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="E38" s="10">
-        <v>6.8400000000000002E-2</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="0"/>
-        <v>9.3642298134977445E-2</v>
+        <v>0.65760395375940373</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -1617,22 +3513,22 @@
         <v>8</v>
       </c>
       <c r="D39" s="10">
-        <v>0.9677</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="E39" s="10">
-        <v>0.90539999999999998</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="0"/>
-        <v>0.9360318263819879</v>
+        <v>0.13444775937143766</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="B40" s="2">
         <v>44647</v>
@@ -1641,24 +3537,66 @@
         <v>8</v>
       </c>
       <c r="D40" s="10">
-        <v>0.79410000000000003</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="E40" s="10">
-        <v>0.76470000000000005</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="0"/>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.9677</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="0"/>
         <v>0.77926136180359928</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
@@ -2082,6 +4020,12 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2118,14 +4062,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
@@ -2141,4 +4085,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD799A93-4D55-406D-8E57-BD372718F680}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="5.625" customWidth="1"/>
+    <col min="4" max="8" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="17">
+        <f>COUNTIF(Record!$G:$G,A2)</f>
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="17">
+        <f>COUNTIF(Record!$C:$C,D2)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="17">
+        <f>COUNTIF(Record!$G:$G,A3)</f>
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIF(Record!$C:$C,D3)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="17">
+        <f>COUNTIF(Record!$G:$G,A4)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="17">
+        <f>COUNTIF(Record!$C:$C,D4)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741443C7-2DEF-4047-BE45-91FE0D424F53}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>9.94</v>
+      </c>
+      <c r="B2" s="14">
+        <v>88.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15">
+        <v>9.94</v>
+      </c>
+      <c r="B3" s="14">
+        <v>52.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>100</v>
+      </c>
+      <c r="B4" s="14">
+        <v>52.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="B5" s="13">
+        <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
+        <v>0.64560000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA7BD7B-91EC-4E8C-8028-FF9F04DC16DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1F2423-74E2-4D4F-BB61-3431FC6415ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>time submitted</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -667,10 +691,10 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,13 +995,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2579,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF929EE3-1B26-4D22-8D85-52367CB0BF0D}">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2655,7 +2679,7 @@
         <v>0.2356</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F42" si="0">SQRT(D3*E3)</f>
+        <f t="shared" ref="F3:F45" si="0">SQRT(D3*E3)</f>
         <v>0.40137673076549912</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -3264,71 +3288,71 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2">
-        <v>44645</v>
+        <v>44649</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D29" s="10">
-        <v>0.84789999999999999</v>
+        <v>0.33506666666666668</v>
       </c>
       <c r="E29" s="10">
-        <v>0.32800000000000001</v>
+        <v>0.44596666666666662</v>
       </c>
       <c r="F29" s="8">
         <f t="shared" si="0"/>
-        <v>0.52736249392614187</v>
+        <v>0.38655991055002642</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>404</v>
+        <v>22</v>
       </c>
       <c r="B30" s="2">
-        <v>44643</v>
+        <v>44649</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D30" s="10">
-        <v>0.73960000000000004</v>
+        <v>0.77693333333333348</v>
       </c>
       <c r="E30" s="10">
-        <v>0.14369999999999999</v>
+        <v>0.4543666666666667</v>
       </c>
       <c r="F30" s="8">
         <f t="shared" si="0"/>
-        <v>0.32600693244162771</v>
+        <v>0.59414864208284524</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="B31" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="10">
-        <v>0.55549999999999999</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="E31" s="10">
-        <v>5.2600000000000001E-2</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="0"/>
-        <v>0.17093653793147912</v>
+        <v>0.52736249392614187</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>7</v>
@@ -3336,23 +3360,23 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="B32" s="2">
         <v>44643</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D32" s="10">
-        <v>0.68120000000000003</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="E32" s="10">
-        <v>0.13519999999999999</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="0"/>
-        <v>0.30347691839742935</v>
+        <v>0.32600693244162771</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>7</v>
@@ -3369,14 +3393,14 @@
         <v>9</v>
       </c>
       <c r="D33" s="10">
-        <v>0.87919999999999998</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="E33" s="10">
-        <v>0.1739</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="0"/>
-        <v>0.39101519152073877</v>
+        <v>0.17093653793147912</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>7</v>
@@ -3384,23 +3408,23 @@
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>653</v>
+        <v>440</v>
       </c>
       <c r="B34" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D34" s="10">
-        <v>0.88719999999999999</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="E34" s="10">
-        <v>0.4602</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="0"/>
-        <v>0.63897530468712171</v>
+        <v>0.30347691839742935</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>7</v>
@@ -3408,23 +3432,23 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>661</v>
+        <v>440</v>
       </c>
       <c r="B35" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D35" s="10">
-        <v>0.16830000000000001</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="E35" s="10">
-        <v>6.4000000000000001E-2</v>
+        <v>0.1739</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="0"/>
-        <v>0.10378439189011034</v>
+        <v>0.39101519152073877</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>7</v>
@@ -3432,71 +3456,71 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>682</v>
+        <v>653</v>
       </c>
       <c r="B36" s="2">
-        <v>44646</v>
+        <v>44642</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <v>0.91139999999999999</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="E36" s="10">
-        <v>0.9819</v>
+        <v>0.4602</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="0"/>
-        <v>0.94599347777878473</v>
+        <v>0.63897530468712171</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="B37" s="2">
-        <v>44648</v>
+        <v>44644</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="10">
-        <v>1</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="E37" s="10">
-        <v>0.42049999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="0"/>
-        <v>0.64845971347493903</v>
+        <v>0.10378439189011034</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>2024</v>
+        <v>682</v>
       </c>
       <c r="B38" s="2">
-        <v>44649</v>
+        <v>44646</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" s="10">
-        <v>0.87609999999999999</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="E38" s="10">
-        <v>0.49359999999999998</v>
+        <v>0.9819</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="0"/>
-        <v>0.65760395375940373</v>
+        <v>0.94599347777878473</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>10</v>
@@ -3504,71 +3528,71 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>2028</v>
+        <v>693</v>
       </c>
       <c r="B39" s="2">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39" s="10">
-        <v>0.14099999999999999</v>
+        <v>1</v>
       </c>
       <c r="E39" s="10">
-        <v>0.12820000000000001</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="0"/>
-        <v>0.13444775937143766</v>
+        <v>0.64845971347493903</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>2028</v>
+        <v>1606</v>
       </c>
       <c r="B40" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D40" s="10">
-        <v>0.12820000000000001</v>
+        <v>5.6600000000000004E-2</v>
       </c>
       <c r="E40" s="10">
-        <v>6.8400000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="0"/>
-        <v>9.3642298134977445E-2</v>
+        <v>0.23790754506740638</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B41" s="2">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="10">
-        <v>0.9677</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="E41" s="10">
-        <v>0.90539999999999998</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="0"/>
-        <v>0.9360318263819879</v>
+        <v>0.65760395375940373</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>10</v>
@@ -3576,7 +3600,7 @@
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="B42" s="2">
         <v>44647</v>
@@ -3585,27 +3609,90 @@
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <v>0.79410000000000003</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="E42" s="10">
-        <v>0.76470000000000005</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" si="0"/>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="E43" s="10">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.9677</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="0"/>
         <v>0.77926136180359928</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G45" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
@@ -4026,6 +4113,15 @@
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="5"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4092,7 +4188,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4129,7 +4225,7 @@
       </c>
       <c r="E2" s="17">
         <f>COUNTIF(Record!$C:$C,D2)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4138,14 +4234,14 @@
       </c>
       <c r="B3" s="17">
         <f>COUNTIF(Record!$G:$G,A3)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="17">
         <f>COUNTIF(Record!$C:$C,D3)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4154,14 +4250,14 @@
       </c>
       <c r="B4" s="17">
         <f>COUNTIF(Record!$G:$G,A4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="17">
         <f>COUNTIF(Record!$C:$C,D4)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4233,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741443C7-2DEF-4047-BE45-91FE0D424F53}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4253,36 +4349,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>9.94</v>
+        <v>5.66</v>
       </c>
       <c r="B2" s="14">
-        <v>88.06</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
-        <v>9.94</v>
+        <v>5.66</v>
       </c>
       <c r="B3" s="14">
-        <v>52.81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
+        <v>5.66</v>
+      </c>
+      <c r="B4" s="14">
         <v>100</v>
-      </c>
-      <c r="B4" s="14">
-        <v>52.81</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>0.39960000000000001</v>
+        <v>5.6600000000000004E-2</v>
       </c>
       <c r="B5" s="13">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.64560000000000006</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4300,5 +4396,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1F2423-74E2-4D4F-BB61-3431FC6415ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF4DF4E-6FE2-4E88-9FC8-BF0605D41BB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Record" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
   <si>
     <t>time submitted</t>
   </si>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -691,7 +699,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
@@ -1001,7 +1009,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2603,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF929EE3-1B26-4D22-8D85-52367CB0BF0D}">
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2679,7 +2687,7 @@
         <v>0.2356</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F45" si="0">SQRT(D3*E3)</f>
+        <f t="shared" ref="F3:F46" si="0">SQRT(D3*E3)</f>
         <v>0.40137673076549912</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -3552,74 +3560,74 @@
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>1606</v>
+        <v>728</v>
       </c>
       <c r="B40" s="2">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D40" s="10">
-        <v>5.6600000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="E40" s="10">
-        <v>1</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F40" s="8">
         <f t="shared" si="0"/>
-        <v>0.23790754506740638</v>
+        <v>0.77717436910901794</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>2024</v>
+        <v>1606</v>
       </c>
       <c r="B41" s="2">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D41" s="10">
-        <v>0.87609999999999999</v>
+        <v>5.6600000000000004E-2</v>
       </c>
       <c r="E41" s="10">
-        <v>0.49359999999999998</v>
+        <v>1</v>
       </c>
       <c r="F41" s="8">
         <f t="shared" si="0"/>
-        <v>0.65760395375940373</v>
+        <v>0.23790754506740638</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B42" s="2">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <v>0.14099999999999999</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="E42" s="10">
-        <v>0.12820000000000001</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="F42" s="8">
         <f t="shared" si="0"/>
-        <v>0.13444775937143766</v>
+        <v>0.65760395375940373</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -3633,14 +3641,14 @@
         <v>8</v>
       </c>
       <c r="D43" s="10">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E43" s="10">
         <v>0.12820000000000001</v>
-      </c>
-      <c r="E43" s="10">
-        <v>6.8400000000000002E-2</v>
       </c>
       <c r="F43" s="8">
         <f t="shared" si="0"/>
-        <v>9.3642298134977445E-2</v>
+        <v>0.13444775937143766</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>13</v>
@@ -3657,22 +3665,22 @@
         <v>8</v>
       </c>
       <c r="D44" s="10">
-        <v>0.9677</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="E44" s="10">
-        <v>0.90539999999999998</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="F44" s="8">
         <f t="shared" si="0"/>
-        <v>0.9360318263819879</v>
+        <v>9.3642298134977445E-2</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="B45" s="2">
         <v>44647</v>
@@ -3681,21 +3689,42 @@
         <v>8</v>
       </c>
       <c r="D45" s="10">
-        <v>0.79410000000000003</v>
+        <v>0.9677</v>
       </c>
       <c r="E45" s="10">
-        <v>0.76470000000000005</v>
+        <v>0.90539999999999998</v>
       </c>
       <c r="F45" s="8">
         <f t="shared" si="0"/>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="0"/>
         <v>0.77926136180359928</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G46" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -4122,6 +4151,9 @@
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4234,7 +4266,7 @@
       </c>
       <c r="B3" s="17">
         <f>COUNTIF(Record!$G:$G,A3)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>26</v>
@@ -4257,7 +4289,7 @@
       </c>
       <c r="E4" s="17">
         <f>COUNTIF(Record!$C:$C,D4)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4329,8 +4361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741443C7-2DEF-4047-BE45-91FE0D424F53}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4349,36 +4381,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>5.66</v>
+        <v>100</v>
       </c>
       <c r="B2" s="14">
-        <v>100</v>
+        <v>67.11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
-        <v>5.66</v>
+        <v>100</v>
       </c>
       <c r="B3" s="14">
-        <v>100</v>
+        <v>34.450000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <v>5.66</v>
+        <v>100</v>
       </c>
       <c r="B4" s="14">
-        <v>100</v>
+        <v>79.64</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>5.6600000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="13">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>1</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF4DF4E-6FE2-4E88-9FC8-BF0605D41BB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C807A73-687D-43E8-85B8-A5B7D9C863EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Record" sheetId="1" r:id="rId1"/>
-    <sheet name="Statistic" sheetId="3" r:id="rId2"/>
-    <sheet name="Calculator" sheetId="2" r:id="rId3"/>
+    <sheet name="rawRecord" sheetId="4" r:id="rId1"/>
+    <sheet name="Record" sheetId="1" r:id="rId2"/>
+    <sheet name="Statistic" sheetId="3" r:id="rId3"/>
+    <sheet name="Calculator" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
   <si>
     <t>time submitted</t>
   </si>
@@ -166,6 +167,38 @@
   </si>
   <si>
     <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +458,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -696,13 +750,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,13 +1057,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,8 +2314,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="2250905"/>
-          <a:ext cx="5208671" cy="1985211"/>
+          <a:off x="0" y="2274445"/>
+          <a:ext cx="5206491" cy="2004392"/>
           <a:chOff x="0" y="1524000"/>
           <a:chExt cx="5208671" cy="1985211"/>
         </a:xfrm>
@@ -2610,11 +2664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF929EE3-1B26-4D22-8D85-52367CB0BF0D}">
-  <dimension ref="A1:G189"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
+  <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2687,7 +2741,7 @@
         <v>0.2356</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F46" si="0">SQRT(D3*E3)</f>
+        <f t="shared" ref="F3:F51" si="0">SQRT(D3*E3)</f>
         <v>0.40137673076549912</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -3254,7 +3308,7 @@
         <v>44649</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D27" s="10">
         <v>0.62590000000000001</v>
@@ -3267,7 +3321,7 @@
         <v>0.73675052991723966</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -3278,7 +3332,7 @@
         <v>44649</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="10">
         <v>0.39960000000000001</v>
@@ -3291,7 +3345,7 @@
         <v>0.50791904866819082</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -3302,7 +3356,7 @@
         <v>44649</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="10">
         <v>0.33506666666666668</v>
@@ -3315,7 +3369,7 @@
         <v>0.38655991055002642</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
@@ -3326,7 +3380,7 @@
         <v>44649</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D30" s="10">
         <v>0.77693333333333348</v>
@@ -3339,28 +3393,1753 @@
         <v>0.59414864208284524</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.78489999999999993</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.84616666666666673</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8149578005434801</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.62870000000000004</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="0"/>
+        <v>0.79290604739779857</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0.45840000000000003</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="0"/>
+        <v>0.49987382407963715</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.80540000000000012</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0.65079999999999993</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="0"/>
+        <v>0.72398502746949134</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.37839999999999996</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0.17220000000000002</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25526550883344973</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>172</v>
       </c>
+      <c r="B36" s="2">
+        <v>44645</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="0"/>
+        <v>0.52736249392614187</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>404</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32600693244162771</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>440</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="E38" s="10">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="0"/>
+        <v>0.17093653793147912</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>440</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30347691839742935</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>440</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="E40" s="10">
+        <v>0.1739</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="0"/>
+        <v>0.39101519152073877</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>653</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44642</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0.4602</v>
+      </c>
+      <c r="F41" s="8">
+        <f t="shared" si="0"/>
+        <v>0.63897530468712171</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>661</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44644</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="E42" s="10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F42" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10378439189011034</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>682</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44646</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0.9819</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="0"/>
+        <v>0.94599347777878473</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>693</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44648</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="10">
+        <v>1</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="F44" s="8">
+        <f t="shared" si="0"/>
+        <v>0.64845971347493903</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>728</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="10">
+        <v>1</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F45" s="8">
+        <f t="shared" si="0"/>
+        <v>0.77717436910901794</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>1606</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44650</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="10">
+        <v>5.6600000000000004E-2</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <f t="shared" si="0"/>
+        <v>0.23790754506740638</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>2024</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44649</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="F47" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65760395375940373</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="E48" s="10">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="F48" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="E49" s="10">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="F49" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.9677</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="F50" s="8">
+        <f t="shared" si="0"/>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="F51" s="8">
+        <f t="shared" si="0"/>
+        <v>0.77926136180359928</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="5"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="5"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="5"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="5"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="5"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="5"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="5"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="5"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" s="5"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="5"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="5"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" s="5"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="5"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" s="5"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="5"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="5"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="5"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="5"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="5"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="5"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" s="5"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" s="5"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" s="5"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="5"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" s="5"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF929EE3-1B26-4D22-8D85-52367CB0BF0D}">
+  <dimension ref="A1:G182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
+    <col min="2" max="8" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44642</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.2011</v>
+      </c>
+      <c r="F2" s="8">
+        <f>SQRT(D2*E2)</f>
+        <v>0.41916711464522122</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44642</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.8669</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" ref="F3:F39" si="0">SQRT(D3*E3)</f>
+        <v>0.55208879720566695</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44642</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.9355</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>0.70021107531943538</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44642</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.57609999999999995</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0.66973984501446526</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44642</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.32150000000000001</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.1217</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0.19780432250079877</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44642</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.51403073838049806</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44642</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.76559999999999995</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.62449710968106165</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44642</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.87060000000000004</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.59970000000000001</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.72256405944386692</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.77580000000000005</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65558614994522268</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.83530000000000004</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.1835</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.39150676877928947</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.72340000000000004</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.62921921458264451</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44646</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.9103</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.74241945691098377</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44646</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.78969999999999996</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.47739999999999999</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.61400552114781504</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44646</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30213122976613987</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.79110000000000003</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65208607560658738</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44647</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.9597</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.13489999999999999</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.35981040840976236</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44649</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.59378811035587431</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44649</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.4768</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.48149999999999998</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.4791442371562033</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44649</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.86723333333333341</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.73675052991723966</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44649</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.39960000000000001</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0.64560000000000006</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.50791904866819082</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44649</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.33506666666666668</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0.44596666666666662</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.38655991055002642</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44649</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.77693333333333348</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0.4543666666666667</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>0.59414864208284524</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.78489999999999993</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.84616666666666673</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>0.8149578005434801</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.62870000000000004</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>0.79290604739779857</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="10">
+        <v>0.80540000000000012</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.65079999999999993</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="0"/>
+        <v>0.72398502746949134</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44651</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.37839999999999996</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.17220000000000002</v>
+      </c>
+      <c r="F27" s="8">
+        <v>0.25526550883344973</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>172</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44645</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="0"/>
+        <v>0.52736249392614187</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>404</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="0"/>
+        <v>0.32600693244162771</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>404</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44643</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.1739</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="0"/>
+        <v>0.39101519152073877</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>653</v>
+      </c>
       <c r="B31" s="2">
-        <v>44645</v>
+        <v>44642</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="10">
-        <v>0.84789999999999999</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="E31" s="10">
-        <v>0.32800000000000001</v>
+        <v>0.4602</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="0"/>
-        <v>0.52736249392614187</v>
+        <v>0.63897530468712171</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>7</v>
@@ -3368,23 +5147,23 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>404</v>
+        <v>661</v>
       </c>
       <c r="B32" s="2">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="10">
-        <v>0.73960000000000004</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="E32" s="10">
-        <v>0.14369999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F32" s="8">
         <f t="shared" si="0"/>
-        <v>0.32600693244162771</v>
+        <v>0.10378439189011034</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>7</v>
@@ -3392,143 +5171,143 @@
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>440</v>
+        <v>682</v>
       </c>
       <c r="B33" s="2">
-        <v>44643</v>
+        <v>44646</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D33" s="10">
-        <v>0.55549999999999999</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="E33" s="10">
-        <v>5.2600000000000001E-2</v>
+        <v>0.9819</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="0"/>
-        <v>0.17093653793147912</v>
+        <v>0.94599347777878473</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>440</v>
+        <v>693</v>
       </c>
       <c r="B34" s="2">
-        <v>44643</v>
+        <v>44648</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D34" s="10">
-        <v>0.68120000000000003</v>
+        <v>1</v>
       </c>
       <c r="E34" s="10">
-        <v>0.13519999999999999</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="F34" s="8">
         <f t="shared" si="0"/>
-        <v>0.30347691839742935</v>
+        <v>0.64845971347493903</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>440</v>
+        <v>728</v>
       </c>
       <c r="B35" s="2">
-        <v>44643</v>
+        <v>44651</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D35" s="10">
-        <v>0.87919999999999998</v>
+        <v>1</v>
       </c>
       <c r="E35" s="10">
-        <v>0.1739</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F35" s="8">
         <f t="shared" si="0"/>
-        <v>0.39101519152073877</v>
+        <v>0.77717436910901794</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>653</v>
+        <v>1606</v>
       </c>
       <c r="B36" s="2">
-        <v>44642</v>
+        <v>44650</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D36" s="10">
-        <v>0.88719999999999999</v>
+        <v>5.6600000000000004E-2</v>
       </c>
       <c r="E36" s="10">
-        <v>0.4602</v>
+        <v>1</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="0"/>
-        <v>0.63897530468712171</v>
+        <v>0.23790754506740638</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>661</v>
+        <v>2024</v>
       </c>
       <c r="B37" s="2">
-        <v>44644</v>
+        <v>44649</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D37" s="10">
-        <v>0.16830000000000001</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="E37" s="10">
-        <v>6.4000000000000001E-2</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="F37" s="8">
         <f t="shared" si="0"/>
-        <v>0.10378439189011034</v>
+        <v>0.65760395375940373</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>682</v>
+        <v>2028</v>
       </c>
       <c r="B38" s="2">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D38" s="10">
-        <v>0.91139999999999999</v>
+        <v>0.9677</v>
       </c>
       <c r="E38" s="10">
-        <v>0.9819</v>
+        <v>0.90539999999999998</v>
       </c>
       <c r="F38" s="8">
         <f t="shared" si="0"/>
-        <v>0.94599347777878473</v>
+        <v>0.9360318263819879</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>10</v>
@@ -3536,195 +5315,48 @@
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>693</v>
+        <v>2038</v>
       </c>
       <c r="B39" s="2">
-        <v>44648</v>
+        <v>44647</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" s="10">
-        <v>1</v>
+        <v>0.79410000000000003</v>
       </c>
       <c r="E39" s="10">
-        <v>0.42049999999999998</v>
+        <v>0.76470000000000005</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="0"/>
-        <v>0.64845971347493903</v>
+        <v>0.77926136180359928</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>728</v>
-      </c>
-      <c r="B40" s="2">
-        <v>44651</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="0"/>
-        <v>0.77717436910901794</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>1606</v>
-      </c>
-      <c r="B41" s="2">
-        <v>44650</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="10">
-        <v>5.6600000000000004E-2</v>
-      </c>
-      <c r="E41" s="10">
-        <v>1</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="0"/>
-        <v>0.23790754506740638</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>2024</v>
-      </c>
-      <c r="B42" s="2">
-        <v>44649</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0.87609999999999999</v>
-      </c>
-      <c r="E42" s="10">
-        <v>0.49359999999999998</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="0"/>
-        <v>0.65760395375940373</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>2028</v>
-      </c>
-      <c r="B43" s="2">
-        <v>44647</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="0"/>
-        <v>0.13444775937143766</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>2028</v>
-      </c>
-      <c r="B44" s="2">
-        <v>44647</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="10">
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="E44" s="10">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="0"/>
-        <v>9.3642298134977445E-2</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>2028</v>
-      </c>
-      <c r="B45" s="2">
-        <v>44647</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="10">
-        <v>0.9677</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="0"/>
-        <v>0.9360318263819879</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>2038</v>
-      </c>
-      <c r="B46" s="2">
-        <v>44647</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0.79410000000000003</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0.76470000000000005</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="0"/>
-        <v>0.77926136180359928</v>
-      </c>
-      <c r="G46" s="11" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
@@ -4133,27 +5765,6 @@
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="5"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="5"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="5"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="5"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="5"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="5"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4215,12 +5826,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD799A93-4D55-406D-8E57-BD372718F680}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4250,14 +5861,14 @@
       </c>
       <c r="B2" s="17">
         <f>COUNTIF(Record!$G:$G,A2)</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="17">
         <f>COUNTIF(Record!$C:$C,D2)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4266,14 +5877,14 @@
       </c>
       <c r="B3" s="17">
         <f>COUNTIF(Record!$G:$G,A3)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="17">
         <f>COUNTIF(Record!$C:$C,D3)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4282,14 +5893,14 @@
       </c>
       <c r="B4" s="17">
         <f>COUNTIF(Record!$G:$G,A4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E4" s="17">
         <f>COUNTIF(Record!$C:$C,D4)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4357,7 +5968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741443C7-2DEF-4047-BE45-91FE0D424F53}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4367,8 +5978,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4381,36 +5991,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>100</v>
+        <v>25.4</v>
       </c>
       <c r="B2" s="14">
-        <v>67.11</v>
+        <v>30.12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
-        <v>100</v>
+        <v>34.65</v>
       </c>
       <c r="B3" s="14">
-        <v>34.450000000000003</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <v>100</v>
+        <v>53.47</v>
       </c>
       <c r="B4" s="14">
-        <v>79.64</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>1</v>
+        <v>0.37839999999999996</v>
       </c>
       <c r="B5" s="13">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.60399999999999998</v>
+        <v>0.17220000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C807A73-687D-43E8-85B8-A5B7D9C863EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B0F7EC-FD08-4F26-B6DF-2081935F9F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="rawRecord" sheetId="4" r:id="rId1"/>
-    <sheet name="Record" sheetId="1" r:id="rId2"/>
-    <sheet name="Statistic" sheetId="3" r:id="rId3"/>
-    <sheet name="Calculator" sheetId="2" r:id="rId4"/>
+    <sheet name="record" sheetId="4" r:id="rId1"/>
+    <sheet name="statistic" sheetId="3" r:id="rId2"/>
+    <sheet name="calculator" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
   <si>
     <t>time submitted</t>
   </si>
@@ -86,14 +85,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Medium</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>JavaScript</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -130,7 +121,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Easy</t>
+    <t>Hard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -146,35 +137,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Medium</t>
+    <t>latest</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++</t>
+    <t>remark</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -182,23 +149,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>C++</t>
+    <t>Python</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Easy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python</t>
+    <t>DP</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -458,28 +413,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -728,7 +662,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Statistic!$A$2:$A$4</c:f>
+              <c:f>statistic!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -745,7 +679,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Statistic!$B$2:$B$4</c:f>
+              <c:f>statistic!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -756,7 +690,7 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,7 +969,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Statistic!$D$2:$D$4</c:f>
+              <c:f>statistic!$D$2:$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1052,7 +986,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Statistic!$E$2:$E$4</c:f>
+              <c:f>statistic!$E$2:$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1060,7 +994,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -2665,1673 +2599,2105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
-    <col min="2" max="8" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="6" customWidth="1"/>
+    <col min="3" max="8" width="15.625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3" t="str">
+        <f>IF($G2=_xlfn.MAXIFS($G:$G, $A:$A, $A2), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C2" s="1">
         <v>44642</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8">
+      <c r="E2" s="8">
         <v>0.87370000000000003</v>
       </c>
-      <c r="E2" s="8">
+      <c r="F2" s="8">
         <v>0.2011</v>
       </c>
-      <c r="F2" s="8">
-        <f>SQRT(D2*E2)</f>
+      <c r="G2" s="8">
+        <f>SQRT($E2*$F2)</f>
         <v>0.41916711464522122</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:B52" si="0">IF($G3=_xlfn.MAXIFS($G:$G, $A:$A, $A3), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C3" s="2">
         <v>44642</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10">
+      <c r="E3" s="10">
         <v>0.68379999999999996</v>
       </c>
-      <c r="E3" s="10">
+      <c r="F3" s="10">
         <v>0.2356</v>
       </c>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3:F51" si="0">SQRT(D3*E3)</f>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G52" si="1">SQRT($E3*$F3)</f>
         <v>0.40137673076549912</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C4" s="2">
         <v>44642</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10">
+      <c r="E4" s="10">
         <v>0.8669</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="10">
         <v>0.35160000000000002</v>
       </c>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
+      <c r="G4" s="8">
+        <f t="shared" si="1"/>
         <v>0.55208879720566695</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C5" s="2">
         <v>44642</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10">
+      <c r="E5" s="10">
         <v>0.86509999999999998</v>
       </c>
-      <c r="E5" s="10">
+      <c r="F5" s="10">
         <v>0.3498</v>
       </c>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
+      <c r="G5" s="8">
+        <f t="shared" si="1"/>
         <v>0.55010179058061615</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C6" s="2">
         <v>44642</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10">
+      <c r="E6" s="10">
         <v>0.9355</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F6" s="10">
         <v>0.52410000000000001</v>
       </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
+      <c r="G6" s="8">
+        <f t="shared" si="1"/>
         <v>0.70021107531943538</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="H6" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C7" s="2">
         <v>44642</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10">
+      <c r="E7" s="10">
         <v>0.77859999999999996</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F7" s="10">
         <v>0.57609999999999995</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
+      <c r="G7" s="8">
+        <f t="shared" si="1"/>
         <v>0.66973984501446526</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="H7" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C8" s="2">
         <v>44642</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="E8" s="10">
         <v>0.32150000000000001</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F8" s="10">
         <v>0.1217</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
+      <c r="G8" s="8">
+        <f t="shared" si="1"/>
         <v>0.19780432250079877</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C9" s="2">
         <v>44642</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10">
+      <c r="E9" s="10">
         <v>0.72589999999999999</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="10">
         <v>0.36399999999999999</v>
       </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
+      <c r="G9" s="8">
+        <f t="shared" si="1"/>
         <v>0.51403073838049806</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C10" s="2">
         <v>44642</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10">
+      <c r="E10" s="10">
         <v>0.76559999999999995</v>
       </c>
-      <c r="E10" s="10">
+      <c r="F10" s="10">
         <v>0.50939999999999996</v>
       </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
+      <c r="G10" s="8">
+        <f t="shared" si="1"/>
         <v>0.62449710968106165</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C11" s="2">
         <v>44642</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10">
+      <c r="E11" s="10">
         <v>0.87060000000000004</v>
       </c>
-      <c r="E11" s="10">
+      <c r="F11" s="10">
         <v>0.59970000000000001</v>
       </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
+      <c r="G11" s="8">
+        <f t="shared" si="1"/>
         <v>0.72256405944386692</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="H11" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C12" s="2">
         <v>44643</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="10">
+      <c r="E12" s="10">
         <v>0.77580000000000005</v>
       </c>
-      <c r="E12" s="10">
+      <c r="F12" s="10">
         <v>0.55400000000000005</v>
       </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
+      <c r="G12" s="8">
+        <f t="shared" si="1"/>
         <v>0.65558614994522268</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="H12" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C13" s="2">
         <v>44643</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="10">
+      <c r="E13" s="10">
         <v>0.83530000000000004</v>
       </c>
-      <c r="E13" s="10">
+      <c r="F13" s="10">
         <v>0.1835</v>
       </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
+      <c r="G13" s="8">
+        <f t="shared" si="1"/>
         <v>0.39150676877928947</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="2">
         <v>44643</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10">
+      <c r="E14" s="10">
         <v>0.80010000000000003</v>
       </c>
-      <c r="E14" s="10">
+      <c r="F14" s="10">
         <v>0.18920000000000001</v>
       </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
+      <c r="G14" s="8">
+        <f t="shared" si="1"/>
         <v>0.38907444017822607</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="H14" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C15" s="2">
         <v>44643</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="10">
+      <c r="E15" s="10">
         <v>0.72340000000000004</v>
       </c>
-      <c r="E15" s="10">
+      <c r="F15" s="10">
         <v>0.54730000000000001</v>
       </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
+      <c r="G15" s="8">
+        <f t="shared" si="1"/>
         <v>0.62921921458264451</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" s="2">
         <v>44646</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="10">
+      <c r="E16" s="10">
         <v>0.70950000000000002</v>
       </c>
-      <c r="E16" s="10">
+      <c r="F16" s="10">
         <v>0.64559999999999995</v>
       </c>
-      <c r="F16" s="8">
-        <f t="shared" si="0"/>
+      <c r="G16" s="8">
+        <f t="shared" si="1"/>
         <v>0.67679627658550245</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="H16" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="2">
         <v>44646</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="10">
+      <c r="E17" s="10">
         <v>6.4500000000000002E-2</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F17" s="10">
         <v>0.2412</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
+      <c r="G17" s="8">
+        <f t="shared" si="1"/>
         <v>0.12472930690098459</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="H17" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>12</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C18" s="2">
         <v>44646</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="10">
+      <c r="E18" s="10">
         <v>0.9103</v>
       </c>
-      <c r="E18" s="10">
+      <c r="F18" s="10">
         <v>0.60550000000000004</v>
       </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
+      <c r="G18" s="8">
+        <f t="shared" si="1"/>
         <v>0.74241945691098377</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>13</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C19" s="2">
         <v>44646</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="10">
+      <c r="E19" s="10">
         <v>0.78969999999999996</v>
       </c>
-      <c r="E19" s="10">
+      <c r="F19" s="10">
         <v>0.47739999999999999</v>
       </c>
-      <c r="F19" s="8">
-        <f t="shared" si="0"/>
+      <c r="G19" s="8">
+        <f t="shared" si="1"/>
         <v>0.61400552114781504</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>14</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C20" s="2">
         <v>44646</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="10">
+      <c r="E20" s="10">
         <v>0.62480000000000002</v>
       </c>
-      <c r="E20" s="10">
+      <c r="F20" s="10">
         <v>0.14610000000000001</v>
       </c>
-      <c r="F20" s="8">
-        <f t="shared" si="0"/>
+      <c r="G20" s="8">
+        <f t="shared" si="1"/>
         <v>0.30213122976613987</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="H20" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>15</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="2">
         <v>44647</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="10">
+      <c r="E21" s="10">
         <v>0.33479999999999999</v>
       </c>
-      <c r="E21" s="10">
+      <c r="F21" s="10">
         <v>0.55289999999999995</v>
       </c>
-      <c r="F21" s="8">
-        <f t="shared" si="0"/>
+      <c r="G21" s="8">
+        <f t="shared" si="1"/>
         <v>0.43024518591147537</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="H21" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>15</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C22" s="2">
         <v>44647</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="10">
+      <c r="E22" s="10">
         <v>0.79110000000000003</v>
       </c>
-      <c r="E22" s="10">
+      <c r="F22" s="10">
         <v>0.53749999999999998</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" si="0"/>
+      <c r="G22" s="8">
+        <f t="shared" si="1"/>
         <v>0.65208607560658738</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>15</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="2">
         <v>44647</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="10">
+      <c r="E23" s="10">
         <v>0.65029999999999999</v>
       </c>
-      <c r="E23" s="10">
+      <c r="F23" s="10">
         <v>0.55859999999999999</v>
       </c>
-      <c r="F23" s="8">
-        <f t="shared" si="0"/>
+      <c r="G23" s="8">
+        <f t="shared" si="1"/>
         <v>0.60270853652491096</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>16</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C24" s="2">
         <v>44647</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="10">
+      <c r="E24" s="10">
         <v>0.9597</v>
       </c>
-      <c r="E24" s="10">
+      <c r="F24" s="10">
         <v>0.13489999999999999</v>
       </c>
-      <c r="F24" s="8">
-        <f t="shared" si="0"/>
+      <c r="G24" s="8">
+        <f t="shared" si="1"/>
         <v>0.35981040840976236</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="H24" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>17</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C25" s="2">
         <v>44649</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="10">
+      <c r="E25" s="10">
         <v>0.70179999999999998</v>
       </c>
-      <c r="E25" s="10">
+      <c r="F25" s="10">
         <v>0.50239999999999996</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" si="0"/>
+      <c r="G25" s="8">
+        <f t="shared" si="1"/>
         <v>0.59378811035587431</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>18</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C26" s="2">
         <v>44649</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="10">
+      <c r="E26" s="10">
         <v>0.4768</v>
       </c>
-      <c r="E26" s="10">
+      <c r="F26" s="10">
         <v>0.48149999999999998</v>
       </c>
-      <c r="F26" s="8">
-        <f t="shared" si="0"/>
+      <c r="G26" s="8">
+        <f t="shared" si="1"/>
         <v>0.4791442371562033</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="H26" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>19</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C27" s="2">
         <v>44649</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="10">
+      <c r="E27" s="10">
         <v>0.62590000000000001</v>
       </c>
-      <c r="E27" s="10">
+      <c r="F27" s="10">
         <v>0.86723333333333341</v>
       </c>
-      <c r="F27" s="8">
-        <f t="shared" si="0"/>
+      <c r="G27" s="8">
+        <f t="shared" si="1"/>
         <v>0.73675052991723966</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>20</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C28" s="2">
         <v>44649</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="10">
         <v>0.39960000000000001</v>
       </c>
-      <c r="E28" s="10">
+      <c r="F28" s="10">
         <v>0.64560000000000006</v>
       </c>
-      <c r="F28" s="8">
-        <f t="shared" si="0"/>
+      <c r="G28" s="8">
+        <f t="shared" si="1"/>
         <v>0.50791904866819082</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="H28" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>21</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C29" s="2">
         <v>44649</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="10">
         <v>0.33506666666666668</v>
       </c>
-      <c r="E29" s="10">
+      <c r="F29" s="10">
         <v>0.44596666666666662</v>
       </c>
-      <c r="F29" s="8">
-        <f t="shared" si="0"/>
+      <c r="G29" s="8">
+        <f t="shared" si="1"/>
         <v>0.38655991055002642</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>22</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C30" s="2">
         <v>44649</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="10">
+      <c r="E30" s="10">
         <v>0.77693333333333348</v>
       </c>
-      <c r="E30" s="10">
+      <c r="F30" s="10">
         <v>0.4543666666666667</v>
       </c>
-      <c r="F30" s="8">
-        <f t="shared" si="0"/>
+      <c r="G30" s="8">
+        <f t="shared" si="1"/>
         <v>0.59414864208284524</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="H30" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>23</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C31" s="2">
         <v>44651</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="10">
         <v>0.78489999999999993</v>
       </c>
-      <c r="E31" s="10">
+      <c r="F31" s="10">
         <v>0.84616666666666673</v>
       </c>
-      <c r="F31" s="8">
-        <f t="shared" si="0"/>
+      <c r="G31" s="8">
+        <f t="shared" si="1"/>
         <v>0.8149578005434801</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>24</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C32" s="2">
         <v>44651</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="10">
+      <c r="E32" s="10">
         <v>1</v>
       </c>
-      <c r="E32" s="10">
+      <c r="F32" s="10">
         <v>0.62870000000000004</v>
       </c>
-      <c r="F32" s="8">
-        <f t="shared" si="0"/>
+      <c r="G32" s="8">
+        <f t="shared" si="1"/>
         <v>0.79290604739779857</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>25</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="2">
         <v>44651</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="10">
         <v>0.45840000000000003</v>
       </c>
-      <c r="E33" s="10">
+      <c r="F33" s="10">
         <v>0.54510000000000003</v>
       </c>
-      <c r="F33" s="8">
-        <f t="shared" si="0"/>
+      <c r="G33" s="8">
+        <f t="shared" si="1"/>
         <v>0.49987382407963715</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="H33" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>25</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C34" s="2">
         <v>44651</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="10">
         <v>0.80540000000000012</v>
       </c>
-      <c r="E34" s="10">
+      <c r="F34" s="10">
         <v>0.65079999999999993</v>
       </c>
-      <c r="F34" s="8">
-        <f t="shared" si="0"/>
+      <c r="G34" s="8">
+        <f t="shared" si="1"/>
         <v>0.72398502746949134</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>26</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C35" s="2">
         <v>44651</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="10">
         <v>0.37839999999999996</v>
       </c>
-      <c r="E35" s="10">
+      <c r="F35" s="10">
         <v>0.17220000000000002</v>
       </c>
-      <c r="F35" s="8">
-        <f t="shared" si="0"/>
+      <c r="G35" s="8">
+        <f t="shared" si="1"/>
         <v>0.25526550883344973</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H35" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>172</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C36" s="2">
         <v>44645</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="10">
+      <c r="E36" s="10">
         <v>0.84789999999999999</v>
       </c>
-      <c r="E36" s="10">
+      <c r="F36" s="10">
         <v>0.32800000000000001</v>
       </c>
-      <c r="F36" s="8">
+      <c r="G36" s="8">
+        <f t="shared" si="1"/>
+        <v>0.52736249392614187</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>300</v>
+      </c>
+      <c r="B37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0.52736249392614187</v>
-      </c>
-      <c r="G36" s="11" t="s">
+        <v>latest</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44651</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0.6990666666666665</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0.32386666666666664</v>
+      </c>
+      <c r="G37" s="8">
+        <f t="shared" si="1"/>
+        <v>0.47581970441661098</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>404</v>
+      </c>
+      <c r="B38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44643</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0.14369999999999999</v>
+      </c>
+      <c r="G38" s="8">
+        <f t="shared" si="1"/>
+        <v>0.32600693244162771</v>
+      </c>
+      <c r="H38" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>404</v>
-      </c>
-      <c r="B37" s="2">
-        <v>44643</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.14369999999999999</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="0"/>
-        <v>0.32600693244162771</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>440</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44643</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="E38" s="10">
-        <v>5.2600000000000001E-2</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="0"/>
-        <v>0.17093653793147912</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>440</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="2">
         <v>44643</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="10">
-        <v>0.68120000000000003</v>
-      </c>
       <c r="E39" s="10">
-        <v>0.13519999999999999</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="0"/>
-        <v>0.30347691839742935</v>
-      </c>
-      <c r="G39" s="11" t="s">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="F39" s="10">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="G39" s="8">
+        <f t="shared" si="1"/>
+        <v>0.17093653793147912</v>
+      </c>
+      <c r="H39" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>440</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="2">
         <v>44643</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="10">
+      <c r="E40" s="10">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="F40" s="10">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="G40" s="8">
+        <f t="shared" si="1"/>
+        <v>0.30347691839742935</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>440</v>
+      </c>
+      <c r="B41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44643</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="10">
         <v>0.87919999999999998</v>
       </c>
-      <c r="E40" s="10">
+      <c r="F41" s="10">
         <v>0.1739</v>
       </c>
-      <c r="F40" s="8">
+      <c r="G41" s="8">
+        <f t="shared" si="1"/>
+        <v>0.39101519152073877</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>653</v>
+      </c>
+      <c r="B42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0.39101519152073877</v>
-      </c>
-      <c r="G40" s="11" t="s">
+        <v>latest</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44642</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="F42" s="10">
+        <v>0.4602</v>
+      </c>
+      <c r="G42" s="8">
+        <f t="shared" si="1"/>
+        <v>0.63897530468712171</v>
+      </c>
+      <c r="H42" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>653</v>
-      </c>
-      <c r="B41" s="2">
-        <v>44642</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>661</v>
+      </c>
+      <c r="B43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44644</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="10">
-        <v>0.88719999999999999</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0.4602</v>
-      </c>
-      <c r="F41" s="8">
+      <c r="E43" s="10">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="F43" s="10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="1"/>
+        <v>0.10378439189011034</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>682</v>
+      </c>
+      <c r="B44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0.63897530468712171</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>661</v>
-      </c>
-      <c r="B42" s="2">
-        <v>44644</v>
-      </c>
-      <c r="C42" s="9" t="s">
+        <v>latest</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44646</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="10">
-        <v>0.16830000000000001</v>
-      </c>
-      <c r="E42" s="10">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F42" s="8">
+      <c r="E44" s="10">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="F44" s="10">
+        <v>0.9819</v>
+      </c>
+      <c r="G44" s="8">
+        <f t="shared" si="1"/>
+        <v>0.94599347777878473</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>693</v>
+      </c>
+      <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0.10378439189011034</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>682</v>
-      </c>
-      <c r="B43" s="2">
-        <v>44646</v>
-      </c>
-      <c r="C43" s="9" t="s">
+        <v>latest</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44648</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="10">
-        <v>0.91139999999999999</v>
-      </c>
-      <c r="E43" s="10">
-        <v>0.9819</v>
-      </c>
-      <c r="F43" s="8">
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="G45" s="8">
+        <f t="shared" si="1"/>
+        <v>0.64845971347493903</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>728</v>
+      </c>
+      <c r="B46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0.94599347777878473</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>693</v>
-      </c>
-      <c r="B44" s="2">
-        <v>44648</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="10">
-        <v>1</v>
-      </c>
-      <c r="E44" s="10">
-        <v>0.42049999999999998</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="0"/>
-        <v>0.64845971347493903</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>728</v>
-      </c>
-      <c r="B45" s="2">
+        <v>latest</v>
+      </c>
+      <c r="C46" s="2">
         <v>44651</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="0"/>
-        <v>0.77717436910901794</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>1606</v>
-      </c>
-      <c r="B46" s="2">
-        <v>44650</v>
-      </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="D46" s="10">
-        <v>5.6600000000000004E-2</v>
       </c>
       <c r="E46" s="10">
         <v>1</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="10">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="G46" s="8">
+        <f t="shared" si="1"/>
+        <v>0.77717436910901794</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>1606</v>
+      </c>
+      <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44650</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="10">
+        <v>5.6600000000000004E-2</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="8">
+        <f t="shared" si="1"/>
         <v>0.23790754506740638</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>2024</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B48" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C48" s="2">
         <v>44649</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="10">
+      <c r="E48" s="10">
         <v>0.87609999999999999</v>
       </c>
-      <c r="E47" s="10">
+      <c r="F48" s="10">
         <v>0.49359999999999998</v>
       </c>
-      <c r="F47" s="8">
-        <f t="shared" si="0"/>
+      <c r="G48" s="8">
+        <f t="shared" si="1"/>
         <v>0.65760395375940373</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="H48" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>2028</v>
-      </c>
-      <c r="B48" s="2">
-        <v>44647</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="10">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="E48" s="10">
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="0"/>
-        <v>0.13444775937143766</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>2028</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C49" s="2">
         <v>44647</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="10">
+      <c r="E49" s="10">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F49" s="10">
         <v>0.12820000000000001</v>
       </c>
-      <c r="E49" s="10">
-        <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="0"/>
-        <v>9.3642298134977445E-2</v>
-      </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="8">
+        <f t="shared" si="1"/>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>2028</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="2">
         <v>44647</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="10">
+      <c r="E50" s="10">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="F50" s="10">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G50" s="8">
+        <f t="shared" si="1"/>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B51" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>latest</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44647</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="10">
         <v>0.9677</v>
       </c>
-      <c r="E50" s="10">
+      <c r="F51" s="10">
         <v>0.90539999999999998</v>
       </c>
-      <c r="F50" s="8">
+      <c r="G51" s="8">
+        <f t="shared" si="1"/>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0.9360318263819879</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>2038</v>
-      </c>
-      <c r="B51" s="2">
+        <v>latest</v>
+      </c>
+      <c r="C52" s="2">
         <v>44647</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="10">
+      <c r="E52" s="10">
         <v>0.79410000000000003</v>
       </c>
-      <c r="E51" s="10">
+      <c r="F52" s="10">
         <v>0.76470000000000005</v>
       </c>
-      <c r="F51" s="8">
-        <f t="shared" si="0"/>
+      <c r="G52" s="8">
+        <f t="shared" si="1"/>
         <v>0.77926136180359928</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="H52" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="5"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B55" s="5"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="5"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B62" s="5"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B63" s="5"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" s="5"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B67" s="5"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="5"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" s="5"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" s="5"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" s="5"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" s="5"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" s="5"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" s="5"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" s="5"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="5"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B80" s="5"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="5"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" s="5"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" s="5"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" s="5"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" s="5"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" s="5"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" s="5"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B93" s="5"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" s="5"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" s="5"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" s="5"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B97" s="5"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B99" s="5"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B101" s="5"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B102" s="5"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B103" s="5"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B104" s="5"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B105" s="5"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B107" s="5"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="5"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B108" s="5"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="5"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B109" s="5"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="5"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B110" s="5"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="5"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B111" s="5"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="5"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="5"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B113" s="5"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="5"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="5"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B115" s="5"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="5"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B116" s="5"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="5"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B117" s="5"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="5"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B118" s="5"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B119" s="5"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="5"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B120" s="5"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="5"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B121" s="5"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="5"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B122" s="5"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="5"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B123" s="5"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="5"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B124" s="5"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="5"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B125" s="5"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B126" s="5"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="5"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B127" s="5"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="5"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="5"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="5"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="5"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="5"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="5"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="5"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="5"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="5"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="5"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B133" s="5"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B135" s="5"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="5"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B136" s="5"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="5"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B137" s="5"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B139" s="5"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="5"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B140" s="5"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="5"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B141" s="5"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B142" s="5"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B143" s="5"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="5"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B144" s="5"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="5"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="5"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="5"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B147" s="5"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="5"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B148" s="5"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="5"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B149" s="5"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="5"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="5"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B151" s="5"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="5"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B152" s="5"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="5"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B153" s="5"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="5"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="5"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B155" s="5"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="5"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B156" s="5"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="5"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B157" s="5"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="5"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B158" s="5"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="5"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B159" s="5"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="5"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B160" s="5"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="5"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B161" s="5"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="5"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="5"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B163" s="5"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="5"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B164" s="5"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="5"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B165" s="5"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="5"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B166" s="5"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="5"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B167" s="5"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="5"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B168" s="5"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="5"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B169" s="5"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="5"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="5"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="5"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B172" s="5"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="5"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B173" s="5"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="5"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B174" s="5"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="5"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B175" s="5"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="5"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B176" s="5"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="5"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B177" s="5"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="5"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B178" s="5"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="5"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B179" s="5"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="5"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B180" s="5"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="5"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B181" s="5"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B182" s="5"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="5"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B183" s="5"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="5"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B184" s="5"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="5"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B185" s="5"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="5"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186" s="5"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B187" s="5"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B188" s="5"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B189" s="5"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B190" s="5"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B191" s="5"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B193" s="5"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="5"/>
+      <c r="B195" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4341,7 +4707,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4351,7 +4717,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4363,18 +4729,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Medium">
+      <formula>NOT(ISERROR(SEARCH("Medium",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4390,1448 +4756,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF929EE3-1B26-4D22-8D85-52367CB0BF0D}">
-  <dimension ref="A1:G182"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
-    <col min="2" max="8" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>44642</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.87370000000000003</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.2011</v>
-      </c>
-      <c r="F2" s="8">
-        <f>SQRT(D2*E2)</f>
-        <v>0.41916711464522122</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44642</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.8669</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.35160000000000002</v>
-      </c>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3:F39" si="0">SQRT(D3*E3)</f>
-        <v>0.55208879720566695</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44642</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.9355</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.52410000000000001</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>0.70021107531943538</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44642</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.77859999999999996</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.57609999999999995</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>0.66973984501446526</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>44642</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.1217</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>0.19780432250079877</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44642</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.72589999999999999</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>0.51403073838049806</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44642</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.76559999999999995</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.50939999999999996</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>0.62449710968106165</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44642</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.87060000000000004</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.59970000000000001</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>0.72256405944386692</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44643</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.77580000000000005</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>0.65558614994522268</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44643</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.83530000000000004</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.1835</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>0.39150676877928947</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>44643</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.72340000000000004</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.54730000000000001</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
-        <v>0.62921921458264451</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44646</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.9103</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.60550000000000004</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>0.74241945691098377</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44646</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0.78969999999999996</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0.47739999999999999</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
-        <v>0.61400552114781504</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>44646</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.62480000000000002</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0.14610000000000001</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>0.30213122976613987</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>44647</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0.79110000000000003</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="0"/>
-        <v>0.65208607560658738</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44647</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.9597</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0.13489999999999999</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
-        <v>0.35981040840976236</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44649</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0.70179999999999998</v>
-      </c>
-      <c r="E18" s="10">
-        <v>0.50239999999999996</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59378811035587431</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44649</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.4768</v>
-      </c>
-      <c r="E19" s="10">
-        <v>0.48149999999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="0"/>
-        <v>0.4791442371562033</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
-        <v>44649</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0.62590000000000001</v>
-      </c>
-      <c r="E20" s="10">
-        <v>0.86723333333333341</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="0"/>
-        <v>0.73675052991723966</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
-        <v>44649</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.39960000000000001</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0.64560000000000006</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="0"/>
-        <v>0.50791904866819082</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>44649</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0.33506666666666668</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0.44596666666666662</v>
-      </c>
-      <c r="F22" s="8">
-        <f t="shared" si="0"/>
-        <v>0.38655991055002642</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44649</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.77693333333333348</v>
-      </c>
-      <c r="E23" s="10">
-        <v>0.4543666666666667</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="0"/>
-        <v>0.59414864208284524</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44651</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0.78489999999999993</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0.84616666666666673</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" si="0"/>
-        <v>0.8149578005434801</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
-        <v>44651</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0.62870000000000004</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="0"/>
-        <v>0.79290604739779857</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44651</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0.80540000000000012</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.65079999999999993</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="0"/>
-        <v>0.72398502746949134</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>44651</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0.37839999999999996</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0.17220000000000002</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0.25526550883344973</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>172</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44645</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.84789999999999999</v>
-      </c>
-      <c r="E28" s="10">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="0"/>
-        <v>0.52736249392614187</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>404</v>
-      </c>
-      <c r="B29" s="2">
-        <v>44643</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0.14369999999999999</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="0"/>
-        <v>0.32600693244162771</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>404</v>
-      </c>
-      <c r="B30" s="2">
-        <v>44643</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0.87919999999999998</v>
-      </c>
-      <c r="E30" s="10">
-        <v>0.1739</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="0"/>
-        <v>0.39101519152073877</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>653</v>
-      </c>
-      <c r="B31" s="2">
-        <v>44642</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.88719999999999999</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.4602</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="0"/>
-        <v>0.63897530468712171</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>661</v>
-      </c>
-      <c r="B32" s="2">
-        <v>44644</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.16830000000000001</v>
-      </c>
-      <c r="E32" s="10">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="0"/>
-        <v>0.10378439189011034</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>682</v>
-      </c>
-      <c r="B33" s="2">
-        <v>44646</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.91139999999999999</v>
-      </c>
-      <c r="E33" s="10">
-        <v>0.9819</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="0"/>
-        <v>0.94599347777878473</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>693</v>
-      </c>
-      <c r="B34" s="2">
-        <v>44648</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="10">
-        <v>1</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0.42049999999999998</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="0"/>
-        <v>0.64845971347493903</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>728</v>
-      </c>
-      <c r="B35" s="2">
-        <v>44651</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="0"/>
-        <v>0.77717436910901794</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>1606</v>
-      </c>
-      <c r="B36" s="2">
-        <v>44650</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="10">
-        <v>5.6600000000000004E-2</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="0"/>
-        <v>0.23790754506740638</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>2024</v>
-      </c>
-      <c r="B37" s="2">
-        <v>44649</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0.87609999999999999</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.49359999999999998</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="0"/>
-        <v>0.65760395375940373</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>2028</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44647</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0.9677</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0.90539999999999998</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="0"/>
-        <v>0.9360318263819879</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>2038</v>
-      </c>
-      <c r="B39" s="2">
-        <v>44647</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0.79410000000000003</v>
-      </c>
-      <c r="E39" s="10">
-        <v>0.76470000000000005</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="0"/>
-        <v>0.77926136180359928</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="5"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="5"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="5"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="5"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="5"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" s="5"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153" s="5"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154" s="5"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155" s="5"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" s="5"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" s="5"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" s="5"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" s="5"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" s="5"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" s="5"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162" s="5"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="5"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="5"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="5"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="5"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="5"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="5"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="5"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="5"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="5"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="5"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="5"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="5"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="5"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="5"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="5"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="5"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="5"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="5"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="5"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="8" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="8" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Medium">
-      <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="8" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD799A93-4D55-406D-8E57-BD372718F680}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5843,63 +4772,63 @@
   <sheetData>
     <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="17">
-        <f>COUNTIF(Record!$G:$G,A2)</f>
+        <f>COUNTIFS(record!$H:$H,$A2, record!$B:$B, "=latest")</f>
         <v>20</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="17">
-        <f>COUNTIF(Record!$C:$C,D2)</f>
+        <f>COUNTIFS(record!$D:$D,$D2, record!$B:$B, "=latest")</f>
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17">
+        <f>COUNTIFS(record!$H:$H,$A3, record!$B:$B, "=latest")</f>
+        <v>16</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="17">
+        <f>COUNTIFS(record!$D:$D,$D3, record!$B:$B, "=latest")</f>
         <v>20</v>
-      </c>
-      <c r="B3" s="17">
-        <f>COUNTIF(Record!$G:$G,A3)</f>
-        <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="17">
-        <f>COUNTIF(Record!$C:$C,D3)</f>
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="17">
-        <f>COUNTIF(Record!$G:$G,A4)</f>
-        <v>2</v>
+        <f>COUNTIFS(record!$H:$H,$A4, record!$B:$B, "=latest")</f>
+        <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="17">
-        <f>COUNTIF(Record!$C:$C,D4)</f>
+        <f>COUNTIFS(record!$D:$D,$D4, record!$B:$B, "=latest")</f>
         <v>13</v>
       </c>
     </row>
@@ -5968,7 +4897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741443C7-2DEF-4047-BE45-91FE0D424F53}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -5991,36 +4920,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>25.4</v>
+        <v>70.44</v>
       </c>
       <c r="B2" s="14">
-        <v>30.12</v>
+        <v>42.74</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
-        <v>34.65</v>
+        <v>69.08</v>
       </c>
       <c r="B3" s="14">
-        <v>16.23</v>
+        <v>33.67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <v>53.47</v>
+        <v>70.2</v>
       </c>
       <c r="B4" s="14">
-        <v>5.31</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>0.37839999999999996</v>
+        <v>0.6990666666666665</v>
       </c>
       <c r="B5" s="13">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.17220000000000002</v>
+        <v>0.32386666666666664</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Done\study\doneAlgo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B0F7EC-FD08-4F26-B6DF-2081935F9F75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB38EB1B-355C-499C-AD37-0DC6352997AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>time submitted</t>
   </si>
@@ -153,7 +153,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DP</t>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String Matching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +390,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -408,6 +444,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,10 +732,10 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,10 +1039,10 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2599,10 +2644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2610,7 +2655,7 @@
     <col min="1" max="1" width="15.625" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="6" customWidth="1"/>
     <col min="3" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2638,7 +2683,7 @@
       <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2669,14 +2714,14 @@
       <c r="H2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B52" si="0">IF($G3=_xlfn.MAXIFS($G:$G, $A:$A, $A3), "latest", "")</f>
+        <f>IF($G3=_xlfn.MAXIFS($G:$G, $A:$A, $A3), "latest", "")</f>
         <v/>
       </c>
       <c r="C3" s="2">
@@ -2692,20 +2737,20 @@
         <v>0.2356</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G52" si="1">SQRT($E3*$F3)</f>
+        <f t="shared" ref="G3:G56" si="0">SQRT($E3*$F3)</f>
         <v>0.40137673076549912</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G4=_xlfn.MAXIFS($G:$G, $A:$A, $A4), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C4" s="2">
@@ -2721,20 +2766,20 @@
         <v>0.35160000000000002</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.55208879720566695</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="11"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G5=_xlfn.MAXIFS($G:$G, $A:$A, $A5), "latest", "")</f>
         <v/>
       </c>
       <c r="C5" s="2">
@@ -2750,20 +2795,20 @@
         <v>0.3498</v>
       </c>
       <c r="G5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.55010179058061615</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="11"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G6=_xlfn.MAXIFS($G:$G, $A:$A, $A6), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C6" s="2">
@@ -2779,20 +2824,20 @@
         <v>0.52410000000000001</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.70021107531943538</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G7=_xlfn.MAXIFS($G:$G, $A:$A, $A7), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C7" s="2">
@@ -2808,20 +2853,20 @@
         <v>0.57609999999999995</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.66973984501446526</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="11"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G8=_xlfn.MAXIFS($G:$G, $A:$A, $A8), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C8" s="2">
@@ -2837,20 +2882,20 @@
         <v>0.1217</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.19780432250079877</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="11"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G9=_xlfn.MAXIFS($G:$G, $A:$A, $A9), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C9" s="2">
@@ -2866,20 +2911,20 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.51403073838049806</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="11"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G10=_xlfn.MAXIFS($G:$G, $A:$A, $A10), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C10" s="2">
@@ -2895,20 +2940,20 @@
         <v>0.50939999999999996</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.62449710968106165</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G11=_xlfn.MAXIFS($G:$G, $A:$A, $A11), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C11" s="2">
@@ -2924,20 +2969,20 @@
         <v>0.59970000000000001</v>
       </c>
       <c r="G11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.72256405944386692</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="11"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G12=_xlfn.MAXIFS($G:$G, $A:$A, $A12), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C12" s="2">
@@ -2953,20 +2998,20 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.65558614994522268</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G13=_xlfn.MAXIFS($G:$G, $A:$A, $A13), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C13" s="2">
@@ -2982,20 +3027,20 @@
         <v>0.1835</v>
       </c>
       <c r="G13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.39150676877928947</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G14=_xlfn.MAXIFS($G:$G, $A:$A, $A14), "latest", "")</f>
         <v/>
       </c>
       <c r="C14" s="2">
@@ -3011,20 +3056,20 @@
         <v>0.18920000000000001</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.38907444017822607</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G15=_xlfn.MAXIFS($G:$G, $A:$A, $A15), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C15" s="2">
@@ -3040,20 +3085,20 @@
         <v>0.54730000000000001</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.62921921458264451</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="11"/>
+      <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G16=_xlfn.MAXIFS($G:$G, $A:$A, $A16), "latest", "")</f>
         <v/>
       </c>
       <c r="C16" s="2">
@@ -3069,20 +3114,20 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.67679627658550245</v>
       </c>
       <c r="H16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="11"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G17=_xlfn.MAXIFS($G:$G, $A:$A, $A17), "latest", "")</f>
         <v/>
       </c>
       <c r="C17" s="2">
@@ -3098,20 +3143,20 @@
         <v>0.2412</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12472930690098459</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I17" s="11"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G18=_xlfn.MAXIFS($G:$G, $A:$A, $A18), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C18" s="2">
@@ -3127,20 +3172,20 @@
         <v>0.60550000000000004</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.74241945691098377</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="11"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G19=_xlfn.MAXIFS($G:$G, $A:$A, $A19), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C19" s="2">
@@ -3156,20 +3201,20 @@
         <v>0.47739999999999999</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.61400552114781504</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G20=_xlfn.MAXIFS($G:$G, $A:$A, $A20), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C20" s="2">
@@ -3185,20 +3230,20 @@
         <v>0.14610000000000001</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.30213122976613987</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="11"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G21=_xlfn.MAXIFS($G:$G, $A:$A, $A21), "latest", "")</f>
         <v/>
       </c>
       <c r="C21" s="2">
@@ -3214,20 +3259,20 @@
         <v>0.55289999999999995</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.43024518591147537</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>15</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G22=_xlfn.MAXIFS($G:$G, $A:$A, $A22), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C22" s="2">
@@ -3243,20 +3288,20 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.65208607560658738</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>15</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G23=_xlfn.MAXIFS($G:$G, $A:$A, $A23), "latest", "")</f>
         <v/>
       </c>
       <c r="C23" s="2">
@@ -3272,20 +3317,20 @@
         <v>0.55859999999999999</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.60270853652491096</v>
       </c>
       <c r="H23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>16</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G24=_xlfn.MAXIFS($G:$G, $A:$A, $A24), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C24" s="2">
@@ -3301,20 +3346,20 @@
         <v>0.13489999999999999</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.35981040840976236</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>17</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G25=_xlfn.MAXIFS($G:$G, $A:$A, $A25), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C25" s="2">
@@ -3330,20 +3375,20 @@
         <v>0.50239999999999996</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.59378811035587431</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="I25" s="19"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>18</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G26=_xlfn.MAXIFS($G:$G, $A:$A, $A26), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C26" s="2">
@@ -3359,20 +3404,20 @@
         <v>0.48149999999999998</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.4791442371562033</v>
       </c>
       <c r="H26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>19</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G27=_xlfn.MAXIFS($G:$G, $A:$A, $A27), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C27" s="2">
@@ -3388,20 +3433,20 @@
         <v>0.86723333333333341</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.73675052991723966</v>
       </c>
       <c r="H27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="11"/>
+      <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>20</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G28=_xlfn.MAXIFS($G:$G, $A:$A, $A28), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C28" s="2">
@@ -3417,20 +3462,20 @@
         <v>0.64560000000000006</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.50791904866819082</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="11"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>21</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G29=_xlfn.MAXIFS($G:$G, $A:$A, $A29), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C29" s="2">
@@ -3446,20 +3491,20 @@
         <v>0.44596666666666662</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.38655991055002642</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="11"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>22</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G30=_xlfn.MAXIFS($G:$G, $A:$A, $A30), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C30" s="2">
@@ -3475,20 +3520,20 @@
         <v>0.4543666666666667</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.59414864208284524</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="11"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>23</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G31=_xlfn.MAXIFS($G:$G, $A:$A, $A31), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C31" s="2">
@@ -3504,20 +3549,20 @@
         <v>0.84616666666666673</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.8149578005434801</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="11"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>24</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G32=_xlfn.MAXIFS($G:$G, $A:$A, $A32), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C32" s="2">
@@ -3533,20 +3578,20 @@
         <v>0.62870000000000004</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.79290604739779857</v>
       </c>
       <c r="H32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="11"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>25</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G33=_xlfn.MAXIFS($G:$G, $A:$A, $A33), "latest", "")</f>
         <v/>
       </c>
       <c r="C33" s="2">
@@ -3562,20 +3607,20 @@
         <v>0.54510000000000003</v>
       </c>
       <c r="G33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.49987382407963715</v>
       </c>
       <c r="H33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="11"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>25</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G34=_xlfn.MAXIFS($G:$G, $A:$A, $A34), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C34" s="2">
@@ -3591,20 +3636,20 @@
         <v>0.65079999999999993</v>
       </c>
       <c r="G34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.72398502746949134</v>
       </c>
       <c r="H34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="11"/>
+      <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>26</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G35=_xlfn.MAXIFS($G:$G, $A:$A, $A35), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C35" s="2">
@@ -3620,524 +3665,628 @@
         <v>0.17220000000000002</v>
       </c>
       <c r="G35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.25526550883344973</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="11"/>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G36=_xlfn.MAXIFS($G:$G, $A:$A, $A36), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C36" s="2">
-        <v>44645</v>
+        <v>44651</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E36" s="10">
-        <v>0.84789999999999999</v>
+        <v>0.47896666666666671</v>
       </c>
       <c r="F36" s="10">
-        <v>0.32800000000000001</v>
+        <v>0.3685666666666666</v>
       </c>
       <c r="G36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.52736249392614187</v>
+        <f t="shared" si="0"/>
+        <v>0.42015609929855563</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>300</v>
+        <v>28</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G37=_xlfn.MAXIFS($G:$G, $A:$A, $A37), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C37" s="2">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E37" s="10">
-        <v>0.6990666666666665</v>
+        <v>1</v>
       </c>
       <c r="F37" s="10">
-        <v>0.32386666666666664</v>
+        <v>1</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.47581970441661098</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>404</v>
+        <v>70</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G38=_xlfn.MAXIFS($G:$G, $A:$A, $A38), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C38" s="2">
-        <v>44643</v>
+        <v>44651</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E38" s="10">
-        <v>0.73960000000000004</v>
+        <v>0.40550000000000003</v>
       </c>
       <c r="F38" s="10">
-        <v>0.14369999999999999</v>
+        <v>0.45430000000000009</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="1"/>
-        <v>0.32600693244162771</v>
+        <f t="shared" si="0"/>
+        <v>0.42920700134084488</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF($G39=_xlfn.MAXIFS($G:$G, $A:$A, $A39), "latest", "")</f>
+        <v>latest</v>
       </c>
       <c r="C39" s="2">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39" s="10">
-        <v>0.55549999999999999</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="F39" s="10">
-        <v>5.2600000000000001E-2</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.17093653793147912</v>
+        <f t="shared" si="0"/>
+        <v>0.52736249392614187</v>
       </c>
       <c r="H39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="11"/>
+      <c r="I39" s="19"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF($G40=_xlfn.MAXIFS($G:$G, $A:$A, $A40), "latest", "")</f>
+        <v>latest</v>
       </c>
       <c r="C40" s="2">
-        <v>44643</v>
+        <v>44651</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E40" s="10">
-        <v>0.68120000000000003</v>
+        <v>0.6990666666666665</v>
       </c>
       <c r="F40" s="10">
-        <v>0.13519999999999999</v>
+        <v>0.32386666666666664</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="1"/>
-        <v>0.30347691839742935</v>
+        <f t="shared" si="0"/>
+        <v>0.47581970441661098</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G41=_xlfn.MAXIFS($G:$G, $A:$A, $A41), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C41" s="2">
         <v>44643</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E41" s="10">
-        <v>0.87919999999999998</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="F41" s="10">
-        <v>0.1739</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="1"/>
-        <v>0.39101519152073877</v>
+        <f t="shared" si="0"/>
+        <v>0.32600693244162771</v>
       </c>
       <c r="H41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I41" s="11"/>
+      <c r="I41" s="19"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>653</v>
+        <v>440</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>latest</v>
+        <f>IF($G42=_xlfn.MAXIFS($G:$G, $A:$A, $A42), "latest", "")</f>
+        <v/>
       </c>
       <c r="C42" s="2">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E42" s="10">
-        <v>0.88719999999999999</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="F42" s="10">
-        <v>0.4602</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="1"/>
-        <v>0.63897530468712171</v>
+        <f t="shared" si="0"/>
+        <v>0.17093653793147912</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="11"/>
+      <c r="I42" s="19"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>661</v>
+        <v>440</v>
       </c>
       <c r="B43" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>latest</v>
+        <f>IF($G43=_xlfn.MAXIFS($G:$G, $A:$A, $A43), "latest", "")</f>
+        <v/>
       </c>
       <c r="C43" s="2">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E43" s="10">
-        <v>0.16830000000000001</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="F43" s="10">
-        <v>6.4000000000000001E-2</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="1"/>
-        <v>0.10378439189011034</v>
+        <f t="shared" si="0"/>
+        <v>0.30347691839742935</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="11"/>
+      <c r="I43" s="19"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>682</v>
+        <v>440</v>
       </c>
       <c r="B44" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G44=_xlfn.MAXIFS($G:$G, $A:$A, $A44), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C44" s="2">
-        <v>44646</v>
+        <v>44643</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E44" s="10">
-        <v>0.91139999999999999</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="F44" s="10">
-        <v>0.9819</v>
+        <v>0.1739</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="1"/>
-        <v>0.94599347777878473</v>
+        <f t="shared" si="0"/>
+        <v>0.39101519152073877</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="B45" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G45=_xlfn.MAXIFS($G:$G, $A:$A, $A45), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C45" s="2">
-        <v>44648</v>
+        <v>44642</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E45" s="10">
-        <v>1</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="F45" s="10">
-        <v>0.42049999999999998</v>
+        <v>0.4602</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="1"/>
-        <v>0.64845971347493903</v>
+        <f t="shared" si="0"/>
+        <v>0.63897530468712171</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G46=_xlfn.MAXIFS($G:$G, $A:$A, $A46), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C46" s="2">
-        <v>44651</v>
+        <v>44644</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E46" s="10">
-        <v>1</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="F46" s="10">
-        <v>0.60399999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="1"/>
-        <v>0.77717436910901794</v>
+        <f t="shared" si="0"/>
+        <v>0.10378439189011034</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>1606</v>
+        <v>682</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G47=_xlfn.MAXIFS($G:$G, $A:$A, $A47), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C47" s="2">
-        <v>44650</v>
+        <v>44646</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E47" s="10">
-        <v>5.6600000000000004E-2</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="F47" s="10">
-        <v>1</v>
+        <v>0.9819</v>
       </c>
       <c r="G47" s="8">
-        <f t="shared" si="1"/>
-        <v>0.23790754506740638</v>
+        <f t="shared" si="0"/>
+        <v>0.94599347777878473</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>2024</v>
+        <v>693</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G48=_xlfn.MAXIFS($G:$G, $A:$A, $A48), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C48" s="2">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E48" s="10">
-        <v>0.87609999999999999</v>
+        <v>1</v>
       </c>
       <c r="F48" s="10">
-        <v>0.49359999999999998</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="G48" s="8">
-        <f t="shared" si="1"/>
-        <v>0.65760395375940373</v>
+        <f t="shared" si="0"/>
+        <v>0.64845971347493903</v>
       </c>
       <c r="H48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="11"/>
+      <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>2028</v>
+        <v>728</v>
       </c>
       <c r="B49" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF($G49=_xlfn.MAXIFS($G:$G, $A:$A, $A49), "latest", "")</f>
+        <v>latest</v>
       </c>
       <c r="C49" s="2">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E49" s="10">
-        <v>0.14099999999999999</v>
+        <v>1</v>
       </c>
       <c r="F49" s="10">
-        <v>0.12820000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="G49" s="8">
-        <f t="shared" si="1"/>
-        <v>0.13444775937143766</v>
+        <f t="shared" si="0"/>
+        <v>0.77717436910901794</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>2028</v>
+        <v>954</v>
       </c>
       <c r="B50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF($G50=_xlfn.MAXIFS($G:$G, $A:$A, $A50), "latest", "")</f>
+        <v>latest</v>
       </c>
       <c r="C50" s="2">
-        <v>44647</v>
+        <v>44652</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E50" s="10">
-        <v>0.12820000000000001</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="F50" s="10">
-        <v>6.8400000000000002E-2</v>
+        <v>0.38096666666666662</v>
       </c>
       <c r="G50" s="8">
-        <f t="shared" si="1"/>
-        <v>9.3642298134977445E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.61394496496021522</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="11"/>
+        <v>39</v>
+      </c>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>2028</v>
+        <v>1606</v>
       </c>
       <c r="B51" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G51=_xlfn.MAXIFS($G:$G, $A:$A, $A51), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C51" s="2">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E51" s="10">
-        <v>0.9677</v>
+        <v>5.6600000000000004E-2</v>
       </c>
       <c r="F51" s="10">
-        <v>0.90539999999999998</v>
+        <v>1</v>
       </c>
       <c r="G51" s="8">
-        <f t="shared" si="1"/>
-        <v>0.9360318263819879</v>
+        <f t="shared" si="0"/>
+        <v>0.23790754506740638</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>2038</v>
+        <v>2024</v>
       </c>
       <c r="B52" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G52=_xlfn.MAXIFS($G:$G, $A:$A, $A52), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C52" s="2">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="10">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="G52" s="8">
+        <f t="shared" si="0"/>
+        <v>0.65760395375940373</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B53" s="3" t="str">
+        <f>IF($G53=_xlfn.MAXIFS($G:$G, $A:$A, $A53), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C53" s="2">
+        <v>44647</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" si="0"/>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B54" s="3" t="str">
+        <f>IF($G54=_xlfn.MAXIFS($G:$G, $A:$A, $A54), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C54" s="2">
+        <v>44647</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="F54" s="10">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G54" s="8">
+        <f t="shared" si="0"/>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>2028</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f>IF($G55=_xlfn.MAXIFS($G:$G, $A:$A, $A55), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44647</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="10">
+        <v>0.9677</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="G55" s="8">
+        <f t="shared" si="0"/>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>2038</v>
+      </c>
+      <c r="B56" s="3" t="str">
+        <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44647</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="10">
         <v>0.79410000000000003</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F56" s="10">
         <v>0.76470000000000005</v>
       </c>
-      <c r="G52" s="8">
-        <f t="shared" si="1"/>
+      <c r="G56" s="8">
+        <f t="shared" si="0"/>
         <v>0.77926136180359928</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H56" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
+      <c r="I56" s="19"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
@@ -4694,6 +4843,22 @@
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="5"/>
+      <c r="B197" s="5"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="5"/>
+      <c r="B198" s="5"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="5"/>
+      <c r="B199" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4760,7 +4925,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4806,14 +4971,14 @@
       </c>
       <c r="B3" s="17">
         <f>COUNTIFS(record!$H:$H,$A3, record!$B:$B, "=latest")</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="17">
         <f>COUNTIFS(record!$D:$D,$D3, record!$B:$B, "=latest")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4822,14 +4987,14 @@
       </c>
       <c r="B4" s="17">
         <f>COUNTIFS(record!$H:$H,$A4, record!$B:$B, "=latest")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="17">
         <f>COUNTIFS(record!$D:$D,$D4, record!$B:$B, "=latest")</f>
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4920,36 +5085,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
-        <v>70.44</v>
+        <v>100</v>
       </c>
       <c r="B2" s="14">
-        <v>42.74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="15">
-        <v>69.08</v>
+        <v>100</v>
       </c>
       <c r="B3" s="14">
-        <v>33.67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
-        <v>70.2</v>
+        <v>100</v>
       </c>
       <c r="B4" s="14">
-        <v>20.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>0.6990666666666665</v>
+        <v>1</v>
       </c>
       <c r="B5" s="13">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.32386666666666664</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195C3904-7DDD-4BB3-8616-50579F85E590}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1733107-ECD1-437C-8551-081F1DDA1CD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
   <si>
     <t>time submitted</t>
   </si>
@@ -211,6 +211,70 @@
   </si>
   <si>
     <t>Sliding Window</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +749,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -989,13 +1053,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,10 +2661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3745,201 +3809,213 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B41" s="11" t="str">
         <f>IF($G41=_xlfn.MAXIFS($G:$G, $A:$A, $A41), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C41" s="1">
-        <v>44651</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0.40550000000000003</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0.45430000000000009</v>
+        <v/>
+      </c>
+      <c r="C41" s="15">
+        <v>44655</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="14">
+        <v>0.69489999999999996</v>
+      </c>
+      <c r="F41" s="14">
+        <v>0.80713333333333326</v>
       </c>
       <c r="G41" s="2">
         <f>SQRT($E41*$F41)</f>
-        <v>0.42920700134084488</v>
+        <v>0.7489171872332302</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="B42" s="11" t="str">
         <f>IF($G42=_xlfn.MAXIFS($G:$G, $A:$A, $A42), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C42" s="1">
-        <v>44645</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0.84789999999999999</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0.32800000000000001</v>
+      <c r="C42" s="15">
+        <v>44655</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="14">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="F42" s="14">
+        <v>0.81103333333333338</v>
       </c>
       <c r="G42" s="2">
         <f>SQRT($E42*$F42)</f>
-        <v>0.52736249392614187</v>
+        <v>0.8535521327565958</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
-        <v>300</v>
+        <v>42</v>
       </c>
       <c r="B43" s="11" t="str">
         <f>IF($G43=_xlfn.MAXIFS($G:$G, $A:$A, $A43), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C43" s="1">
-        <v>44651</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0.6990666666666665</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0.32386666666666664</v>
+      <c r="C43" s="15">
+        <v>44655</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="14">
+        <v>0.40590000000000004</v>
+      </c>
+      <c r="F43" s="14">
+        <v>0.4417666666666667</v>
       </c>
       <c r="G43" s="2">
         <f>SQRT($E43*$F43)</f>
-        <v>0.47581970441661098</v>
+        <v>0.42345376370980581</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
-        <v>404</v>
+        <v>70</v>
       </c>
       <c r="B44" s="11" t="str">
         <f>IF($G44=_xlfn.MAXIFS($G:$G, $A:$A, $A44), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C44" s="1">
-        <v>44643</v>
+        <v>44651</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E44" s="2">
-        <v>0.73960000000000004</v>
+        <v>0.40550000000000003</v>
       </c>
       <c r="F44" s="2">
-        <v>0.14369999999999999</v>
+        <v>0.45430000000000009</v>
       </c>
       <c r="G44" s="2">
         <f>SQRT($E44*$F44)</f>
-        <v>0.32600693244162771</v>
+        <v>0.42920700134084488</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
-        <v>440</v>
+        <v>71</v>
       </c>
       <c r="B45" s="11" t="str">
         <f>IF($G45=_xlfn.MAXIFS($G:$G, $A:$A, $A45), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C45" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="F45" s="2">
-        <v>5.2600000000000001E-2</v>
+        <v>latest</v>
+      </c>
+      <c r="C45" s="15">
+        <v>44655</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="14">
+        <v>0.70296666666666663</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0.22603333333333336</v>
       </c>
       <c r="G45" s="2">
         <f>SQRT($E45*$F45)</f>
-        <v>0.17093653793147912</v>
+        <v>0.39861497574588051</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
-        <v>440</v>
+        <v>84</v>
       </c>
       <c r="B46" s="11" t="str">
         <f>IF($G46=_xlfn.MAXIFS($G:$G, $A:$A, $A46), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C46" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.68120000000000003</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0.13519999999999999</v>
+        <v>latest</v>
+      </c>
+      <c r="C46" s="15">
+        <v>44655</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="14">
+        <v>0.67343333333333333</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0.87153333333333327</v>
       </c>
       <c r="G46" s="2">
         <f>SQRT($E46*$F46)</f>
-        <v>0.30347691839742935</v>
+        <v>0.76610677961872764</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="B47" s="11" t="str">
         <f>IF($G47=_xlfn.MAXIFS($G:$G, $A:$A, $A47), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C47" s="1">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2">
-        <v>0.87919999999999998</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="F47" s="2">
-        <v>0.1739</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G47" s="2">
         <f>SQRT($E47*$F47)</f>
-        <v>0.39101519152073877</v>
+        <v>0.52736249392614187</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>6</v>
@@ -3947,343 +4023,517 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
-        <v>653</v>
+        <v>300</v>
       </c>
       <c r="B48" s="11" t="str">
         <f>IF($G48=_xlfn.MAXIFS($G:$G, $A:$A, $A48), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C48" s="1">
-        <v>44642</v>
+        <v>44651</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E48" s="2">
-        <v>0.88719999999999999</v>
+        <v>0.6990666666666665</v>
       </c>
       <c r="F48" s="2">
-        <v>0.4602</v>
+        <v>0.32386666666666664</v>
       </c>
       <c r="G48" s="2">
         <f>SQRT($E48*$F48)</f>
-        <v>0.63897530468712171</v>
+        <v>0.47581970441661098</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
-        <v>661</v>
+        <v>404</v>
       </c>
       <c r="B49" s="11" t="str">
         <f>IF($G49=_xlfn.MAXIFS($G:$G, $A:$A, $A49), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C49" s="1">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="2">
-        <v>0.16830000000000001</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="F49" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="G49" s="2">
         <f>SQRT($E49*$F49)</f>
-        <v>0.10378439189011034</v>
+        <v>0.32600693244162771</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
-        <v>682</v>
+        <v>440</v>
       </c>
       <c r="B50" s="11" t="str">
         <f>IF($G50=_xlfn.MAXIFS($G:$G, $A:$A, $A50), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C50" s="1">
-        <v>44646</v>
+        <v>44643</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E50" s="2">
-        <v>0.91139999999999999</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="F50" s="2">
-        <v>0.9819</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="G50" s="2">
         <f>SQRT($E50*$F50)</f>
-        <v>0.94599347777878473</v>
+        <v>0.17093653793147912</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
-        <v>693</v>
+        <v>440</v>
       </c>
       <c r="B51" s="11" t="str">
         <f>IF($G51=_xlfn.MAXIFS($G:$G, $A:$A, $A51), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C51" s="1">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E51" s="2">
-        <v>1</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="F51" s="2">
-        <v>0.42049999999999998</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="G51" s="2">
         <f>SQRT($E51*$F51)</f>
-        <v>0.64845971347493903</v>
+        <v>0.30347691839742935</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
-        <v>728</v>
+        <v>440</v>
       </c>
       <c r="B52" s="11" t="str">
         <f>IF($G52=_xlfn.MAXIFS($G:$G, $A:$A, $A52), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C52" s="1">
-        <v>44651</v>
+        <v>44643</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E52" s="2">
-        <v>1</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="F52" s="2">
-        <v>0.60399999999999998</v>
+        <v>0.1739</v>
       </c>
       <c r="G52" s="2">
         <f>SQRT($E52*$F52)</f>
-        <v>0.77717436910901794</v>
+        <v>0.39101519152073877</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
-        <v>954</v>
+        <v>653</v>
       </c>
       <c r="B53" s="11" t="str">
         <f>IF($G53=_xlfn.MAXIFS($G:$G, $A:$A, $A53), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C53" s="1">
-        <v>44652</v>
+        <v>44642</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>0.98939999999999995</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="F53" s="2">
-        <v>0.38096666666666662</v>
+        <v>0.4602</v>
       </c>
       <c r="G53" s="2">
         <f>SQRT($E53*$F53)</f>
-        <v>0.61394496496021522</v>
+        <v>0.63897530468712171</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
-        <v>1606</v>
+        <v>661</v>
       </c>
       <c r="B54" s="11" t="str">
         <f>IF($G54=_xlfn.MAXIFS($G:$G, $A:$A, $A54), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C54" s="1">
-        <v>44650</v>
+        <v>44644</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E54" s="2">
-        <v>5.6600000000000004E-2</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="F54" s="2">
-        <v>1</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G54" s="2">
         <f>SQRT($E54*$F54)</f>
-        <v>0.23790754506740638</v>
+        <v>0.10378439189011034</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
-        <v>2024</v>
+        <v>682</v>
       </c>
       <c r="B55" s="11" t="str">
         <f>IF($G55=_xlfn.MAXIFS($G:$G, $A:$A, $A55), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C55" s="1">
-        <v>44649</v>
+        <v>44646</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E55" s="2">
-        <v>0.87609999999999999</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="F55" s="2">
-        <v>0.49359999999999998</v>
+        <v>0.9819</v>
       </c>
       <c r="G55" s="2">
         <f>SQRT($E55*$F55)</f>
-        <v>0.65760395375940373</v>
+        <v>0.94599347777878473</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
-        <v>2028</v>
+        <v>693</v>
       </c>
       <c r="B56" s="11" t="str">
         <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C56" s="1">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E56" s="2">
-        <v>0.14099999999999999</v>
+        <v>1</v>
       </c>
       <c r="F56" s="2">
-        <v>0.12820000000000001</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="G56" s="2">
         <f>SQRT($E56*$F56)</f>
-        <v>0.13444775937143766</v>
+        <v>0.64845971347493903</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
-        <v>2028</v>
+        <v>728</v>
       </c>
       <c r="B57" s="11" t="str">
         <f>IF($G57=_xlfn.MAXIFS($G:$G, $A:$A, $A57), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C57" s="1">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E57" s="2">
-        <v>0.12820000000000001</v>
+        <v>1</v>
       </c>
       <c r="F57" s="2">
-        <v>6.8400000000000002E-2</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="G57" s="2">
         <f>SQRT($E57*$F57)</f>
-        <v>9.3642298134977445E-2</v>
+        <v>0.77717436910901794</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
-        <v>2028</v>
+        <v>744</v>
       </c>
       <c r="B58" s="11" t="str">
         <f>IF($G58=_xlfn.MAXIFS($G:$G, $A:$A, $A58), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C58" s="1">
-        <v>44647</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0.9677</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0.90539999999999998</v>
+      <c r="C58" s="15">
+        <v>44654</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0.69553333333333345</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0.58150000000000002</v>
       </c>
       <c r="G58" s="2">
         <f>SQRT($E58*$F58)</f>
-        <v>0.9360318263819879</v>
+        <v>0.63596590579474732</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
-        <v>2038</v>
+        <v>954</v>
       </c>
       <c r="B59" s="11" t="str">
         <f>IF($G59=_xlfn.MAXIFS($G:$G, $A:$A, $A59), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C59" s="1">
-        <v>44647</v>
+        <v>44652</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E59" s="2">
-        <v>0.79410000000000003</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="F59" s="2">
-        <v>0.76470000000000005</v>
+        <v>0.38096666666666662</v>
       </c>
       <c r="G59" s="2">
         <f>SQRT($E59*$F59)</f>
+        <v>0.61394496496021522</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>1606</v>
+      </c>
+      <c r="B60" s="11" t="str">
+        <f>IF($G60=_xlfn.MAXIFS($G:$G, $A:$A, $A60), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="2">
+        <v>5.6600000000000004E-2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <f>SQRT($E60*$F60)</f>
+        <v>0.23790754506740638</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B61" s="11" t="str">
+        <f>IF($G61=_xlfn.MAXIFS($G:$G, $A:$A, $A61), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44649</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="G61" s="2">
+        <f>SQRT($E61*$F61)</f>
+        <v>0.65760395375940373</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B62" s="11" t="str">
+        <f>IF($G62=_xlfn.MAXIFS($G:$G, $A:$A, $A62), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C62" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="G62" s="2">
+        <f>SQRT($E62*$F62)</f>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B63" s="11" t="str">
+        <f>IF($G63=_xlfn.MAXIFS($G:$G, $A:$A, $A63), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C63" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="F63" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G63" s="2">
+        <f>SQRT($E63*$F63)</f>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B64" s="11" t="str">
+        <f>IF($G64=_xlfn.MAXIFS($G:$G, $A:$A, $A64), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.9677</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="G64" s="2">
+        <f>SQRT($E64*$F64)</f>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>2038</v>
+      </c>
+      <c r="B65" s="11" t="str">
+        <f>IF($G65=_xlfn.MAXIFS($G:$G, $A:$A, $A65), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="G65" s="2">
+        <f>SQRT($E65*$F65)</f>
         <v>0.77926136180359928</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="H65" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I60">
-    <sortCondition ref="A2:A60"/>
+  <sortState ref="A2:I65">
+    <sortCondition ref="A2:A65"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
@@ -4372,7 +4622,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4380,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD799A93-4D55-406D-8E57-BD372718F680}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4418,7 +4668,7 @@
       </c>
       <c r="E2" s="9">
         <f>COUNTIFS(record!$D:$D,$D2, record!$B:$B, "=latest")</f>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4427,14 +4677,14 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIFS(record!$H:$H,$A3, record!$B:$B, "=latest")</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="9">
         <f>COUNTIFS(record!$D:$D,$D3, record!$B:$B, "=latest")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4450,7 +4700,7 @@
       </c>
       <c r="E4" s="9">
         <f>COUNTIFS(record!$D:$D,$D4, record!$B:$B, "=latest")</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4541,36 +4791,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>77.66</v>
+        <v>67.19</v>
       </c>
       <c r="B2" s="6">
-        <v>58.01</v>
+        <v>86.26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>68.62</v>
+        <v>50.14</v>
       </c>
       <c r="B3" s="6">
-        <v>69.540000000000006</v>
+        <v>89.12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>68.62</v>
+        <v>84.7</v>
       </c>
       <c r="B4" s="6">
-        <v>70.239999999999995</v>
+        <v>86.08</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>0.71633333333333338</v>
+        <v>0.67343333333333333</v>
       </c>
       <c r="B5" s="5">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.65930000000000011</v>
+        <v>0.87153333333333327</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1733107-ECD1-437C-8551-081F1DDA1CD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B9871B-EF8E-433B-B982-8343689FCA2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="4" r:id="rId1"/>
@@ -746,10 +746,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -2663,8 +2663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="str">
-        <f>IF($G2=_xlfn.MAXIFS($G:$G, $A:$A, $A2), "latest", "")</f>
+        <f t="shared" ref="B2:B33" si="0">IF($G2=_xlfn.MAXIFS($G:$G, $A:$A, $A2), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C2" s="1">
@@ -2727,7 +2727,7 @@
         <v>0.2011</v>
       </c>
       <c r="G2" s="2">
-        <f>SQRT($E2*$F2)</f>
+        <f t="shared" ref="G2:G33" si="1">SQRT($E2*$F2)</f>
         <v>0.41916711464522122</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2739,7 +2739,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="str">
-        <f>IF($G3=_xlfn.MAXIFS($G:$G, $A:$A, $A3), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C3" s="1">
@@ -2755,7 +2755,7 @@
         <v>9.9600000000000008E-2</v>
       </c>
       <c r="G3" s="2">
-        <f>SQRT($E3*$F3)</f>
+        <f t="shared" si="1"/>
         <v>0.26006737588555778</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2767,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="str">
-        <f>IF($G4=_xlfn.MAXIFS($G:$G, $A:$A, $A4), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C4" s="1">
@@ -2783,7 +2783,7 @@
         <v>0.2356</v>
       </c>
       <c r="G4" s="2">
-        <f>SQRT($E4*$F4)</f>
+        <f t="shared" si="1"/>
         <v>0.40137673076549912</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2795,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="str">
-        <f>IF($G5=_xlfn.MAXIFS($G:$G, $A:$A, $A5), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C5" s="1">
@@ -2811,7 +2811,7 @@
         <v>0.35160000000000002</v>
       </c>
       <c r="G5" s="2">
-        <f>SQRT($E5*$F5)</f>
+        <f t="shared" si="1"/>
         <v>0.55208879720566695</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2823,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="str">
-        <f>IF($G6=_xlfn.MAXIFS($G:$G, $A:$A, $A6), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C6" s="15">
@@ -2839,7 +2839,7 @@
         <v>0.97280000000000011</v>
       </c>
       <c r="G6" s="2">
-        <f>SQRT($E6*$F6)</f>
+        <f t="shared" si="1"/>
         <v>0.95199417365163896</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2851,7 +2851,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="str">
-        <f>IF($G7=_xlfn.MAXIFS($G:$G, $A:$A, $A7), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C7" s="1">
@@ -2867,7 +2867,7 @@
         <v>0.3498</v>
       </c>
       <c r="G7" s="2">
-        <f>SQRT($E7*$F7)</f>
+        <f t="shared" si="1"/>
         <v>0.55010179058061615</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="str">
-        <f>IF($G8=_xlfn.MAXIFS($G:$G, $A:$A, $A8), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C8" s="1">
@@ -2895,7 +2895,7 @@
         <v>0.52410000000000001</v>
       </c>
       <c r="G8" s="2">
-        <f>SQRT($E8*$F8)</f>
+        <f t="shared" si="1"/>
         <v>0.70021107531943538</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2910,7 +2910,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="str">
-        <f>IF($G9=_xlfn.MAXIFS($G:$G, $A:$A, $A9), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C9" s="15">
@@ -2926,7 +2926,7 @@
         <v>0.65930000000000011</v>
       </c>
       <c r="G9" s="2">
-        <f>SQRT($E9*$F9)</f>
+        <f t="shared" si="1"/>
         <v>0.68722526631859715</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2941,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="str">
-        <f>IF($G10=_xlfn.MAXIFS($G:$G, $A:$A, $A10), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C10" s="1">
@@ -2957,7 +2957,7 @@
         <v>0.57609999999999995</v>
       </c>
       <c r="G10" s="2">
-        <f>SQRT($E10*$F10)</f>
+        <f t="shared" si="1"/>
         <v>0.66973984501446526</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -2969,7 +2969,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="str">
-        <f>IF($G11=_xlfn.MAXIFS($G:$G, $A:$A, $A11), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C11" s="1">
@@ -2985,7 +2985,7 @@
         <v>0.1217</v>
       </c>
       <c r="G11" s="2">
-        <f>SQRT($E11*$F11)</f>
+        <f t="shared" si="1"/>
         <v>0.19780432250079877</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -2997,7 +2997,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="str">
-        <f>IF($G12=_xlfn.MAXIFS($G:$G, $A:$A, $A12), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C12" s="1">
@@ -3013,7 +3013,7 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="G12" s="2">
-        <f>SQRT($E12*$F12)</f>
+        <f t="shared" si="1"/>
         <v>0.51403073838049806</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -3025,7 +3025,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="str">
-        <f>IF($G13=_xlfn.MAXIFS($G:$G, $A:$A, $A13), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C13" s="1">
@@ -3041,7 +3041,7 @@
         <v>0.50939999999999996</v>
       </c>
       <c r="G13" s="2">
-        <f>SQRT($E13*$F13)</f>
+        <f t="shared" si="1"/>
         <v>0.62449710968106165</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -3053,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="11" t="str">
-        <f>IF($G14=_xlfn.MAXIFS($G:$G, $A:$A, $A14), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C14" s="1">
@@ -3069,7 +3069,7 @@
         <v>0.59970000000000001</v>
       </c>
       <c r="G14" s="2">
-        <f>SQRT($E14*$F14)</f>
+        <f t="shared" si="1"/>
         <v>0.72256405944386692</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3081,7 +3081,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="11" t="str">
-        <f>IF($G15=_xlfn.MAXIFS($G:$G, $A:$A, $A15), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C15" s="1">
@@ -3097,7 +3097,7 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="G15" s="2">
-        <f>SQRT($E15*$F15)</f>
+        <f t="shared" si="1"/>
         <v>0.65558614994522268</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -3109,7 +3109,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="11" t="str">
-        <f>IF($G16=_xlfn.MAXIFS($G:$G, $A:$A, $A16), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C16" s="1">
@@ -3125,7 +3125,7 @@
         <v>0.1835</v>
       </c>
       <c r="G16" s="2">
-        <f>SQRT($E16*$F16)</f>
+        <f t="shared" si="1"/>
         <v>0.39150676877928947</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -3137,7 +3137,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="str">
-        <f>IF($G17=_xlfn.MAXIFS($G:$G, $A:$A, $A17), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C17" s="1">
@@ -3153,7 +3153,7 @@
         <v>0.18920000000000001</v>
       </c>
       <c r="G17" s="2">
-        <f>SQRT($E17*$F17)</f>
+        <f t="shared" si="1"/>
         <v>0.38907444017822607</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3165,7 +3165,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="str">
-        <f>IF($G18=_xlfn.MAXIFS($G:$G, $A:$A, $A18), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C18" s="1">
@@ -3181,7 +3181,7 @@
         <v>0.54730000000000001</v>
       </c>
       <c r="G18" s="2">
-        <f>SQRT($E18*$F18)</f>
+        <f t="shared" si="1"/>
         <v>0.62921921458264451</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -3193,7 +3193,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f>IF($G19=_xlfn.MAXIFS($G:$G, $A:$A, $A19), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C19" s="1">
@@ -3209,7 +3209,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="G19" s="2">
-        <f>SQRT($E19*$F19)</f>
+        <f t="shared" si="1"/>
         <v>0.67679627658550245</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -3221,7 +3221,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="11" t="str">
-        <f>IF($G20=_xlfn.MAXIFS($G:$G, $A:$A, $A20), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C20" s="1">
@@ -3237,7 +3237,7 @@
         <v>0.2412</v>
       </c>
       <c r="G20" s="2">
-        <f>SQRT($E20*$F20)</f>
+        <f t="shared" si="1"/>
         <v>0.12472930690098459</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -3249,7 +3249,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="11" t="str">
-        <f>IF($G21=_xlfn.MAXIFS($G:$G, $A:$A, $A21), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C21" s="1">
@@ -3265,7 +3265,7 @@
         <v>0.60550000000000004</v>
       </c>
       <c r="G21" s="2">
-        <f>SQRT($E21*$F21)</f>
+        <f t="shared" si="1"/>
         <v>0.74241945691098377</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -3277,7 +3277,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="11" t="str">
-        <f>IF($G22=_xlfn.MAXIFS($G:$G, $A:$A, $A22), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C22" s="1">
@@ -3293,7 +3293,7 @@
         <v>0.47739999999999999</v>
       </c>
       <c r="G22" s="2">
-        <f>SQRT($E22*$F22)</f>
+        <f t="shared" si="1"/>
         <v>0.61400552114781504</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -3305,7 +3305,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="11" t="str">
-        <f>IF($G23=_xlfn.MAXIFS($G:$G, $A:$A, $A23), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C23" s="1">
@@ -3321,7 +3321,7 @@
         <v>0.14610000000000001</v>
       </c>
       <c r="G23" s="2">
-        <f>SQRT($E23*$F23)</f>
+        <f t="shared" si="1"/>
         <v>0.30213122976613987</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -3333,7 +3333,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f>IF($G24=_xlfn.MAXIFS($G:$G, $A:$A, $A24), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C24" s="1">
@@ -3349,7 +3349,7 @@
         <v>0.55289999999999995</v>
       </c>
       <c r="G24" s="2">
-        <f>SQRT($E24*$F24)</f>
+        <f t="shared" si="1"/>
         <v>0.43024518591147537</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -3361,7 +3361,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="11" t="str">
-        <f>IF($G25=_xlfn.MAXIFS($G:$G, $A:$A, $A25), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C25" s="1">
@@ -3377,7 +3377,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G25" s="2">
-        <f>SQRT($E25*$F25)</f>
+        <f t="shared" si="1"/>
         <v>0.65208607560658738</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -3389,7 +3389,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="11" t="str">
-        <f>IF($G26=_xlfn.MAXIFS($G:$G, $A:$A, $A26), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C26" s="1">
@@ -3405,7 +3405,7 @@
         <v>0.55859999999999999</v>
       </c>
       <c r="G26" s="2">
-        <f>SQRT($E26*$F26)</f>
+        <f t="shared" si="1"/>
         <v>0.60270853652491096</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -3417,7 +3417,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="11" t="str">
-        <f>IF($G27=_xlfn.MAXIFS($G:$G, $A:$A, $A27), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C27" s="1">
@@ -3433,7 +3433,7 @@
         <v>0.13489999999999999</v>
       </c>
       <c r="G27" s="2">
-        <f>SQRT($E27*$F27)</f>
+        <f t="shared" si="1"/>
         <v>0.35981040840976236</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="11" t="str">
-        <f>IF($G28=_xlfn.MAXIFS($G:$G, $A:$A, $A28), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C28" s="1">
@@ -3461,7 +3461,7 @@
         <v>0.50239999999999996</v>
       </c>
       <c r="G28" s="2">
-        <f>SQRT($E28*$F28)</f>
+        <f t="shared" si="1"/>
         <v>0.59378811035587431</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3473,7 +3473,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="11" t="str">
-        <f>IF($G29=_xlfn.MAXIFS($G:$G, $A:$A, $A29), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C29" s="1">
@@ -3489,7 +3489,7 @@
         <v>0.48149999999999998</v>
       </c>
       <c r="G29" s="2">
-        <f>SQRT($E29*$F29)</f>
+        <f t="shared" si="1"/>
         <v>0.4791442371562033</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -3501,7 +3501,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="11" t="str">
-        <f>IF($G30=_xlfn.MAXIFS($G:$G, $A:$A, $A30), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C30" s="1">
@@ -3517,7 +3517,7 @@
         <v>0.86723333333333341</v>
       </c>
       <c r="G30" s="2">
-        <f>SQRT($E30*$F30)</f>
+        <f t="shared" si="1"/>
         <v>0.73675052991723966</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -3529,7 +3529,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="11" t="str">
-        <f>IF($G31=_xlfn.MAXIFS($G:$G, $A:$A, $A31), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C31" s="1">
@@ -3545,7 +3545,7 @@
         <v>0.64560000000000006</v>
       </c>
       <c r="G31" s="2">
-        <f>SQRT($E31*$F31)</f>
+        <f t="shared" si="1"/>
         <v>0.50791904866819082</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -3557,7 +3557,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="11" t="str">
-        <f>IF($G32=_xlfn.MAXIFS($G:$G, $A:$A, $A32), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C32" s="1">
@@ -3573,7 +3573,7 @@
         <v>0.44596666666666662</v>
       </c>
       <c r="G32" s="2">
-        <f>SQRT($E32*$F32)</f>
+        <f t="shared" si="1"/>
         <v>0.38655991055002642</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -3585,7 +3585,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="11" t="str">
-        <f>IF($G33=_xlfn.MAXIFS($G:$G, $A:$A, $A33), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C33" s="1">
@@ -3601,7 +3601,7 @@
         <v>0.4543666666666667</v>
       </c>
       <c r="G33" s="2">
-        <f>SQRT($E33*$F33)</f>
+        <f t="shared" si="1"/>
         <v>0.59414864208284524</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -3613,7 +3613,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="11" t="str">
-        <f>IF($G34=_xlfn.MAXIFS($G:$G, $A:$A, $A34), "latest", "")</f>
+        <f t="shared" ref="B34:B65" si="2">IF($G34=_xlfn.MAXIFS($G:$G, $A:$A, $A34), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C34" s="1">
@@ -3629,7 +3629,7 @@
         <v>0.84616666666666673</v>
       </c>
       <c r="G34" s="2">
-        <f>SQRT($E34*$F34)</f>
+        <f t="shared" ref="G34:G65" si="3">SQRT($E34*$F34)</f>
         <v>0.8149578005434801</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -3641,7 +3641,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="11" t="str">
-        <f>IF($G35=_xlfn.MAXIFS($G:$G, $A:$A, $A35), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C35" s="1">
@@ -3657,7 +3657,7 @@
         <v>0.62870000000000004</v>
       </c>
       <c r="G35" s="2">
-        <f>SQRT($E35*$F35)</f>
+        <f t="shared" si="3"/>
         <v>0.79290604739779857</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -3669,7 +3669,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="11" t="str">
-        <f>IF($G36=_xlfn.MAXIFS($G:$G, $A:$A, $A36), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C36" s="1">
@@ -3685,7 +3685,7 @@
         <v>0.54510000000000003</v>
       </c>
       <c r="G36" s="2">
-        <f>SQRT($E36*$F36)</f>
+        <f t="shared" si="3"/>
         <v>0.49987382407963715</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -3697,7 +3697,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="11" t="str">
-        <f>IF($G37=_xlfn.MAXIFS($G:$G, $A:$A, $A37), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C37" s="1">
@@ -3713,7 +3713,7 @@
         <v>0.65079999999999993</v>
       </c>
       <c r="G37" s="2">
-        <f>SQRT($E37*$F37)</f>
+        <f t="shared" si="3"/>
         <v>0.72398502746949134</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -3725,7 +3725,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="11" t="str">
-        <f>IF($G38=_xlfn.MAXIFS($G:$G, $A:$A, $A38), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C38" s="1">
@@ -3741,7 +3741,7 @@
         <v>0.17220000000000002</v>
       </c>
       <c r="G38" s="2">
-        <f>SQRT($E38*$F38)</f>
+        <f t="shared" si="3"/>
         <v>0.25526550883344973</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -3753,7 +3753,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="11" t="str">
-        <f>IF($G39=_xlfn.MAXIFS($G:$G, $A:$A, $A39), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C39" s="1">
@@ -3769,7 +3769,7 @@
         <v>0.3685666666666666</v>
       </c>
       <c r="G39" s="2">
-        <f>SQRT($E39*$F39)</f>
+        <f t="shared" si="3"/>
         <v>0.42015609929855563</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -3781,7 +3781,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="11" t="str">
-        <f>IF($G40=_xlfn.MAXIFS($G:$G, $A:$A, $A40), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C40" s="1">
@@ -3797,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <f>SQRT($E40*$F40)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -3812,7 +3812,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="11" t="str">
-        <f>IF($G41=_xlfn.MAXIFS($G:$G, $A:$A, $A41), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C41" s="15">
@@ -3828,7 +3828,7 @@
         <v>0.80713333333333326</v>
       </c>
       <c r="G41" s="2">
-        <f>SQRT($E41*$F41)</f>
+        <f t="shared" si="3"/>
         <v>0.7489171872332302</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -3843,7 +3843,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="11" t="str">
-        <f>IF($G42=_xlfn.MAXIFS($G:$G, $A:$A, $A42), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C42" s="15">
@@ -3859,7 +3859,7 @@
         <v>0.81103333333333338</v>
       </c>
       <c r="G42" s="2">
-        <f>SQRT($E42*$F42)</f>
+        <f t="shared" si="3"/>
         <v>0.8535521327565958</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -3874,7 +3874,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="str">
-        <f>IF($G43=_xlfn.MAXIFS($G:$G, $A:$A, $A43), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C43" s="15">
@@ -3890,7 +3890,7 @@
         <v>0.4417666666666667</v>
       </c>
       <c r="G43" s="2">
-        <f>SQRT($E43*$F43)</f>
+        <f t="shared" si="3"/>
         <v>0.42345376370980581</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -3905,7 +3905,7 @@
         <v>70</v>
       </c>
       <c r="B44" s="11" t="str">
-        <f>IF($G44=_xlfn.MAXIFS($G:$G, $A:$A, $A44), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C44" s="1">
@@ -3921,7 +3921,7 @@
         <v>0.45430000000000009</v>
       </c>
       <c r="G44" s="2">
-        <f>SQRT($E44*$F44)</f>
+        <f t="shared" si="3"/>
         <v>0.42920700134084488</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -3936,7 +3936,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="11" t="str">
-        <f>IF($G45=_xlfn.MAXIFS($G:$G, $A:$A, $A45), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C45" s="15">
@@ -3952,7 +3952,7 @@
         <v>0.22603333333333336</v>
       </c>
       <c r="G45" s="2">
-        <f>SQRT($E45*$F45)</f>
+        <f t="shared" si="3"/>
         <v>0.39861497574588051</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -3967,7 +3967,7 @@
         <v>84</v>
       </c>
       <c r="B46" s="11" t="str">
-        <f>IF($G46=_xlfn.MAXIFS($G:$G, $A:$A, $A46), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C46" s="15">
@@ -3983,11 +3983,11 @@
         <v>0.87153333333333327</v>
       </c>
       <c r="G46" s="2">
-        <f>SQRT($E46*$F46)</f>
+        <f t="shared" si="3"/>
         <v>0.76610677961872764</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>63</v>
@@ -3998,7 +3998,7 @@
         <v>172</v>
       </c>
       <c r="B47" s="11" t="str">
-        <f>IF($G47=_xlfn.MAXIFS($G:$G, $A:$A, $A47), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C47" s="1">
@@ -4014,7 +4014,7 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="G47" s="2">
-        <f>SQRT($E47*$F47)</f>
+        <f t="shared" si="3"/>
         <v>0.52736249392614187</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -4026,7 +4026,7 @@
         <v>300</v>
       </c>
       <c r="B48" s="11" t="str">
-        <f>IF($G48=_xlfn.MAXIFS($G:$G, $A:$A, $A48), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C48" s="1">
@@ -4042,7 +4042,7 @@
         <v>0.32386666666666664</v>
       </c>
       <c r="G48" s="2">
-        <f>SQRT($E48*$F48)</f>
+        <f t="shared" si="3"/>
         <v>0.47581970441661098</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -4057,7 +4057,7 @@
         <v>404</v>
       </c>
       <c r="B49" s="11" t="str">
-        <f>IF($G49=_xlfn.MAXIFS($G:$G, $A:$A, $A49), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C49" s="1">
@@ -4073,7 +4073,7 @@
         <v>0.14369999999999999</v>
       </c>
       <c r="G49" s="2">
-        <f>SQRT($E49*$F49)</f>
+        <f t="shared" si="3"/>
         <v>0.32600693244162771</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -4085,7 +4085,7 @@
         <v>440</v>
       </c>
       <c r="B50" s="11" t="str">
-        <f>IF($G50=_xlfn.MAXIFS($G:$G, $A:$A, $A50), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C50" s="1">
@@ -4101,7 +4101,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
       <c r="G50" s="2">
-        <f>SQRT($E50*$F50)</f>
+        <f t="shared" si="3"/>
         <v>0.17093653793147912</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -4113,7 +4113,7 @@
         <v>440</v>
       </c>
       <c r="B51" s="11" t="str">
-        <f>IF($G51=_xlfn.MAXIFS($G:$G, $A:$A, $A51), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C51" s="1">
@@ -4129,7 +4129,7 @@
         <v>0.13519999999999999</v>
       </c>
       <c r="G51" s="2">
-        <f>SQRT($E51*$F51)</f>
+        <f t="shared" si="3"/>
         <v>0.30347691839742935</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -4141,7 +4141,7 @@
         <v>440</v>
       </c>
       <c r="B52" s="11" t="str">
-        <f>IF($G52=_xlfn.MAXIFS($G:$G, $A:$A, $A52), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C52" s="1">
@@ -4157,7 +4157,7 @@
         <v>0.1739</v>
       </c>
       <c r="G52" s="2">
-        <f>SQRT($E52*$F52)</f>
+        <f t="shared" si="3"/>
         <v>0.39101519152073877</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -4169,7 +4169,7 @@
         <v>653</v>
       </c>
       <c r="B53" s="11" t="str">
-        <f>IF($G53=_xlfn.MAXIFS($G:$G, $A:$A, $A53), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C53" s="1">
@@ -4185,7 +4185,7 @@
         <v>0.4602</v>
       </c>
       <c r="G53" s="2">
-        <f>SQRT($E53*$F53)</f>
+        <f t="shared" si="3"/>
         <v>0.63897530468712171</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -4197,7 +4197,7 @@
         <v>661</v>
       </c>
       <c r="B54" s="11" t="str">
-        <f>IF($G54=_xlfn.MAXIFS($G:$G, $A:$A, $A54), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C54" s="1">
@@ -4213,7 +4213,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G54" s="2">
-        <f>SQRT($E54*$F54)</f>
+        <f t="shared" si="3"/>
         <v>0.10378439189011034</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -4225,7 +4225,7 @@
         <v>682</v>
       </c>
       <c r="B55" s="11" t="str">
-        <f>IF($G55=_xlfn.MAXIFS($G:$G, $A:$A, $A55), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C55" s="1">
@@ -4241,7 +4241,7 @@
         <v>0.9819</v>
       </c>
       <c r="G55" s="2">
-        <f>SQRT($E55*$F55)</f>
+        <f t="shared" si="3"/>
         <v>0.94599347777878473</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -4253,7 +4253,7 @@
         <v>693</v>
       </c>
       <c r="B56" s="11" t="str">
-        <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C56" s="1">
@@ -4269,7 +4269,7 @@
         <v>0.42049999999999998</v>
       </c>
       <c r="G56" s="2">
-        <f>SQRT($E56*$F56)</f>
+        <f t="shared" si="3"/>
         <v>0.64845971347493903</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -4281,7 +4281,7 @@
         <v>728</v>
       </c>
       <c r="B57" s="11" t="str">
-        <f>IF($G57=_xlfn.MAXIFS($G:$G, $A:$A, $A57), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C57" s="1">
@@ -4297,7 +4297,7 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="G57" s="2">
-        <f>SQRT($E57*$F57)</f>
+        <f t="shared" si="3"/>
         <v>0.77717436910901794</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -4309,7 +4309,7 @@
         <v>744</v>
       </c>
       <c r="B58" s="11" t="str">
-        <f>IF($G58=_xlfn.MAXIFS($G:$G, $A:$A, $A58), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C58" s="15">
@@ -4325,7 +4325,7 @@
         <v>0.58150000000000002</v>
       </c>
       <c r="G58" s="2">
-        <f>SQRT($E58*$F58)</f>
+        <f t="shared" si="3"/>
         <v>0.63596590579474732</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -4340,7 +4340,7 @@
         <v>954</v>
       </c>
       <c r="B59" s="11" t="str">
-        <f>IF($G59=_xlfn.MAXIFS($G:$G, $A:$A, $A59), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C59" s="1">
@@ -4356,7 +4356,7 @@
         <v>0.38096666666666662</v>
       </c>
       <c r="G59" s="2">
-        <f>SQRT($E59*$F59)</f>
+        <f t="shared" si="3"/>
         <v>0.61394496496021522</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -4368,7 +4368,7 @@
         <v>1606</v>
       </c>
       <c r="B60" s="11" t="str">
-        <f>IF($G60=_xlfn.MAXIFS($G:$G, $A:$A, $A60), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C60" s="1">
@@ -4384,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <f>SQRT($E60*$F60)</f>
+        <f t="shared" si="3"/>
         <v>0.23790754506740638</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -4396,7 +4396,7 @@
         <v>2024</v>
       </c>
       <c r="B61" s="11" t="str">
-        <f>IF($G61=_xlfn.MAXIFS($G:$G, $A:$A, $A61), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C61" s="1">
@@ -4412,7 +4412,7 @@
         <v>0.49359999999999998</v>
       </c>
       <c r="G61" s="2">
-        <f>SQRT($E61*$F61)</f>
+        <f t="shared" si="3"/>
         <v>0.65760395375940373</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -4424,7 +4424,7 @@
         <v>2028</v>
       </c>
       <c r="B62" s="11" t="str">
-        <f>IF($G62=_xlfn.MAXIFS($G:$G, $A:$A, $A62), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C62" s="1">
@@ -4440,7 +4440,7 @@
         <v>0.12820000000000001</v>
       </c>
       <c r="G62" s="2">
-        <f>SQRT($E62*$F62)</f>
+        <f t="shared" si="3"/>
         <v>0.13444775937143766</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -4452,7 +4452,7 @@
         <v>2028</v>
       </c>
       <c r="B63" s="11" t="str">
-        <f>IF($G63=_xlfn.MAXIFS($G:$G, $A:$A, $A63), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C63" s="1">
@@ -4468,7 +4468,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="G63" s="2">
-        <f>SQRT($E63*$F63)</f>
+        <f t="shared" si="3"/>
         <v>9.3642298134977445E-2</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -4480,7 +4480,7 @@
         <v>2028</v>
       </c>
       <c r="B64" s="11" t="str">
-        <f>IF($G64=_xlfn.MAXIFS($G:$G, $A:$A, $A64), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C64" s="1">
@@ -4496,7 +4496,7 @@
         <v>0.90539999999999998</v>
       </c>
       <c r="G64" s="2">
-        <f>SQRT($E64*$F64)</f>
+        <f t="shared" si="3"/>
         <v>0.9360318263819879</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -4508,7 +4508,7 @@
         <v>2038</v>
       </c>
       <c r="B65" s="11" t="str">
-        <f>IF($G65=_xlfn.MAXIFS($G:$G, $A:$A, $A65), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C65" s="1">
@@ -4524,7 +4524,7 @@
         <v>0.76470000000000005</v>
       </c>
       <c r="G65" s="2">
-        <f>SQRT($E65*$F65)</f>
+        <f t="shared" si="3"/>
         <v>0.77926136180359928</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -4630,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD799A93-4D55-406D-8E57-BD372718F680}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTIFS(record!$H:$H,$A2, record!$B:$B, "=latest")</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIFS(record!$H:$H,$A3, record!$B:$B, "=latest")</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B9871B-EF8E-433B-B982-8343689FCA2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFF8530-CD45-40FF-B07D-487ECB2596CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
   <si>
     <t>time submitted</t>
   </si>
@@ -275,6 +275,34 @@
   </si>
   <si>
     <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -746,10 +774,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
@@ -968,7 +996,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
@@ -1014,7 +1042,10 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="CC0000"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -1053,13 +1084,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,10 +2692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2711,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="str">
-        <f t="shared" ref="B2:B33" si="0">IF($G2=_xlfn.MAXIFS($G:$G, $A:$A, $A2), "latest", "")</f>
+        <f>IF($G2=_xlfn.MAXIFS($G:$G, $A:$A, $A2), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C2" s="1">
@@ -2727,7 +2758,7 @@
         <v>0.2011</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:G33" si="1">SQRT($E2*$F2)</f>
+        <f>SQRT($E2*$F2)</f>
         <v>0.41916711464522122</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -2739,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G3=_xlfn.MAXIFS($G:$G, $A:$A, $A3), "latest", "")</f>
         <v/>
       </c>
       <c r="C3" s="1">
@@ -2755,7 +2786,7 @@
         <v>9.9600000000000008E-2</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E3*$F3)</f>
         <v>0.26006737588555778</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -2767,7 +2798,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G4=_xlfn.MAXIFS($G:$G, $A:$A, $A4), "latest", "")</f>
         <v/>
       </c>
       <c r="C4" s="1">
@@ -2783,7 +2814,7 @@
         <v>0.2356</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E4*$F4)</f>
         <v>0.40137673076549912</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -2795,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G5=_xlfn.MAXIFS($G:$G, $A:$A, $A5), "latest", "")</f>
         <v/>
       </c>
       <c r="C5" s="1">
@@ -2811,7 +2842,7 @@
         <v>0.35160000000000002</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E5*$F5)</f>
         <v>0.55208879720566695</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -2823,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G6=_xlfn.MAXIFS($G:$G, $A:$A, $A6), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C6" s="15">
@@ -2839,7 +2870,7 @@
         <v>0.97280000000000011</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E6*$F6)</f>
         <v>0.95199417365163896</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2851,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G7=_xlfn.MAXIFS($G:$G, $A:$A, $A7), "latest", "")</f>
         <v/>
       </c>
       <c r="C7" s="1">
@@ -2867,7 +2898,7 @@
         <v>0.3498</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E7*$F7)</f>
         <v>0.55010179058061615</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -2879,7 +2910,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G8=_xlfn.MAXIFS($G:$G, $A:$A, $A8), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C8" s="1">
@@ -2895,7 +2926,7 @@
         <v>0.52410000000000001</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E8*$F8)</f>
         <v>0.70021107531943538</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2910,7 +2941,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G9=_xlfn.MAXIFS($G:$G, $A:$A, $A9), "latest", "")</f>
         <v/>
       </c>
       <c r="C9" s="15">
@@ -2926,7 +2957,7 @@
         <v>0.65930000000000011</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E9*$F9)</f>
         <v>0.68722526631859715</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -2941,7 +2972,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G10=_xlfn.MAXIFS($G:$G, $A:$A, $A10), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C10" s="1">
@@ -2957,7 +2988,7 @@
         <v>0.57609999999999995</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E10*$F10)</f>
         <v>0.66973984501446526</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -2969,7 +3000,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G11=_xlfn.MAXIFS($G:$G, $A:$A, $A11), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C11" s="1">
@@ -2985,7 +3016,7 @@
         <v>0.1217</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E11*$F11)</f>
         <v>0.19780432250079877</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -2997,7 +3028,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G12=_xlfn.MAXIFS($G:$G, $A:$A, $A12), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C12" s="1">
@@ -3013,7 +3044,7 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E12*$F12)</f>
         <v>0.51403073838049806</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -3025,7 +3056,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G13=_xlfn.MAXIFS($G:$G, $A:$A, $A13), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C13" s="1">
@@ -3041,7 +3072,7 @@
         <v>0.50939999999999996</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E13*$F13)</f>
         <v>0.62449710968106165</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -3053,7 +3084,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G14=_xlfn.MAXIFS($G:$G, $A:$A, $A14), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C14" s="1">
@@ -3069,7 +3100,7 @@
         <v>0.59970000000000001</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E14*$F14)</f>
         <v>0.72256405944386692</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3081,7 +3112,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G15=_xlfn.MAXIFS($G:$G, $A:$A, $A15), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C15" s="1">
@@ -3097,7 +3128,7 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E15*$F15)</f>
         <v>0.65558614994522268</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -3109,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G16=_xlfn.MAXIFS($G:$G, $A:$A, $A16), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C16" s="1">
@@ -3125,7 +3156,7 @@
         <v>0.1835</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E16*$F16)</f>
         <v>0.39150676877928947</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -3137,7 +3168,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G17=_xlfn.MAXIFS($G:$G, $A:$A, $A17), "latest", "")</f>
         <v/>
       </c>
       <c r="C17" s="1">
@@ -3153,7 +3184,7 @@
         <v>0.18920000000000001</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E17*$F17)</f>
         <v>0.38907444017822607</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3165,7 +3196,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G18=_xlfn.MAXIFS($G:$G, $A:$A, $A18), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C18" s="1">
@@ -3181,7 +3212,7 @@
         <v>0.54730000000000001</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E18*$F18)</f>
         <v>0.62921921458264451</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -3193,7 +3224,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G19=_xlfn.MAXIFS($G:$G, $A:$A, $A19), "latest", "")</f>
         <v/>
       </c>
       <c r="C19" s="1">
@@ -3209,7 +3240,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E19*$F19)</f>
         <v>0.67679627658550245</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -3221,7 +3252,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G20=_xlfn.MAXIFS($G:$G, $A:$A, $A20), "latest", "")</f>
         <v/>
       </c>
       <c r="C20" s="1">
@@ -3237,7 +3268,7 @@
         <v>0.2412</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E20*$F20)</f>
         <v>0.12472930690098459</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -3249,7 +3280,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G21=_xlfn.MAXIFS($G:$G, $A:$A, $A21), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C21" s="1">
@@ -3265,7 +3296,7 @@
         <v>0.60550000000000004</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E21*$F21)</f>
         <v>0.74241945691098377</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -3277,7 +3308,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G22=_xlfn.MAXIFS($G:$G, $A:$A, $A22), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C22" s="1">
@@ -3293,7 +3324,7 @@
         <v>0.47739999999999999</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E22*$F22)</f>
         <v>0.61400552114781504</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -3305,7 +3336,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G23=_xlfn.MAXIFS($G:$G, $A:$A, $A23), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C23" s="1">
@@ -3321,7 +3352,7 @@
         <v>0.14610000000000001</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E23*$F23)</f>
         <v>0.30213122976613987</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -3333,7 +3364,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G24=_xlfn.MAXIFS($G:$G, $A:$A, $A24), "latest", "")</f>
         <v/>
       </c>
       <c r="C24" s="1">
@@ -3349,7 +3380,7 @@
         <v>0.55289999999999995</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E24*$F24)</f>
         <v>0.43024518591147537</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -3361,7 +3392,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G25=_xlfn.MAXIFS($G:$G, $A:$A, $A25), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C25" s="1">
@@ -3377,7 +3408,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E25*$F25)</f>
         <v>0.65208607560658738</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -3389,7 +3420,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G26=_xlfn.MAXIFS($G:$G, $A:$A, $A26), "latest", "")</f>
         <v/>
       </c>
       <c r="C26" s="1">
@@ -3405,7 +3436,7 @@
         <v>0.55859999999999999</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E26*$F26)</f>
         <v>0.60270853652491096</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -3417,7 +3448,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G27=_xlfn.MAXIFS($G:$G, $A:$A, $A27), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C27" s="1">
@@ -3433,7 +3464,7 @@
         <v>0.13489999999999999</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E27*$F27)</f>
         <v>0.35981040840976236</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -3445,7 +3476,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G28=_xlfn.MAXIFS($G:$G, $A:$A, $A28), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C28" s="1">
@@ -3461,7 +3492,7 @@
         <v>0.50239999999999996</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E28*$F28)</f>
         <v>0.59378811035587431</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3473,7 +3504,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G29=_xlfn.MAXIFS($G:$G, $A:$A, $A29), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C29" s="1">
@@ -3489,7 +3520,7 @@
         <v>0.48149999999999998</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E29*$F29)</f>
         <v>0.4791442371562033</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -3501,7 +3532,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G30=_xlfn.MAXIFS($G:$G, $A:$A, $A30), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C30" s="1">
@@ -3517,7 +3548,7 @@
         <v>0.86723333333333341</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E30*$F30)</f>
         <v>0.73675052991723966</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -3529,7 +3560,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G31=_xlfn.MAXIFS($G:$G, $A:$A, $A31), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C31" s="1">
@@ -3545,7 +3576,7 @@
         <v>0.64560000000000006</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E31*$F31)</f>
         <v>0.50791904866819082</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -3557,7 +3588,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G32=_xlfn.MAXIFS($G:$G, $A:$A, $A32), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C32" s="1">
@@ -3573,7 +3604,7 @@
         <v>0.44596666666666662</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E32*$F32)</f>
         <v>0.38655991055002642</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -3585,7 +3616,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF($G33=_xlfn.MAXIFS($G:$G, $A:$A, $A33), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C33" s="1">
@@ -3601,7 +3632,7 @@
         <v>0.4543666666666667</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="1"/>
+        <f>SQRT($E33*$F33)</f>
         <v>0.59414864208284524</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -3613,7 +3644,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="11" t="str">
-        <f t="shared" ref="B34:B65" si="2">IF($G34=_xlfn.MAXIFS($G:$G, $A:$A, $A34), "latest", "")</f>
+        <f>IF($G34=_xlfn.MAXIFS($G:$G, $A:$A, $A34), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C34" s="1">
@@ -3629,7 +3660,7 @@
         <v>0.84616666666666673</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" ref="G34:G65" si="3">SQRT($E34*$F34)</f>
+        <f>SQRT($E34*$F34)</f>
         <v>0.8149578005434801</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -3641,7 +3672,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G35=_xlfn.MAXIFS($G:$G, $A:$A, $A35), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C35" s="1">
@@ -3657,7 +3688,7 @@
         <v>0.62870000000000004</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E35*$F35)</f>
         <v>0.79290604739779857</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -3669,7 +3700,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G36=_xlfn.MAXIFS($G:$G, $A:$A, $A36), "latest", "")</f>
         <v/>
       </c>
       <c r="C36" s="1">
@@ -3685,7 +3716,7 @@
         <v>0.54510000000000003</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E36*$F36)</f>
         <v>0.49987382407963715</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -3697,7 +3728,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G37=_xlfn.MAXIFS($G:$G, $A:$A, $A37), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C37" s="1">
@@ -3713,7 +3744,7 @@
         <v>0.65079999999999993</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E37*$F37)</f>
         <v>0.72398502746949134</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -3725,7 +3756,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G38=_xlfn.MAXIFS($G:$G, $A:$A, $A38), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C38" s="1">
@@ -3741,7 +3772,7 @@
         <v>0.17220000000000002</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E38*$F38)</f>
         <v>0.25526550883344973</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -3753,7 +3784,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G39=_xlfn.MAXIFS($G:$G, $A:$A, $A39), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C39" s="1">
@@ -3769,7 +3800,7 @@
         <v>0.3685666666666666</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E39*$F39)</f>
         <v>0.42015609929855563</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -3781,7 +3812,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G40=_xlfn.MAXIFS($G:$G, $A:$A, $A40), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C40" s="1">
@@ -3797,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E40*$F40)</f>
         <v>1</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -3812,7 +3843,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G41=_xlfn.MAXIFS($G:$G, $A:$A, $A41), "latest", "")</f>
         <v/>
       </c>
       <c r="C41" s="15">
@@ -3828,7 +3859,7 @@
         <v>0.80713333333333326</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E41*$F41)</f>
         <v>0.7489171872332302</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -3843,7 +3874,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G42=_xlfn.MAXIFS($G:$G, $A:$A, $A42), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C42" s="15">
@@ -3859,7 +3890,7 @@
         <v>0.81103333333333338</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E42*$F42)</f>
         <v>0.8535521327565958</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -3874,7 +3905,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G43=_xlfn.MAXIFS($G:$G, $A:$A, $A43), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C43" s="15">
@@ -3890,7 +3921,7 @@
         <v>0.4417666666666667</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E43*$F43)</f>
         <v>0.42345376370980581</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -3905,7 +3936,7 @@
         <v>70</v>
       </c>
       <c r="B44" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G44=_xlfn.MAXIFS($G:$G, $A:$A, $A44), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C44" s="1">
@@ -3921,7 +3952,7 @@
         <v>0.45430000000000009</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E44*$F44)</f>
         <v>0.42920700134084488</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -3936,7 +3967,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G45=_xlfn.MAXIFS($G:$G, $A:$A, $A45), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C45" s="15">
@@ -3952,7 +3983,7 @@
         <v>0.22603333333333336</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E45*$F45)</f>
         <v>0.39861497574588051</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -3967,7 +3998,7 @@
         <v>84</v>
       </c>
       <c r="B46" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G46=_xlfn.MAXIFS($G:$G, $A:$A, $A46), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C46" s="15">
@@ -3983,7 +4014,7 @@
         <v>0.87153333333333327</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="3"/>
+        <f>SQRT($E46*$F46)</f>
         <v>0.76610677961872764</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -3995,114 +4026,120 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="B47" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>latest</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44645</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0.84789999999999999</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0.32800000000000001</v>
+        <f>IF($G47=_xlfn.MAXIFS($G:$G, $A:$A, $A47), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C47" s="15">
+        <v>44655</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="14">
+        <v>0.60530000000000006</v>
+      </c>
+      <c r="F47" s="14">
+        <v>0.65300000000000002</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="3"/>
-        <v>0.52736249392614187</v>
+        <f>SQRT($E47*$F47)</f>
+        <v>0.62869778113176134</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
-        <v>300</v>
+        <v>94</v>
       </c>
       <c r="B48" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>latest</v>
-      </c>
-      <c r="C48" s="1">
-        <v>44651</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="2">
-        <v>0.6990666666666665</v>
-      </c>
-      <c r="F48" s="2">
-        <v>0.32386666666666664</v>
+        <f>IF($G48=_xlfn.MAXIFS($G:$G, $A:$A, $A48), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C48" s="15">
+        <v>44655</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="14">
+        <v>0.60346666666666671</v>
+      </c>
+      <c r="F48" s="14">
+        <v>0.64536666666666676</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="3"/>
-        <v>0.47581970441661098</v>
+        <f>SQRT($E48*$F48)</f>
+        <v>0.62406511768493456</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
-        <v>404</v>
+        <v>114</v>
       </c>
       <c r="B49" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>latest</v>
-      </c>
-      <c r="C49" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="2">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="F49" s="2">
-        <v>0.14369999999999999</v>
+        <f>IF($G49=_xlfn.MAXIFS($G:$G, $A:$A, $A49), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C49" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="14">
+        <v>0.70343333333333335</v>
+      </c>
+      <c r="F49" s="14">
+        <v>0.79</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="3"/>
-        <v>0.32600693244162771</v>
+        <f>SQRT($E49*$F49)</f>
+        <v>0.74546115481179387</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="B50" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF($G50=_xlfn.MAXIFS($G:$G, $A:$A, $A50), "latest", "")</f>
+        <v>latest</v>
       </c>
       <c r="C50" s="1">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2">
-        <v>0.55549999999999999</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="F50" s="2">
-        <v>5.2600000000000001E-2</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="3"/>
-        <v>0.17093653793147912</v>
+        <f>SQRT($E50*$F50)</f>
+        <v>0.52736249392614187</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>6</v>
@@ -4110,55 +4147,58 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="B51" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF($G51=_xlfn.MAXIFS($G:$G, $A:$A, $A51), "latest", "")</f>
+        <v>latest</v>
       </c>
       <c r="C51" s="1">
-        <v>44643</v>
+        <v>44651</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E51" s="2">
-        <v>0.68120000000000003</v>
+        <v>0.6990666666666665</v>
       </c>
       <c r="F51" s="2">
-        <v>0.13519999999999999</v>
+        <v>0.32386666666666664</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="3"/>
-        <v>0.30347691839742935</v>
+        <f>SQRT($E51*$F51)</f>
+        <v>0.47581970441661098</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="B52" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G52=_xlfn.MAXIFS($G:$G, $A:$A, $A52), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C52" s="1">
         <v>44643</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E52" s="2">
-        <v>0.87919999999999998</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="F52" s="2">
-        <v>0.1739</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="3"/>
-        <v>0.39101519152073877</v>
+        <f>SQRT($E52*$F52)</f>
+        <v>0.32600693244162771</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>6</v>
@@ -4166,27 +4206,27 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
-        <v>653</v>
+        <v>440</v>
       </c>
       <c r="B53" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>latest</v>
+        <f>IF($G53=_xlfn.MAXIFS($G:$G, $A:$A, $A53), "latest", "")</f>
+        <v/>
       </c>
       <c r="C53" s="1">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E53" s="2">
-        <v>0.88719999999999999</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="F53" s="2">
-        <v>0.4602</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.63897530468712171</v>
+        <f>SQRT($E53*$F53)</f>
+        <v>0.17093653793147912</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>6</v>
@@ -4194,27 +4234,27 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
-        <v>661</v>
+        <v>440</v>
       </c>
       <c r="B54" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>latest</v>
+        <f>IF($G54=_xlfn.MAXIFS($G:$G, $A:$A, $A54), "latest", "")</f>
+        <v/>
       </c>
       <c r="C54" s="1">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E54" s="2">
-        <v>0.16830000000000001</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="F54" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="3"/>
-        <v>0.10378439189011034</v>
+        <f>SQRT($E54*$F54)</f>
+        <v>0.30347691839742935</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>6</v>
@@ -4222,170 +4262,167 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
-        <v>682</v>
+        <v>440</v>
       </c>
       <c r="B55" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G55=_xlfn.MAXIFS($G:$G, $A:$A, $A55), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C55" s="1">
-        <v>44646</v>
+        <v>44643</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2">
-        <v>0.91139999999999999</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="F55" s="2">
-        <v>0.9819</v>
+        <v>0.1739</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="3"/>
-        <v>0.94599347777878473</v>
+        <f>SQRT($E55*$F55)</f>
+        <v>0.39101519152073877</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="B56" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C56" s="1">
-        <v>44648</v>
+        <v>44642</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="2">
-        <v>1</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="F56" s="2">
-        <v>0.42049999999999998</v>
+        <v>0.4602</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="3"/>
-        <v>0.64845971347493903</v>
+        <f>SQRT($E56*$F56)</f>
+        <v>0.63897530468712171</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="B57" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G57=_xlfn.MAXIFS($G:$G, $A:$A, $A57), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C57" s="1">
-        <v>44651</v>
+        <v>44644</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E57" s="2">
-        <v>1</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="F57" s="2">
-        <v>0.60399999999999998</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="3"/>
-        <v>0.77717436910901794</v>
+        <f>SQRT($E57*$F57)</f>
+        <v>0.10378439189011034</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
-        <v>744</v>
+        <v>682</v>
       </c>
       <c r="B58" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>latest</v>
-      </c>
-      <c r="C58" s="15">
-        <v>44654</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="14">
-        <v>0.69553333333333345</v>
-      </c>
-      <c r="F58" s="14">
-        <v>0.58150000000000002</v>
+        <f>IF($G58=_xlfn.MAXIFS($G:$G, $A:$A, $A58), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44646</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.9819</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="3"/>
-        <v>0.63596590579474732</v>
+        <f>SQRT($E58*$F58)</f>
+        <v>0.94599347777878473</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I58" s="10" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
-        <v>954</v>
+        <v>693</v>
       </c>
       <c r="B59" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G59=_xlfn.MAXIFS($G:$G, $A:$A, $A59), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C59" s="1">
-        <v>44652</v>
+        <v>44648</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E59" s="2">
-        <v>0.98939999999999995</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2">
-        <v>0.38096666666666662</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="3"/>
-        <v>0.61394496496021522</v>
+        <f>SQRT($E59*$F59)</f>
+        <v>0.64845971347493903</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
-        <v>1606</v>
+        <v>728</v>
       </c>
       <c r="B60" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G60=_xlfn.MAXIFS($G:$G, $A:$A, $A60), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C60" s="1">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E60" s="2">
-        <v>5.6600000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2">
-        <v>1</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="3"/>
-        <v>0.23790754506740638</v>
+        <f>SQRT($E60*$F60)</f>
+        <v>0.77717436910901794</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>11</v>
@@ -4393,111 +4430,114 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
-        <v>2024</v>
+        <v>744</v>
       </c>
       <c r="B61" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>latest</v>
-      </c>
-      <c r="C61" s="1">
-        <v>44649</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0.87609999999999999</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0.49359999999999998</v>
+        <f>IF($G61=_xlfn.MAXIFS($G:$G, $A:$A, $A61), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C61" s="15">
+        <v>44654</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0.69553333333333345</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0.58150000000000002</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="3"/>
-        <v>0.65760395375940373</v>
+        <f>SQRT($E61*$F61)</f>
+        <v>0.63596590579474732</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
-        <v>2028</v>
+        <v>954</v>
       </c>
       <c r="B62" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF($G62=_xlfn.MAXIFS($G:$G, $A:$A, $A62), "latest", "")</f>
+        <v>latest</v>
       </c>
       <c r="C62" s="1">
-        <v>44647</v>
+        <v>44652</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E62" s="2">
-        <v>0.14099999999999999</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="F62" s="2">
-        <v>0.12820000000000001</v>
+        <v>0.38096666666666662</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="3"/>
-        <v>0.13444775937143766</v>
+        <f>SQRT($E62*$F62)</f>
+        <v>0.61394496496021522</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
-        <v>2028</v>
+        <v>1606</v>
       </c>
       <c r="B63" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF($G63=_xlfn.MAXIFS($G:$G, $A:$A, $A63), "latest", "")</f>
+        <v>latest</v>
       </c>
       <c r="C63" s="1">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E63" s="2">
-        <v>0.12820000000000001</v>
+        <v>5.6600000000000004E-2</v>
       </c>
       <c r="F63" s="2">
-        <v>6.8400000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="3"/>
-        <v>9.3642298134977445E-2</v>
+        <f>SQRT($E63*$F63)</f>
+        <v>0.23790754506740638</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B64" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF($G64=_xlfn.MAXIFS($G:$G, $A:$A, $A64), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C64" s="1">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="2">
-        <v>0.9677</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="F64" s="2">
-        <v>0.90539999999999998</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="3"/>
-        <v>0.9360318263819879</v>
+        <f>SQRT($E64*$F64)</f>
+        <v>0.65760395375940373</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>9</v>
@@ -4505,11 +4545,11 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="B65" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>latest</v>
+        <f>IF($G65=_xlfn.MAXIFS($G:$G, $A:$A, $A65), "latest", "")</f>
+        <v/>
       </c>
       <c r="C65" s="1">
         <v>44647</v>
@@ -4518,22 +4558,106 @@
         <v>7</v>
       </c>
       <c r="E65" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="G65" s="2">
+        <f>SQRT($E65*$F65)</f>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B66" s="11" t="str">
+        <f>IF($G66=_xlfn.MAXIFS($G:$G, $A:$A, $A66), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C66" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="F66" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G66" s="2">
+        <f>SQRT($E66*$F66)</f>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B67" s="11" t="str">
+        <f>IF($G67=_xlfn.MAXIFS($G:$G, $A:$A, $A67), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0.9677</v>
+      </c>
+      <c r="F67" s="2">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="G67" s="2">
+        <f>SQRT($E67*$F67)</f>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
+        <v>2038</v>
+      </c>
+      <c r="B68" s="11" t="str">
+        <f>IF($G68=_xlfn.MAXIFS($G:$G, $A:$A, $A68), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2">
         <v>0.79410000000000003</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F68" s="2">
         <v>0.76470000000000005</v>
       </c>
-      <c r="G65" s="2">
-        <f t="shared" si="3"/>
+      <c r="G68" s="2">
+        <f>SQRT($E68*$F68)</f>
         <v>0.77926136180359928</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="H68" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I65">
-    <sortCondition ref="A2:A65"/>
+  <sortState ref="A2:I69">
+    <sortCondition ref="A19"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
@@ -4631,7 +4755,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4661,14 +4785,14 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTIFS(record!$H:$H,$A2, record!$B:$B, "=latest")</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="9">
         <f>COUNTIFS(record!$D:$D,$D2, record!$B:$B, "=latest")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4677,14 +4801,14 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIFS(record!$H:$H,$A3, record!$B:$B, "=latest")</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="9">
         <f>COUNTIFS(record!$D:$D,$D3, record!$B:$B, "=latest")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4700,7 +4824,7 @@
       </c>
       <c r="E4" s="9">
         <f>COUNTIFS(record!$D:$D,$D4, record!$B:$B, "=latest")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -4791,36 +4915,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>67.19</v>
+        <v>84.2</v>
       </c>
       <c r="B2" s="6">
-        <v>86.26</v>
+        <v>51.63</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>50.14</v>
+        <v>84.2</v>
       </c>
       <c r="B3" s="6">
-        <v>89.12</v>
+        <v>98.93</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>84.7</v>
+        <v>42.63</v>
       </c>
       <c r="B4" s="6">
-        <v>86.08</v>
+        <v>86.44</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>0.67343333333333333</v>
+        <v>0.70343333333333335</v>
       </c>
       <c r="B5" s="5">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.87153333333333327</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFF8530-CD45-40FF-B07D-487ECB2596CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD53A255-FB36-4DFE-B37F-AC3981D25054}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
   <si>
     <t>time submitted</t>
   </si>
@@ -303,6 +303,14 @@
   </si>
   <si>
     <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +782,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25</c:v>
@@ -1090,7 +1098,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2692,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -4461,114 +4469,114 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
-        <v>954</v>
+        <v>762</v>
       </c>
       <c r="B62" s="11" t="str">
         <f>IF($G62=_xlfn.MAXIFS($G:$G, $A:$A, $A62), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C62" s="1">
-        <v>44652</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.98939999999999995</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0.38096666666666662</v>
+      <c r="C62" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0.94619999999999993</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0.87099999999999977</v>
       </c>
       <c r="G62" s="2">
         <f>SQRT($E62*$F62)</f>
-        <v>0.61394496496021522</v>
+        <v>0.90782167852502826</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
-        <v>1606</v>
+        <v>954</v>
       </c>
       <c r="B63" s="11" t="str">
         <f>IF($G63=_xlfn.MAXIFS($G:$G, $A:$A, $A63), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C63" s="1">
-        <v>44650</v>
+        <v>44652</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E63" s="2">
-        <v>5.6600000000000004E-2</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="F63" s="2">
-        <v>1</v>
+        <v>0.38096666666666662</v>
       </c>
       <c r="G63" s="2">
         <f>SQRT($E63*$F63)</f>
-        <v>0.23790754506740638</v>
+        <v>0.61394496496021522</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
-        <v>2024</v>
+        <v>1606</v>
       </c>
       <c r="B64" s="11" t="str">
         <f>IF($G64=_xlfn.MAXIFS($G:$G, $A:$A, $A64), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C64" s="1">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E64" s="2">
-        <v>0.87609999999999999</v>
+        <v>5.6600000000000004E-2</v>
       </c>
       <c r="F64" s="2">
-        <v>0.49359999999999998</v>
+        <v>1</v>
       </c>
       <c r="G64" s="2">
         <f>SQRT($E64*$F64)</f>
-        <v>0.65760395375940373</v>
+        <v>0.23790754506740638</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="B65" s="11" t="str">
         <f>IF($G65=_xlfn.MAXIFS($G:$G, $A:$A, $A65), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C65" s="1">
-        <v>44647</v>
+        <v>44649</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E65" s="2">
-        <v>0.14099999999999999</v>
+        <v>0.87609999999999999</v>
       </c>
       <c r="F65" s="2">
-        <v>0.12820000000000001</v>
+        <v>0.49359999999999998</v>
       </c>
       <c r="G65" s="2">
         <f>SQRT($E65*$F65)</f>
-        <v>0.13444775937143766</v>
+        <v>0.65760395375940373</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4586,14 +4594,14 @@
         <v>7</v>
       </c>
       <c r="E66" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F66" s="2">
         <v>0.12820000000000001</v>
-      </c>
-      <c r="F66" s="2">
-        <v>6.8400000000000002E-2</v>
       </c>
       <c r="G66" s="2">
         <f>SQRT($E66*$F66)</f>
-        <v>9.3642298134977445E-2</v>
+        <v>0.13444775937143766</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>12</v>
@@ -4605,7 +4613,7 @@
       </c>
       <c r="B67" s="11" t="str">
         <f>IF($G67=_xlfn.MAXIFS($G:$G, $A:$A, $A67), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C67" s="1">
         <v>44647</v>
@@ -4614,22 +4622,22 @@
         <v>7</v>
       </c>
       <c r="E67" s="2">
-        <v>0.9677</v>
+        <v>0.12820000000000001</v>
       </c>
       <c r="F67" s="2">
-        <v>0.90539999999999998</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="G67" s="2">
         <f>SQRT($E67*$F67)</f>
-        <v>0.9360318263819879</v>
+        <v>9.3642298134977445E-2</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
-        <v>2038</v>
+        <v>2028</v>
       </c>
       <c r="B68" s="11" t="str">
         <f>IF($G68=_xlfn.MAXIFS($G:$G, $A:$A, $A68), "latest", "")</f>
@@ -4642,22 +4650,50 @@
         <v>7</v>
       </c>
       <c r="E68" s="2">
-        <v>0.79410000000000003</v>
+        <v>0.9677</v>
       </c>
       <c r="F68" s="2">
-        <v>0.76470000000000005</v>
+        <v>0.90539999999999998</v>
       </c>
       <c r="G68" s="2">
         <f>SQRT($E68*$F68)</f>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>2038</v>
+      </c>
+      <c r="B69" s="11" t="str">
+        <f>IF($G69=_xlfn.MAXIFS($G:$G, $A:$A, $A69), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="G69" s="2">
+        <f>SQRT($E69*$F69)</f>
         <v>0.77926136180359928</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H69" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:I69">
-    <sortCondition ref="A19"/>
+    <sortCondition ref="A2:A69"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
@@ -4755,7 +4791,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4785,7 +4821,7 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTIFS(record!$H:$H,$A2, record!$B:$B, "=latest")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -4824,7 +4860,7 @@
       </c>
       <c r="E4" s="9">
         <f>COUNTIFS(record!$D:$D,$D4, record!$B:$B, "=latest")</f>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4915,36 +4951,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>84.2</v>
+        <v>96.77</v>
       </c>
       <c r="B2" s="6">
-        <v>51.63</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>84.2</v>
+        <v>90.32</v>
       </c>
       <c r="B3" s="6">
-        <v>98.93</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>42.63</v>
+        <v>96.77</v>
       </c>
       <c r="B4" s="6">
-        <v>86.44</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>0.70343333333333335</v>
+        <v>0.94619999999999993</v>
       </c>
       <c r="B5" s="5">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.79</v>
+        <v>0.87099999999999977</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD53A255-FB36-4DFE-B37F-AC3981D25054}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D503852-1E09-49A9-BF93-CD7A8D86B4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="4" r:id="rId1"/>
     <sheet name="statistic" sheetId="3" r:id="rId2"/>
-    <sheet name="calculator" sheetId="2" r:id="rId3"/>
+    <sheet name="calender" sheetId="5" r:id="rId3"/>
+    <sheet name="calculator" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
   <si>
     <t>time submitted</t>
   </si>
@@ -226,10 +227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Dynamic Programming</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>C++</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -258,10 +255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Stack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Medium</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -270,10 +263,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Stack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Hard</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,10 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Stack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Easy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -307,6 +292,90 @@
   </si>
   <si>
     <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time submitted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>algorithm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data structure</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree; Stack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inorder Traversal; Iteration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inorder Traversal; Recurrence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preorder Traversal; Recurrence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preorder Traversal; Morris Traversal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -318,9 +387,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -379,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +493,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -452,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,6 +594,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,13 +883,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>22</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,10 +1196,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2326,15 +2427,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>5010</xdr:rowOff>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162381</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>5013</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>5011</xdr:rowOff>
+      <xdr:colOff>29861</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>162381</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2349,7 +2450,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="2274445"/>
+          <a:off x="24848" y="2249598"/>
           <a:ext cx="5206491" cy="2004392"/>
           <a:chOff x="0" y="1524000"/>
           <a:chExt cx="5208671" cy="1985211"/>
@@ -2700,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2713,10 +2814,11 @@
     <col min="3" max="4" width="15.625" style="13" customWidth="1"/>
     <col min="5" max="7" width="15.625" style="14" customWidth="1"/>
     <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="34.625" style="10" customWidth="1"/>
+    <col min="10" max="11" width="25.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
@@ -2742,10 +2844,16 @@
         <v>19</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2773,7 +2881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2801,7 +2909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2829,7 +2937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>2</v>
       </c>
@@ -2857,7 +2965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -2885,7 +2993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -2913,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>3</v>
       </c>
@@ -2944,7 +3052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>3</v>
       </c>
@@ -2975,7 +3083,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -3003,7 +3111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>5</v>
       </c>
@@ -3031,7 +3139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>6</v>
       </c>
@@ -3059,7 +3167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>7</v>
       </c>
@@ -3087,7 +3195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>8</v>
       </c>
@@ -3115,7 +3223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>9</v>
       </c>
@@ -3143,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -3619,7 +3727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>22</v>
       </c>
@@ -3647,7 +3755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>23</v>
       </c>
@@ -3675,7 +3783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>24</v>
       </c>
@@ -3703,7 +3811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>25</v>
       </c>
@@ -3731,7 +3839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>25</v>
       </c>
@@ -3759,7 +3867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>26</v>
       </c>
@@ -3787,7 +3895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>27</v>
       </c>
@@ -3815,7 +3923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>28</v>
       </c>
@@ -3846,7 +3954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>32</v>
       </c>
@@ -3858,7 +3966,7 @@
         <v>44655</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E41" s="14">
         <v>0.69489999999999996</v>
@@ -3871,13 +3979,13 @@
         <v>0.7489171872332302</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>32</v>
       </c>
@@ -3889,7 +3997,7 @@
         <v>44655</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E42" s="14">
         <v>0.89829999999999999</v>
@@ -3902,13 +4010,13 @@
         <v>0.8535521327565958</v>
       </c>
       <c r="H42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3920,7 +4028,7 @@
         <v>44655</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E43" s="14">
         <v>0.40590000000000004</v>
@@ -3933,13 +4041,13 @@
         <v>0.42345376370980581</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>70</v>
       </c>
@@ -3970,7 +4078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>71</v>
       </c>
@@ -3982,7 +4090,7 @@
         <v>44655</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E45" s="14">
         <v>0.70296666666666663</v>
@@ -3995,13 +4103,13 @@
         <v>0.39861497574588051</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>84</v>
       </c>
@@ -4013,7 +4121,7 @@
         <v>44655</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E46" s="14">
         <v>0.67343333333333333</v>
@@ -4028,11 +4136,11 @@
       <c r="H46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>85</v>
       </c>
@@ -4044,7 +4152,7 @@
         <v>44655</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E47" s="14">
         <v>0.60530000000000006</v>
@@ -4057,13 +4165,13 @@
         <v>0.62869778113176134</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>94</v>
       </c>
@@ -4075,7 +4183,7 @@
         <v>44655</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E48" s="14">
         <v>0.60346666666666671</v>
@@ -4088,615 +4196,854 @@
         <v>0.62406511768493456</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B49" s="11" t="str">
         <f>IF($G49=_xlfn.MAXIFS($G:$G, $A:$A, $A49), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C49" s="15">
         <v>44656</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="E49" s="14">
-        <v>0.70343333333333335</v>
+        <v>0.27210000000000001</v>
       </c>
       <c r="F49" s="14">
-        <v>0.79</v>
-      </c>
-      <c r="G49" s="2">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="G49" s="14">
         <f>SQRT($E49*$F49)</f>
-        <v>0.74546115481179387</v>
+        <v>0.44939138843551507</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="B50" s="11" t="str">
         <f>IF($G50=_xlfn.MAXIFS($G:$G, $A:$A, $A50), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C50" s="1">
-        <v>44645</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0.84789999999999999</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0.32800000000000001</v>
+      <c r="C50" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="14">
+        <v>0.6555333333333333</v>
+      </c>
+      <c r="F50" s="14">
+        <v>0.13203333333333334</v>
       </c>
       <c r="G50" s="2">
         <f>SQRT($E50*$F50)</f>
-        <v>0.52736249392614187</v>
+        <v>0.29419763954034556</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="B51" s="11" t="str">
         <f>IF($G51=_xlfn.MAXIFS($G:$G, $A:$A, $A51), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C51" s="1">
-        <v>44651</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0.6990666666666665</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0.32386666666666664</v>
+      <c r="C51" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="14">
+        <v>0.70343333333333335</v>
+      </c>
+      <c r="F51" s="14">
+        <v>0.79</v>
       </c>
       <c r="G51" s="2">
         <f>SQRT($E51*$F51)</f>
-        <v>0.47581970441661098</v>
+        <v>0.74546115481179387</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
-        <v>404</v>
+        <v>143</v>
       </c>
       <c r="B52" s="11" t="str">
         <f>IF($G52=_xlfn.MAXIFS($G:$G, $A:$A, $A52), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C52" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="2">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0.14369999999999999</v>
+      <c r="C52" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="14">
+        <v>0.88626666666666665</v>
+      </c>
+      <c r="F52" s="14">
+        <v>0.60226666666666662</v>
       </c>
       <c r="G52" s="2">
         <f>SQRT($E52*$F52)</f>
-        <v>0.32600693244162771</v>
+        <v>0.73059487481853513</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
-        <v>440</v>
+        <v>144</v>
       </c>
       <c r="B53" s="11" t="str">
         <f>IF($G53=_xlfn.MAXIFS($G:$G, $A:$A, $A53), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C53" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="F53" s="2">
-        <v>5.2600000000000001E-2</v>
+        <v>latest</v>
+      </c>
+      <c r="C53" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="14">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="F53" s="14">
+        <v>0.39666666666666667</v>
       </c>
       <c r="G53" s="2">
         <f>SQRT($E53*$F53)</f>
-        <v>0.17093653793147912</v>
+        <v>0.54598076889209202</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
-        <v>440</v>
+        <v>144</v>
       </c>
       <c r="B54" s="11" t="str">
         <f>IF($G54=_xlfn.MAXIFS($G:$G, $A:$A, $A54), "latest", "")</f>
         <v/>
       </c>
-      <c r="C54" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0.68120000000000003</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0.13519999999999999</v>
+      <c r="C54" s="15">
+        <v>44657</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="14">
+        <v>0.44853333333333334</v>
+      </c>
+      <c r="F54" s="14">
+        <v>0.31046666666666667</v>
       </c>
       <c r="G54" s="2">
         <f>SQRT($E54*$F54)</f>
-        <v>0.30347691839742935</v>
+        <v>0.37316839213535874</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
-        <v>440</v>
+        <v>145</v>
       </c>
       <c r="B55" s="11" t="str">
         <f>IF($G55=_xlfn.MAXIFS($G:$G, $A:$A, $A55), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C55" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2">
-        <v>0.87919999999999998</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0.1739</v>
+      <c r="C55" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="14">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="F55" s="14">
+        <v>0.33093333333333336</v>
       </c>
       <c r="G55" s="2">
         <f>SQRT($E55*$F55)</f>
-        <v>0.39101519152073877</v>
+        <v>0.49573288506345164</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
-        <v>653</v>
+        <v>150</v>
       </c>
       <c r="B56" s="11" t="str">
         <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C56" s="1">
-        <v>44642</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="2">
-        <v>0.88719999999999999</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0.4602</v>
+      <c r="C56" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="14">
+        <v>0.85926666666666662</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0.31310000000000004</v>
       </c>
       <c r="G56" s="2">
         <f>SQRT($E56*$F56)</f>
-        <v>0.63897530468712171</v>
+        <v>0.51868718254197621</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
-        <v>661</v>
+        <v>172</v>
       </c>
       <c r="B57" s="11" t="str">
         <f>IF($G57=_xlfn.MAXIFS($G:$G, $A:$A, $A57), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C57" s="1">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E57" s="2">
-        <v>0.16830000000000001</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="F57" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G57" s="2">
         <f>SQRT($E57*$F57)</f>
-        <v>0.10378439189011034</v>
+        <v>0.52736249392614187</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
-        <v>682</v>
+        <v>300</v>
       </c>
       <c r="B58" s="11" t="str">
         <f>IF($G58=_xlfn.MAXIFS($G:$G, $A:$A, $A58), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C58" s="1">
-        <v>44646</v>
+        <v>44651</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E58" s="2">
-        <v>0.91139999999999999</v>
+        <v>0.6990666666666665</v>
       </c>
       <c r="F58" s="2">
-        <v>0.9819</v>
+        <v>0.32386666666666664</v>
       </c>
       <c r="G58" s="2">
         <f>SQRT($E58*$F58)</f>
-        <v>0.94599347777878473</v>
+        <v>0.47581970441661098</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
-        <v>693</v>
+        <v>404</v>
       </c>
       <c r="B59" s="11" t="str">
         <f>IF($G59=_xlfn.MAXIFS($G:$G, $A:$A, $A59), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C59" s="1">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="2">
-        <v>1</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="F59" s="2">
-        <v>0.42049999999999998</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="G59" s="2">
         <f>SQRT($E59*$F59)</f>
-        <v>0.64845971347493903</v>
+        <v>0.32600693244162771</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
-        <v>728</v>
+        <v>440</v>
       </c>
       <c r="B60" s="11" t="str">
         <f>IF($G60=_xlfn.MAXIFS($G:$G, $A:$A, $A60), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C60" s="1">
-        <v>44651</v>
+        <v>44643</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2">
-        <v>1</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="F60" s="2">
-        <v>0.60399999999999998</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="G60" s="2">
         <f>SQRT($E60*$F60)</f>
-        <v>0.77717436910901794</v>
+        <v>0.17093653793147912</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
-        <v>744</v>
+        <v>440</v>
       </c>
       <c r="B61" s="11" t="str">
         <f>IF($G61=_xlfn.MAXIFS($G:$G, $A:$A, $A61), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C61" s="15">
-        <v>44654</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61" s="14">
-        <v>0.69553333333333345</v>
-      </c>
-      <c r="F61" s="14">
-        <v>0.58150000000000002</v>
+        <v/>
+      </c>
+      <c r="C61" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0.13519999999999999</v>
       </c>
       <c r="G61" s="2">
         <f>SQRT($E61*$F61)</f>
-        <v>0.63596590579474732</v>
+        <v>0.30347691839742935</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
-        <v>762</v>
+        <v>440</v>
       </c>
       <c r="B62" s="11" t="str">
         <f>IF($G62=_xlfn.MAXIFS($G:$G, $A:$A, $A62), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C62" s="15">
-        <v>44656</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="14">
-        <v>0.94619999999999993</v>
-      </c>
-      <c r="F62" s="14">
-        <v>0.87099999999999977</v>
+      <c r="C62" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0.1739</v>
       </c>
       <c r="G62" s="2">
         <f>SQRT($E62*$F62)</f>
-        <v>0.90782167852502826</v>
+        <v>0.39101519152073877</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
-        <v>954</v>
+        <v>653</v>
       </c>
       <c r="B63" s="11" t="str">
         <f>IF($G63=_xlfn.MAXIFS($G:$G, $A:$A, $A63), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C63" s="1">
-        <v>44652</v>
+        <v>44642</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E63" s="2">
-        <v>0.98939999999999995</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="F63" s="2">
-        <v>0.38096666666666662</v>
+        <v>0.4602</v>
       </c>
       <c r="G63" s="2">
         <f>SQRT($E63*$F63)</f>
-        <v>0.61394496496021522</v>
+        <v>0.63897530468712171</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
-        <v>1606</v>
+        <v>661</v>
       </c>
       <c r="B64" s="11" t="str">
         <f>IF($G64=_xlfn.MAXIFS($G:$G, $A:$A, $A64), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C64" s="1">
-        <v>44650</v>
+        <v>44644</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E64" s="2">
-        <v>5.6600000000000004E-2</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="F64" s="2">
-        <v>1</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G64" s="2">
         <f>SQRT($E64*$F64)</f>
-        <v>0.23790754506740638</v>
+        <v>0.10378439189011034</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
-        <v>2024</v>
+        <v>682</v>
       </c>
       <c r="B65" s="11" t="str">
         <f>IF($G65=_xlfn.MAXIFS($G:$G, $A:$A, $A65), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C65" s="1">
-        <v>44649</v>
+        <v>44646</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E65" s="2">
-        <v>0.87609999999999999</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="F65" s="2">
-        <v>0.49359999999999998</v>
+        <v>0.9819</v>
       </c>
       <c r="G65" s="2">
         <f>SQRT($E65*$F65)</f>
-        <v>0.65760395375940373</v>
+        <v>0.94599347777878473</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
-        <v>2028</v>
+        <v>693</v>
       </c>
       <c r="B66" s="11" t="str">
         <f>IF($G66=_xlfn.MAXIFS($G:$G, $A:$A, $A66), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C66" s="1">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E66" s="2">
-        <v>0.14099999999999999</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2">
-        <v>0.12820000000000001</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="G66" s="2">
         <f>SQRT($E66*$F66)</f>
-        <v>0.13444775937143766</v>
+        <v>0.64845971347493903</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
-        <v>2028</v>
+        <v>728</v>
       </c>
       <c r="B67" s="11" t="str">
         <f>IF($G67=_xlfn.MAXIFS($G:$G, $A:$A, $A67), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C67" s="1">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E67" s="2">
-        <v>0.12820000000000001</v>
+        <v>1</v>
       </c>
       <c r="F67" s="2">
-        <v>6.8400000000000002E-2</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="G67" s="2">
         <f>SQRT($E67*$F67)</f>
-        <v>9.3642298134977445E-2</v>
+        <v>0.77717436910901794</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
-        <v>2028</v>
+        <v>744</v>
       </c>
       <c r="B68" s="11" t="str">
         <f>IF($G68=_xlfn.MAXIFS($G:$G, $A:$A, $A68), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C68" s="1">
-        <v>44647</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="2">
-        <v>0.9677</v>
-      </c>
-      <c r="F68" s="2">
-        <v>0.90539999999999998</v>
+      <c r="C68" s="15">
+        <v>44654</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E68" s="14">
+        <v>0.69553333333333345</v>
+      </c>
+      <c r="F68" s="14">
+        <v>0.58150000000000002</v>
       </c>
       <c r="G68" s="2">
         <f>SQRT($E68*$F68)</f>
-        <v>0.9360318263819879</v>
+        <v>0.63596590579474732</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
-        <v>2038</v>
+        <v>762</v>
       </c>
       <c r="B69" s="11" t="str">
         <f>IF($G69=_xlfn.MAXIFS($G:$G, $A:$A, $A69), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C69" s="1">
-        <v>44647</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0.79410000000000003</v>
-      </c>
-      <c r="F69" s="2">
-        <v>0.76470000000000005</v>
+      <c r="C69" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0.94619999999999993</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0.87099999999999977</v>
       </c>
       <c r="G69" s="2">
         <f>SQRT($E69*$F69)</f>
+        <v>0.90782167852502826</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>954</v>
+      </c>
+      <c r="B70" s="11" t="str">
+        <f>IF($G70=_xlfn.MAXIFS($G:$G, $A:$A, $A70), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44652</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0.98939999999999995</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0.38096666666666662</v>
+      </c>
+      <c r="G70" s="2">
+        <f>SQRT($E70*$F70)</f>
+        <v>0.61394496496021522</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
+        <v>1606</v>
+      </c>
+      <c r="B71" s="11" t="str">
+        <f>IF($G71=_xlfn.MAXIFS($G:$G, $A:$A, $A71), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="2">
+        <v>5.6600000000000004E-2</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <f>SQRT($E71*$F71)</f>
+        <v>0.23790754506740638</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B72" s="11" t="str">
+        <f>IF($G72=_xlfn.MAXIFS($G:$G, $A:$A, $A72), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44649</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="G72" s="2">
+        <f>SQRT($E72*$F72)</f>
+        <v>0.65760395375940373</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B73" s="11" t="str">
+        <f>IF($G73=_xlfn.MAXIFS($G:$G, $A:$A, $A73), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C73" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="G73" s="2">
+        <f>SQRT($E73*$F73)</f>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B74" s="11" t="str">
+        <f>IF($G74=_xlfn.MAXIFS($G:$G, $A:$A, $A74), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C74" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="F74" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G74" s="2">
+        <f>SQRT($E74*$F74)</f>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B75" s="11" t="str">
+        <f>IF($G75=_xlfn.MAXIFS($G:$G, $A:$A, $A75), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0.9677</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="G75" s="2">
+        <f>SQRT($E75*$F75)</f>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
+        <v>2038</v>
+      </c>
+      <c r="B76" s="11" t="str">
+        <f>IF($G76=_xlfn.MAXIFS($G:$G, $A:$A, $A76), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="G76" s="2">
+        <f>SQRT($E76*$F76)</f>
         <v>0.77926136180359928</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H76" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I69">
-    <sortCondition ref="A2:A69"/>
+  <sortState ref="A2:K76">
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="8" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="percent" val="0"/>
@@ -4706,18 +5053,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="8" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4729,18 +5066,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4750,17 +5087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="100"/>
-        <color theme="5" tint="0.59999389629810485"/>
-        <color theme="8" tint="0.59999389629810485"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="100"/>
@@ -4770,7 +5097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4778,6 +5105,16 @@
         <color theme="0" tint="-0.34998626667073579"/>
         <color theme="0" tint="-0.14999847407452621"/>
         <color theme="0" tint="-4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:K1">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="100"/>
+        <color theme="5" tint="0.59999389629810485"/>
+        <color theme="8" tint="0.59999389629810485"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -4791,7 +5128,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4821,7 +5158,7 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTIFS(record!$H:$H,$A2, record!$B:$B, "=latest")</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -4844,7 +5181,7 @@
       </c>
       <c r="E3" s="9">
         <f>COUNTIFS(record!$D:$D,$D3, record!$B:$B, "=latest")</f>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4853,14 +5190,14 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIFS(record!$H:$H,$A4, record!$B:$B, "=latest")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="9">
         <f>COUNTIFS(record!$D:$D,$D4, record!$B:$B, "=latest")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -4929,6 +5266,385 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC083FF-3AF3-4ABC-A3DB-7E4234390599}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B2" s="19">
+        <f>COUNTIFS(record!$C:$C,$A2, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="20">
+        <f>COUNTIFS(record!$C:$C,$A2, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="21">
+        <f>COUNTIFS(record!$C:$C,$A2, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="18">
+        <f>SUM($B2:$D2)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B3" s="19">
+        <f>COUNTIFS(record!$C:$C,$A3, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="20">
+        <f>COUNTIFS(record!$C:$C,$A3, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
+        <f>COUNTIFS(record!$C:$C,$A3, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="18">
+        <f t="shared" ref="E3:E16" si="0">SUM($B3:$D3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B4" s="19">
+        <f>COUNTIFS(record!$C:$C,$A4, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="20">
+        <f>COUNTIFS(record!$C:$C,$A4, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <f>COUNTIFS(record!$C:$C,$A4, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B5" s="19">
+        <f>COUNTIFS(record!$C:$C,$A5, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <f>COUNTIFS(record!$C:$C,$A5, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="21">
+        <f>COUNTIFS(record!$C:$C,$A5, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B6" s="19">
+        <f>COUNTIFS(record!$C:$C,$A6, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="20">
+        <f>COUNTIFS(record!$C:$C,$A6, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <f>COUNTIFS(record!$C:$C,$A6, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B7" s="19">
+        <f>COUNTIFS(record!$C:$C,$A7, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="20">
+        <f>COUNTIFS(record!$C:$C,$A7, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="21">
+        <f>COUNTIFS(record!$C:$C,$A7, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B8" s="19">
+        <f>COUNTIFS(record!$C:$C,$A8, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="20">
+        <f>COUNTIFS(record!$C:$C,$A8, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <f>COUNTIFS(record!$C:$C,$A8, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B9" s="19">
+        <f>COUNTIFS(record!$C:$C,$A9, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="20">
+        <f>COUNTIFS(record!$C:$C,$A9, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="21">
+        <f>COUNTIFS(record!$C:$C,$A9, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B10" s="19">
+        <f>COUNTIFS(record!$C:$C,$A10, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="20">
+        <f>COUNTIFS(record!$C:$C,$A10, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <f>COUNTIFS(record!$C:$C,$A10, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B11" s="19">
+        <f>COUNTIFS(record!$C:$C,$A11, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="20">
+        <f>COUNTIFS(record!$C:$C,$A11, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="21">
+        <f>COUNTIFS(record!$C:$C,$A11, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B12" s="19">
+        <f>COUNTIFS(record!$C:$C,$A12, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="20">
+        <f>COUNTIFS(record!$C:$C,$A12, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="21">
+        <f>COUNTIFS(record!$C:$C,$A12, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B13" s="19">
+        <f>COUNTIFS(record!$C:$C,$A13, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="20">
+        <f>COUNTIFS(record!$C:$C,$A13, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="21">
+        <f>COUNTIFS(record!$C:$C,$A13, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B14" s="19">
+        <f>COUNTIFS(record!$C:$C,$A14, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <f>COUNTIFS(record!$C:$C,$A14, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="21">
+        <f>COUNTIFS(record!$C:$C,$A14, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B15" s="19">
+        <f>COUNTIFS(record!$C:$C,$A15, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>4</v>
+      </c>
+      <c r="C15" s="20">
+        <f>COUNTIFS(record!$C:$C,$A15, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="21">
+        <f>COUNTIFS(record!$C:$C,$A15, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B16" s="19">
+        <f>COUNTIFS(record!$C:$C,$A16, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="20">
+        <f>COUNTIFS(record!$C:$C,$A16, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>4</v>
+      </c>
+      <c r="D16" s="21">
+        <f>COUNTIFS(record!$C:$C,$A16, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>3</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741443C7-2DEF-4047-BE45-91FE0D424F53}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -4951,36 +5667,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>96.77</v>
+        <v>35.33</v>
       </c>
       <c r="B2" s="6">
-        <v>87.1</v>
+        <v>31.12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>90.32</v>
+        <v>35.33</v>
       </c>
       <c r="B3" s="6">
-        <v>87.1</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>96.77</v>
+        <v>63.9</v>
       </c>
       <c r="B4" s="6">
-        <v>87.1</v>
+        <v>42.36</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>0.94619999999999993</v>
+        <v>0.44853333333333334</v>
       </c>
       <c r="B5" s="5">
         <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.87099999999999977</v>
+        <v>0.31046666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D503852-1E09-49A9-BF93-CD7A8D86B4E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01A25F7-DF2C-4D18-A73F-C4F5374F8BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
   <si>
     <t>time submitted</t>
   </si>
@@ -359,27 +359,115 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Inorder Traversal; Iteration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inorder Traversal; Recurrence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preorder Traversal; Recurrence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preorder Traversal; Morris Traversal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Binary Tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breadth First Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topological Sorting; Depth First Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inorder Traversal (Recurrence)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inorder Traversal (Iteration)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preorder Traversal (Recurrence)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preorder Traversal (Morris Traversal)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postorder Traversal (Recurrence)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postorder Traversal (Morris Traversal)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inorder Traversal (Morris Traversal)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inorder Traversal (Morris Traversal)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Search Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>average (3 days)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -883,13 +971,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,10 +1284,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,15 +2515,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>24848</xdr:colOff>
+      <xdr:colOff>8282</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>162381</xdr:rowOff>
+      <xdr:rowOff>178947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>29861</xdr:colOff>
+      <xdr:colOff>5010</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>162381</xdr:rowOff>
+      <xdr:rowOff>178947</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -2450,10 +2538,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24848" y="2249598"/>
-          <a:ext cx="5206491" cy="2004392"/>
-          <a:chOff x="0" y="1524000"/>
-          <a:chExt cx="5208671" cy="1985211"/>
+          <a:off x="8282" y="2266164"/>
+          <a:ext cx="5198206" cy="2004392"/>
+          <a:chOff x="-16572" y="1540408"/>
+          <a:chExt cx="5200383" cy="1985211"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:graphicFrame macro="">
@@ -2468,8 +2556,8 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="0" y="1526315"/>
-          <a:ext cx="2391276" cy="1982895"/>
+          <a:off x="-16572" y="1542723"/>
+          <a:ext cx="2378105" cy="1982895"/>
         </xdr:xfrm>
         <a:graphic>
           <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2489,7 +2577,7 @@
           <xdr:cNvGraphicFramePr/>
         </xdr:nvGraphicFramePr>
         <xdr:xfrm>
-          <a:off x="2817396" y="1524000"/>
+          <a:off x="2792536" y="1540408"/>
           <a:ext cx="2391275" cy="1985211"/>
         </xdr:xfrm>
         <a:graphic>
@@ -2801,10 +2889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2814,8 +2902,7 @@
     <col min="3" max="4" width="15.625" style="13" customWidth="1"/>
     <col min="5" max="7" width="15.625" style="14" customWidth="1"/>
     <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="34.625" style="10" customWidth="1"/>
-    <col min="10" max="11" width="25.625" style="10" customWidth="1"/>
+    <col min="9" max="11" width="35.625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="17" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -4177,7 +4264,7 @@
       </c>
       <c r="B48" s="11" t="str">
         <f>IF($G48=_xlfn.MAXIFS($G:$G, $A:$A, $A48), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C48" s="15">
         <v>44655</v>
@@ -4199,13 +4286,13 @@
         <v>65</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>94</v>
       </c>
@@ -4233,46 +4320,49 @@
         <v>80</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="J49" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B50" s="11" t="str">
         <f>IF($G50=_xlfn.MAXIFS($G:$G, $A:$A, $A50), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C50" s="15">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="E50" s="14">
-        <v>0.6555333333333333</v>
+        <v>0.8017333333333333</v>
       </c>
       <c r="F50" s="14">
-        <v>0.13203333333333334</v>
+        <v>0.77883333333333338</v>
       </c>
       <c r="G50" s="2">
         <f>SQRT($E50*$F50)</f>
-        <v>0.29419763954034556</v>
+        <v>0.7902003824628564</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>73</v>
+        <v>102</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="11">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B51" s="11" t="str">
         <f>IF($G51=_xlfn.MAXIFS($G:$G, $A:$A, $A51), "latest", "")</f>
@@ -4282,127 +4372,124 @@
         <v>44656</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E51" s="14">
-        <v>0.70343333333333335</v>
+        <v>0.6555333333333333</v>
       </c>
       <c r="F51" s="14">
-        <v>0.79</v>
+        <v>0.13203333333333334</v>
       </c>
       <c r="G51" s="2">
         <f>SQRT($E51*$F51)</f>
-        <v>0.74546115481179387</v>
+        <v>0.29419763954034556</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="B52" s="11" t="str">
         <f>IF($G52=_xlfn.MAXIFS($G:$G, $A:$A, $A52), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C52" s="15">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E52" s="14">
-        <v>0.88626666666666665</v>
+        <v>0.4398333333333333</v>
       </c>
       <c r="F52" s="14">
-        <v>0.60226666666666662</v>
+        <v>0.53990000000000005</v>
       </c>
       <c r="G52" s="2">
         <f>SQRT($E52*$F52)</f>
-        <v>0.73059487481853513</v>
+        <v>0.48730484982879729</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>70</v>
+        <v>105</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="B53" s="11" t="str">
         <f>IF($G53=_xlfn.MAXIFS($G:$G, $A:$A, $A53), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C53" s="15">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="E53" s="14">
-        <v>0.75149999999999995</v>
+        <v>0.62333333333333341</v>
       </c>
       <c r="F53" s="14">
-        <v>0.39666666666666667</v>
+        <v>0.39656666666666668</v>
       </c>
       <c r="G53" s="2">
         <f>SQRT($E53*$F53)</f>
-        <v>0.54598076889209202</v>
+        <v>0.49718529968435538</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B54" s="11" t="str">
         <f>IF($G54=_xlfn.MAXIFS($G:$G, $A:$A, $A54), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C54" s="15">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E54" s="14">
-        <v>0.44853333333333334</v>
+        <v>0.70343333333333335</v>
       </c>
       <c r="F54" s="14">
-        <v>0.31046666666666667</v>
+        <v>0.79</v>
       </c>
       <c r="G54" s="2">
         <f>SQRT($E54*$F54)</f>
-        <v>0.37316839213535874</v>
+        <v>0.74546115481179387</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B55" s="11" t="str">
         <f>IF($G55=_xlfn.MAXIFS($G:$G, $A:$A, $A55), "latest", "")</f>
@@ -4412,278 +4499,314 @@
         <v>44656</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="14">
-        <v>0.74260000000000004</v>
+        <v>0.88626666666666665</v>
       </c>
       <c r="F55" s="14">
-        <v>0.33093333333333336</v>
+        <v>0.60226666666666662</v>
       </c>
       <c r="G55" s="2">
         <f>SQRT($E55*$F55)</f>
-        <v>0.49573288506345164</v>
+        <v>0.73059487481853513</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>70</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B56" s="11" t="str">
         <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C56" s="15">
         <v>44656</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E56" s="14">
-        <v>0.85926666666666662</v>
+        <v>0.75149999999999995</v>
       </c>
       <c r="F56" s="14">
-        <v>0.31310000000000004</v>
+        <v>0.39666666666666667</v>
       </c>
       <c r="G56" s="2">
         <f>SQRT($E56*$F56)</f>
-        <v>0.51868718254197621</v>
+        <v>0.54598076889209202</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B57" s="11" t="str">
         <f>IF($G57=_xlfn.MAXIFS($G:$G, $A:$A, $A57), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C57" s="1">
-        <v>44645</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="2">
-        <v>0.84789999999999999</v>
-      </c>
-      <c r="F57" s="2">
-        <v>0.32800000000000001</v>
+        <v/>
+      </c>
+      <c r="C57" s="15">
+        <v>44657</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0.44853333333333334</v>
+      </c>
+      <c r="F57" s="14">
+        <v>0.31046666666666667</v>
       </c>
       <c r="G57" s="2">
         <f>SQRT($E57*$F57)</f>
-        <v>0.52736249392614187</v>
+        <v>0.37316839213535874</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="B58" s="11" t="str">
         <f>IF($G58=_xlfn.MAXIFS($G:$G, $A:$A, $A58), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C58" s="1">
-        <v>44651</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="2">
-        <v>0.6990666666666665</v>
-      </c>
-      <c r="F58" s="2">
-        <v>0.32386666666666664</v>
+      <c r="C58" s="15">
+        <v>44657</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="14">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="F58" s="14">
+        <v>0.6579666666666667</v>
       </c>
       <c r="G58" s="2">
         <f>SQRT($E58*$F58)</f>
-        <v>0.47581970441661098</v>
+        <v>0.72587857570441261</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
-        <v>404</v>
+        <v>145</v>
       </c>
       <c r="B59" s="11" t="str">
         <f>IF($G59=_xlfn.MAXIFS($G:$G, $A:$A, $A59), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C59" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="2">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="F59" s="2">
-        <v>0.14369999999999999</v>
+      <c r="C59" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="14">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="F59" s="14">
+        <v>0.33093333333333336</v>
       </c>
       <c r="G59" s="2">
         <f>SQRT($E59*$F59)</f>
-        <v>0.32600693244162771</v>
+        <v>0.49573288506345164</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
-        <v>440</v>
+        <v>150</v>
       </c>
       <c r="B60" s="11" t="str">
         <f>IF($G60=_xlfn.MAXIFS($G:$G, $A:$A, $A60), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C60" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="2">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="F60" s="2">
-        <v>5.2600000000000001E-2</v>
+        <v>latest</v>
+      </c>
+      <c r="C60" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60" s="14">
+        <v>0.85926666666666662</v>
+      </c>
+      <c r="F60" s="14">
+        <v>0.31310000000000004</v>
       </c>
       <c r="G60" s="2">
         <f>SQRT($E60*$F60)</f>
-        <v>0.17093653793147912</v>
+        <v>0.51868718254197621</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="B61" s="11" t="str">
         <f>IF($G61=_xlfn.MAXIFS($G:$G, $A:$A, $A61), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C61" s="1">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2">
-        <v>0.68120000000000003</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="F61" s="2">
-        <v>0.13519999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G61" s="2">
         <f>SQRT($E61*$F61)</f>
-        <v>0.30347691839742935</v>
+        <v>0.52736249392614187</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
-        <v>440</v>
+        <v>300</v>
       </c>
       <c r="B62" s="11" t="str">
         <f>IF($G62=_xlfn.MAXIFS($G:$G, $A:$A, $A62), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C62" s="1">
-        <v>44643</v>
+        <v>44651</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E62" s="2">
-        <v>0.87919999999999998</v>
+        <v>0.6990666666666665</v>
       </c>
       <c r="F62" s="2">
-        <v>0.1739</v>
+        <v>0.32386666666666664</v>
       </c>
       <c r="G62" s="2">
         <f>SQRT($E62*$F62)</f>
-        <v>0.39101519152073877</v>
+        <v>0.47581970441661098</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
-        <v>653</v>
+        <v>310</v>
       </c>
       <c r="B63" s="11" t="str">
         <f>IF($G63=_xlfn.MAXIFS($G:$G, $A:$A, $A63), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C63" s="1">
-        <v>44642</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="2">
-        <v>0.88719999999999999</v>
-      </c>
-      <c r="F63" s="2">
-        <v>0.4602</v>
+      <c r="C63" s="15">
+        <v>44657</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="14">
+        <v>0.22640000000000002</v>
+      </c>
+      <c r="F63" s="14">
+        <v>0.72326666666666672</v>
       </c>
       <c r="G63" s="2">
         <f>SQRT($E63*$F63)</f>
-        <v>0.63897530468712171</v>
+        <v>0.4046573529955107</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
-        <v>661</v>
+        <v>404</v>
       </c>
       <c r="B64" s="11" t="str">
         <f>IF($G64=_xlfn.MAXIFS($G:$G, $A:$A, $A64), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C64" s="1">
-        <v>44644</v>
+        <v>44643</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="2">
-        <v>0.16830000000000001</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="F64" s="2">
-        <v>6.4000000000000001E-2</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="G64" s="2">
         <f>SQRT($E64*$F64)</f>
-        <v>0.10378439189011034</v>
+        <v>0.32600693244162771</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>6</v>
@@ -4691,346 +4814,486 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
-        <v>682</v>
+        <v>440</v>
       </c>
       <c r="B65" s="11" t="str">
         <f>IF($G65=_xlfn.MAXIFS($G:$G, $A:$A, $A65), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C65" s="1">
-        <v>44646</v>
+        <v>44643</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E65" s="2">
-        <v>0.91139999999999999</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="F65" s="2">
-        <v>0.9819</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="G65" s="2">
         <f>SQRT($E65*$F65)</f>
-        <v>0.94599347777878473</v>
+        <v>0.17093653793147912</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
-        <v>693</v>
+        <v>440</v>
       </c>
       <c r="B66" s="11" t="str">
         <f>IF($G66=_xlfn.MAXIFS($G:$G, $A:$A, $A66), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C66" s="1">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E66" s="2">
-        <v>1</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="F66" s="2">
-        <v>0.42049999999999998</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="G66" s="2">
         <f>SQRT($E66*$F66)</f>
-        <v>0.64845971347493903</v>
+        <v>0.30347691839742935</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
-        <v>728</v>
+        <v>440</v>
       </c>
       <c r="B67" s="11" t="str">
         <f>IF($G67=_xlfn.MAXIFS($G:$G, $A:$A, $A67), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C67" s="1">
-        <v>44651</v>
+        <v>44643</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E67" s="2">
-        <v>1</v>
+        <v>0.87919999999999998</v>
       </c>
       <c r="F67" s="2">
-        <v>0.60399999999999998</v>
+        <v>0.1739</v>
       </c>
       <c r="G67" s="2">
         <f>SQRT($E67*$F67)</f>
-        <v>0.77717436910901794</v>
+        <v>0.39101519152073877</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
-        <v>744</v>
+        <v>653</v>
       </c>
       <c r="B68" s="11" t="str">
         <f>IF($G68=_xlfn.MAXIFS($G:$G, $A:$A, $A68), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C68" s="15">
-        <v>44654</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E68" s="14">
-        <v>0.69553333333333345</v>
-      </c>
-      <c r="F68" s="14">
-        <v>0.58150000000000002</v>
+      <c r="C68" s="1">
+        <v>44642</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0.4602</v>
       </c>
       <c r="G68" s="2">
         <f>SQRT($E68*$F68)</f>
-        <v>0.63596590579474732</v>
+        <v>0.63897530468712171</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
-        <v>762</v>
+        <v>661</v>
       </c>
       <c r="B69" s="11" t="str">
         <f>IF($G69=_xlfn.MAXIFS($G:$G, $A:$A, $A69), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C69" s="15">
-        <v>44656</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="14">
-        <v>0.94619999999999993</v>
-      </c>
-      <c r="F69" s="14">
-        <v>0.87099999999999977</v>
+      <c r="C69" s="1">
+        <v>44644</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="F69" s="2">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G69" s="2">
         <f>SQRT($E69*$F69)</f>
-        <v>0.90782167852502826</v>
+        <v>0.10378439189011034</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>68</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
-        <v>954</v>
+        <v>682</v>
       </c>
       <c r="B70" s="11" t="str">
         <f>IF($G70=_xlfn.MAXIFS($G:$G, $A:$A, $A70), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C70" s="1">
-        <v>44652</v>
+        <v>44646</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E70" s="2">
-        <v>0.98939999999999995</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="F70" s="2">
-        <v>0.38096666666666662</v>
+        <v>0.9819</v>
       </c>
       <c r="G70" s="2">
         <f>SQRT($E70*$F70)</f>
-        <v>0.61394496496021522</v>
+        <v>0.94599347777878473</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
-        <v>1606</v>
+        <v>693</v>
       </c>
       <c r="B71" s="11" t="str">
         <f>IF($G71=_xlfn.MAXIFS($G:$G, $A:$A, $A71), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C71" s="1">
-        <v>44650</v>
+        <v>44648</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E71" s="2">
-        <v>5.6600000000000004E-2</v>
+        <v>1</v>
       </c>
       <c r="F71" s="2">
-        <v>1</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="G71" s="2">
         <f>SQRT($E71*$F71)</f>
-        <v>0.23790754506740638</v>
+        <v>0.64845971347493903</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
-        <v>2024</v>
+        <v>728</v>
       </c>
       <c r="B72" s="11" t="str">
         <f>IF($G72=_xlfn.MAXIFS($G:$G, $A:$A, $A72), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C72" s="1">
-        <v>44649</v>
+        <v>44651</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E72" s="2">
-        <v>0.87609999999999999</v>
+        <v>1</v>
       </c>
       <c r="F72" s="2">
-        <v>0.49359999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="G72" s="2">
         <f>SQRT($E72*$F72)</f>
-        <v>0.65760395375940373</v>
+        <v>0.77717436910901794</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
-        <v>2028</v>
+        <v>744</v>
       </c>
       <c r="B73" s="11" t="str">
         <f>IF($G73=_xlfn.MAXIFS($G:$G, $A:$A, $A73), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C73" s="1">
-        <v>44647</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E73" s="2">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="F73" s="2">
-        <v>0.12820000000000001</v>
+        <v>latest</v>
+      </c>
+      <c r="C73" s="15">
+        <v>44654</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" s="14">
+        <v>0.69553333333333345</v>
+      </c>
+      <c r="F73" s="14">
+        <v>0.58150000000000002</v>
       </c>
       <c r="G73" s="2">
         <f>SQRT($E73*$F73)</f>
-        <v>0.13444775937143766</v>
+        <v>0.63596590579474732</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
-        <v>2028</v>
+        <v>762</v>
       </c>
       <c r="B74" s="11" t="str">
         <f>IF($G74=_xlfn.MAXIFS($G:$G, $A:$A, $A74), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C74" s="1">
-        <v>44647</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74" s="2">
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="F74" s="2">
-        <v>6.8400000000000002E-2</v>
+        <v>latest</v>
+      </c>
+      <c r="C74" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="14">
+        <v>0.94619999999999993</v>
+      </c>
+      <c r="F74" s="14">
+        <v>0.87099999999999977</v>
       </c>
       <c r="G74" s="2">
         <f>SQRT($E74*$F74)</f>
-        <v>9.3642298134977445E-2</v>
+        <v>0.90782167852502826</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
-        <v>2028</v>
+        <v>954</v>
       </c>
       <c r="B75" s="11" t="str">
         <f>IF($G75=_xlfn.MAXIFS($G:$G, $A:$A, $A75), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C75" s="1">
-        <v>44647</v>
+        <v>44652</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E75" s="2">
-        <v>0.9677</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="F75" s="2">
-        <v>0.90539999999999998</v>
+        <v>0.38096666666666662</v>
       </c>
       <c r="G75" s="2">
         <f>SQRT($E75*$F75)</f>
-        <v>0.9360318263819879</v>
+        <v>0.61394496496021522</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
-        <v>2038</v>
+        <v>1606</v>
       </c>
       <c r="B76" s="11" t="str">
         <f>IF($G76=_xlfn.MAXIFS($G:$G, $A:$A, $A76), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C76" s="1">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E76" s="2">
-        <v>0.79410000000000003</v>
+        <v>5.6600000000000004E-2</v>
       </c>
       <c r="F76" s="2">
-        <v>0.76470000000000005</v>
+        <v>1</v>
       </c>
       <c r="G76" s="2">
         <f>SQRT($E76*$F76)</f>
+        <v>0.23790754506740638</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B77" s="11" t="str">
+        <f>IF($G77=_xlfn.MAXIFS($G:$G, $A:$A, $A77), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44649</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="G77" s="2">
+        <f>SQRT($E77*$F77)</f>
+        <v>0.65760395375940373</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B78" s="11" t="str">
+        <f>IF($G78=_xlfn.MAXIFS($G:$G, $A:$A, $A78), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C78" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="G78" s="2">
+        <f>SQRT($E78*$F78)</f>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B79" s="11" t="str">
+        <f>IF($G79=_xlfn.MAXIFS($G:$G, $A:$A, $A79), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C79" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="F79" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G79" s="2">
+        <f>SQRT($E79*$F79)</f>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B80" s="11" t="str">
+        <f>IF($G80=_xlfn.MAXIFS($G:$G, $A:$A, $A80), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0.9677</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="G80" s="2">
+        <f>SQRT($E80*$F80)</f>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>2038</v>
+      </c>
+      <c r="B81" s="11" t="str">
+        <f>IF($G81=_xlfn.MAXIFS($G:$G, $A:$A, $A81), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C81" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="G81" s="2">
+        <f>SQRT($E81*$F81)</f>
         <v>0.77926136180359928</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H81" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K76">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:K81">
+    <sortCondition ref="A46"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
@@ -5128,7 +5391,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5158,7 +5421,7 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTIFS(record!$H:$H,$A2, record!$B:$B, "=latest")</f>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
@@ -5174,14 +5437,14 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIFS(record!$H:$H,$A3, record!$B:$B, "=latest")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="9">
         <f>COUNTIFS(record!$D:$D,$D3, record!$B:$B, "=latest")</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5190,14 +5453,14 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIFS(record!$H:$H,$A4, record!$B:$B, "=latest")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="9">
         <f>COUNTIFS(record!$D:$D,$D4, record!$B:$B, "=latest")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -5267,10 +5530,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC083FF-3AF3-4ABC-A3DB-7E4234390599}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -5279,10 +5542,10 @@
     <col min="2" max="2" width="15.625" style="19" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="20" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="15.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
@@ -5298,8 +5561,11 @@
       <c r="E1" s="16" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44642</v>
       </c>
@@ -5319,8 +5585,12 @@
         <f>SUM($B2:$D2)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="18">
+        <f>ROUND(SUMPRODUCT(--ISNUMBER(E1:E3), E1:E3)/COUNT(E1:E3), 0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44643</v>
       </c>
@@ -5337,11 +5607,15 @@
         <v>2</v>
       </c>
       <c r="E3" s="18">
-        <f t="shared" ref="E3:E16" si="0">SUM($B3:$D3)</f>
+        <f t="shared" ref="E3:E17" si="0">SUM($B3:$D3)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="18">
+        <f t="shared" ref="F3:F17" si="1">ROUND(SUMPRODUCT(--ISNUMBER(E2:E4), E2:E4)/COUNT(E2:E4), 0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44644</v>
       </c>
@@ -5361,8 +5635,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44645</v>
       </c>
@@ -5382,8 +5660,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44646</v>
       </c>
@@ -5403,8 +5685,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44647</v>
       </c>
@@ -5424,8 +5710,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44648</v>
       </c>
@@ -5445,8 +5735,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44649</v>
       </c>
@@ -5466,8 +5760,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="18">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44650</v>
       </c>
@@ -5487,8 +5785,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44651</v>
       </c>
@@ -5508,8 +5810,12 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44652</v>
       </c>
@@ -5529,8 +5835,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44653</v>
       </c>
@@ -5550,8 +5860,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44654</v>
       </c>
@@ -5571,8 +5885,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44655</v>
       </c>
@@ -5586,14 +5904,18 @@
       </c>
       <c r="D15" s="21">
         <f>COUNTIFS(record!$C:$C,$A15, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44656</v>
       </c>
@@ -5607,17 +5929,46 @@
       </c>
       <c r="D16" s="21">
         <f>COUNTIFS(record!$C:$C,$A16, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F16" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B17" s="19">
+        <f>COUNTIFS(record!$C:$C,$A17, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="20">
+        <f>COUNTIFS(record!$C:$C,$A17, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="21">
+        <f>COUNTIFS(record!$C:$C,$A17, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5629,6 +5980,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5667,36 +6042,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>35.33</v>
+        <v>84.76</v>
       </c>
       <c r="B2" s="6">
-        <v>31.12</v>
+        <v>52.66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>35.33</v>
+        <v>65.39</v>
       </c>
       <c r="B3" s="6">
-        <v>19.66</v>
+        <v>52.66</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>63.9</v>
+        <v>36.85</v>
       </c>
       <c r="B4" s="6">
-        <v>42.36</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>0.44853333333333334</v>
+        <v>0.62333333333333341</v>
       </c>
       <c r="B5" s="5">
-        <f>IF(ISBLANK(#REF!)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.31046666666666667</v>
+        <f>IF(ISBLANK(B2)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
+        <v>0.39656666666666668</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01A25F7-DF2C-4D18-A73F-C4F5374F8BE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA34F8-3E17-4545-9B60-6D98CA9D2599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="129">
   <si>
     <t>time submitted</t>
   </si>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>String Matching</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dynamic Programming</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -468,6 +464,74 @@
   </si>
   <si>
     <t>average (3 days)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth First Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knuth Morris Pratt Algotihm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth First Search</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breadth First Search</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -971,13 +1035,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,13 +1345,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2889,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -2931,10 +2995,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>82</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>30</v>
@@ -2946,26 +3010,26 @@
       </c>
       <c r="B2" s="11" t="str">
         <f>IF($G2=_xlfn.MAXIFS($G:$G, $A:$A, $A2), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C2" s="1">
-        <v>44642</v>
+        <v>44652</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
-        <v>0.87370000000000003</v>
+        <v>0.67906666666666671</v>
       </c>
       <c r="F2" s="2">
-        <v>0.2011</v>
+        <v>9.9600000000000008E-2</v>
       </c>
       <c r="G2" s="2">
         <f>SQRT($E2*$F2)</f>
-        <v>0.41916711464522122</v>
+        <v>0.26006737588555778</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2974,26 +3038,26 @@
       </c>
       <c r="B3" s="11" t="str">
         <f>IF($G3=_xlfn.MAXIFS($G:$G, $A:$A, $A3), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C3" s="1">
-        <v>44652</v>
+        <v>44642</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2">
-        <v>0.67906666666666671</v>
+        <v>0.87370000000000003</v>
       </c>
       <c r="F3" s="2">
-        <v>9.9600000000000008E-2</v>
+        <v>0.2011</v>
       </c>
       <c r="G3" s="2">
         <f>SQRT($E3*$F3)</f>
-        <v>0.26006737588555778</v>
+        <v>0.41916711464522122</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3064,7 +3128,7 @@
         <v>44652</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="14">
         <v>0.93163333333333342</v>
@@ -3077,7 +3141,7 @@
         <v>0.95199417365163896</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3114,29 +3178,29 @@
       </c>
       <c r="B8" s="11" t="str">
         <f>IF($G8=_xlfn.MAXIFS($G:$G, $A:$A, $A8), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44642</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.9355</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.52410000000000001</v>
+        <v/>
+      </c>
+      <c r="C8" s="15">
+        <v>44652</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.71633333333333338</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.65930000000000011</v>
       </c>
       <c r="G8" s="2">
         <f>SQRT($E8*$F8)</f>
-        <v>0.70021107531943538</v>
+        <v>0.68722526631859715</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3145,29 +3209,29 @@
       </c>
       <c r="B9" s="11" t="str">
         <f>IF($G9=_xlfn.MAXIFS($G:$G, $A:$A, $A9), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C9" s="15">
-        <v>44652</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0.71633333333333338</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0.65930000000000011</v>
+        <v>latest</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44642</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.9355</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.52410000000000001</v>
       </c>
       <c r="G9" s="2">
         <f>SQRT($E9*$F9)</f>
-        <v>0.68722526631859715</v>
+        <v>0.70021107531943538</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3344,7 +3408,7 @@
       </c>
       <c r="B16" s="11" t="str">
         <f>IF($G16=_xlfn.MAXIFS($G:$G, $A:$A, $A16), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C16" s="1">
         <v>44643</v>
@@ -3353,14 +3417,14 @@
         <v>8</v>
       </c>
       <c r="E16" s="2">
-        <v>0.83530000000000004</v>
+        <v>0.80010000000000003</v>
       </c>
       <c r="F16" s="2">
-        <v>0.1835</v>
+        <v>0.18920000000000001</v>
       </c>
       <c r="G16" s="2">
         <f>SQRT($E16*$F16)</f>
-        <v>0.39150676877928947</v>
+        <v>0.38907444017822607</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>6</v>
@@ -3372,7 +3436,7 @@
       </c>
       <c r="B17" s="11" t="str">
         <f>IF($G17=_xlfn.MAXIFS($G:$G, $A:$A, $A17), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C17" s="1">
         <v>44643</v>
@@ -3381,14 +3445,14 @@
         <v>8</v>
       </c>
       <c r="E17" s="2">
-        <v>0.80010000000000003</v>
+        <v>0.83530000000000004</v>
       </c>
       <c r="F17" s="2">
-        <v>0.18920000000000001</v>
+        <v>0.1835</v>
       </c>
       <c r="G17" s="2">
         <f>SQRT($E17*$F17)</f>
-        <v>0.38907444017822607</v>
+        <v>0.39150676877928947</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>6</v>
@@ -3596,7 +3660,7 @@
       </c>
       <c r="B25" s="11" t="str">
         <f>IF($G25=_xlfn.MAXIFS($G:$G, $A:$A, $A25), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C25" s="1">
         <v>44647</v>
@@ -3605,14 +3669,14 @@
         <v>7</v>
       </c>
       <c r="E25" s="2">
-        <v>0.79110000000000003</v>
+        <v>0.65029999999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>0.53749999999999998</v>
+        <v>0.55859999999999999</v>
       </c>
       <c r="G25" s="2">
         <f>SQRT($E25*$F25)</f>
-        <v>0.65208607560658738</v>
+        <v>0.60270853652491096</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>6</v>
@@ -3624,7 +3688,7 @@
       </c>
       <c r="B26" s="11" t="str">
         <f>IF($G26=_xlfn.MAXIFS($G:$G, $A:$A, $A26), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C26" s="1">
         <v>44647</v>
@@ -3633,14 +3697,14 @@
         <v>7</v>
       </c>
       <c r="E26" s="2">
-        <v>0.65029999999999999</v>
+        <v>0.79110000000000003</v>
       </c>
       <c r="F26" s="2">
-        <v>0.55859999999999999</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="G26" s="2">
         <f>SQRT($E26*$F26)</f>
-        <v>0.60270853652491096</v>
+        <v>0.65208607560658738</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>6</v>
@@ -3814,7 +3878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>22</v>
       </c>
@@ -3842,7 +3906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>23</v>
       </c>
@@ -3870,7 +3934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>24</v>
       </c>
@@ -3898,7 +3962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>25</v>
       </c>
@@ -3926,7 +3990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>25</v>
       </c>
@@ -3954,7 +4018,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>26</v>
       </c>
@@ -3982,7 +4046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>27</v>
       </c>
@@ -4010,7 +4074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>28</v>
       </c>
@@ -4037,17 +4101,17 @@
       <c r="H40" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I40" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>32</v>
       </c>
       <c r="B41" s="11" t="str">
         <f>IF($G41=_xlfn.MAXIFS($G:$G, $A:$A, $A41), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C41" s="15">
         <v>44655</v>
@@ -4056,54 +4120,54 @@
         <v>53</v>
       </c>
       <c r="E41" s="14">
-        <v>0.69489999999999996</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="F41" s="14">
-        <v>0.80713333333333326</v>
+        <v>0.81103333333333338</v>
       </c>
       <c r="G41" s="2">
         <f>SQRT($E41*$F41)</f>
-        <v>0.7489171872332302</v>
+        <v>0.8535521327565958</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>32</v>
       </c>
       <c r="B42" s="11" t="str">
         <f>IF($G42=_xlfn.MAXIFS($G:$G, $A:$A, $A42), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C42" s="15">
         <v>44655</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E42" s="14">
-        <v>0.89829999999999999</v>
+        <v>0.69489999999999996</v>
       </c>
       <c r="F42" s="14">
-        <v>0.81103333333333338</v>
+        <v>0.80713333333333326</v>
       </c>
       <c r="G42" s="2">
         <f>SQRT($E42*$F42)</f>
-        <v>0.8535521327565958</v>
+        <v>0.7489171872332302</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -4115,7 +4179,7 @@
         <v>44655</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E43" s="14">
         <v>0.40590000000000004</v>
@@ -4128,13 +4192,13 @@
         <v>0.42345376370980581</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>70</v>
       </c>
@@ -4162,10 +4226,10 @@
         <v>36</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>71</v>
       </c>
@@ -4177,7 +4241,7 @@
         <v>44655</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="14">
         <v>0.70296666666666663</v>
@@ -4190,13 +4254,13 @@
         <v>0.39861497574588051</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>84</v>
       </c>
@@ -4208,7 +4272,7 @@
         <v>44655</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="14">
         <v>0.67343333333333333</v>
@@ -4224,10 +4288,10 @@
         <v>16</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>85</v>
       </c>
@@ -4239,7 +4303,7 @@
         <v>44655</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="14">
         <v>0.60530000000000006</v>
@@ -4252,13 +4316,13 @@
         <v>0.62869778113176134</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>94</v>
       </c>
@@ -4270,7 +4334,7 @@
         <v>44655</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" s="14">
         <v>0.60346666666666671</v>
@@ -4283,13 +4347,13 @@
         <v>0.62406511768493456</v>
       </c>
       <c r="H48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
@@ -4298,32 +4362,32 @@
       </c>
       <c r="B49" s="11" t="str">
         <f>IF($G49=_xlfn.MAXIFS($G:$G, $A:$A, $A49), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C49" s="15">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="E49" s="14">
-        <v>0.27210000000000001</v>
+        <v>0.8017333333333333</v>
       </c>
       <c r="F49" s="14">
-        <v>0.74219999999999997</v>
-      </c>
-      <c r="G49" s="14">
+        <v>0.77883333333333338</v>
+      </c>
+      <c r="G49" s="2">
         <f>SQRT($E49*$F49)</f>
-        <v>0.44939138843551507</v>
+        <v>0.7902003824628564</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
@@ -4332,32 +4396,32 @@
       </c>
       <c r="B50" s="11" t="str">
         <f>IF($G50=_xlfn.MAXIFS($G:$G, $A:$A, $A50), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C50" s="15">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="E50" s="14">
-        <v>0.8017333333333333</v>
+        <v>0.27210000000000001</v>
       </c>
       <c r="F50" s="14">
-        <v>0.77883333333333338</v>
-      </c>
-      <c r="G50" s="2">
+        <v>0.74219999999999997</v>
+      </c>
+      <c r="G50" s="14">
         <f>SQRT($E50*$F50)</f>
-        <v>0.7902003824628564</v>
+        <v>0.44939138843551507</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -4372,7 +4436,7 @@
         <v>44656</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E51" s="14">
         <v>0.6555333333333333</v>
@@ -4385,10 +4449,10 @@
         <v>0.29419763954034556</v>
       </c>
       <c r="H51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J51" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
@@ -4403,7 +4467,7 @@
         <v>44657</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E52" s="14">
         <v>0.4398333333333333</v>
@@ -4416,13 +4480,13 @@
         <v>0.48730484982879729</v>
       </c>
       <c r="H52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="I52" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I52" s="10" t="s">
+      <c r="J52" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
@@ -4437,7 +4501,7 @@
         <v>44657</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E53" s="14">
         <v>0.62333333333333341</v>
@@ -4450,179 +4514,185 @@
         <v>0.49718529968435538</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="11">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B54" s="11" t="str">
         <f>IF($G54=_xlfn.MAXIFS($G:$G, $A:$A, $A54), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C54" s="15">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="E54" s="14">
-        <v>0.70343333333333335</v>
+        <v>0.68110000000000004</v>
       </c>
       <c r="F54" s="14">
-        <v>0.79</v>
+        <v>0.44840000000000002</v>
       </c>
       <c r="G54" s="2">
         <f>SQRT($E54*$F54)</f>
-        <v>0.74546115481179387</v>
+        <v>0.55263481613086962</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="11">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="B55" s="11" t="str">
         <f>IF($G55=_xlfn.MAXIFS($G:$G, $A:$A, $A55), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C55" s="15">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E55" s="14">
-        <v>0.88626666666666665</v>
+        <v>0.55743333333333345</v>
       </c>
       <c r="F55" s="14">
-        <v>0.60226666666666662</v>
+        <v>0.2723666666666667</v>
       </c>
       <c r="G55" s="2">
         <f>SQRT($E55*$F55)</f>
-        <v>0.73059487481853513</v>
+        <v>0.38964889181016404</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>70</v>
+        <v>115</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="11">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B56" s="11" t="str">
         <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C56" s="15">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="E56" s="14">
-        <v>0.75149999999999995</v>
+        <v>0.47223333333333334</v>
       </c>
       <c r="F56" s="14">
-        <v>0.39666666666666667</v>
+        <v>0.5561666666666667</v>
       </c>
       <c r="G56" s="2">
         <f>SQRT($E56*$F56)</f>
-        <v>0.54598076889209202</v>
+        <v>0.51248457429359651</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B57" s="11" t="str">
         <f>IF($G57=_xlfn.MAXIFS($G:$G, $A:$A, $A57), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C57" s="15">
         <v>44657</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E57" s="14">
-        <v>0.44853333333333334</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="F57" s="14">
-        <v>0.31046666666666667</v>
+        <v>0.28166666666666668</v>
       </c>
       <c r="G57" s="2">
         <f>SQRT($E57*$F57)</f>
-        <v>0.37316839213535874</v>
+        <v>0.50222753807412823</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="B58" s="11" t="str">
         <f>IF($G58=_xlfn.MAXIFS($G:$G, $A:$A, $A58), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C58" s="15">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="E58" s="14">
-        <v>0.80079999999999996</v>
+        <v>0.30386666666666667</v>
       </c>
       <c r="F58" s="14">
-        <v>0.6579666666666667</v>
+        <v>0.29183333333333333</v>
       </c>
       <c r="G58" s="2">
         <f>SQRT($E58*$F58)</f>
-        <v>0.72587857570441261</v>
+        <v>0.29778922448977602</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>89</v>
+        <v>126</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="B59" s="11" t="str">
         <f>IF($G59=_xlfn.MAXIFS($G:$G, $A:$A, $A59), "latest", "")</f>
@@ -4632,668 +4702,863 @@
         <v>44656</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E59" s="14">
-        <v>0.74260000000000004</v>
+        <v>0.70343333333333335</v>
       </c>
       <c r="F59" s="14">
-        <v>0.33093333333333336</v>
+        <v>0.79</v>
       </c>
       <c r="G59" s="2">
         <f>SQRT($E59*$F59)</f>
-        <v>0.49573288506345164</v>
+        <v>0.74546115481179387</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I59" s="10" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="11">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B60" s="11" t="str">
         <f>IF($G60=_xlfn.MAXIFS($G:$G, $A:$A, $A60), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C60" s="15">
-        <v>44656</v>
+        <v>44658</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="E60" s="14">
-        <v>0.85926666666666662</v>
+        <v>0.80579999999999996</v>
       </c>
       <c r="F60" s="14">
-        <v>0.31310000000000004</v>
+        <v>0.26476666666666665</v>
       </c>
       <c r="G60" s="2">
         <f>SQRT($E60*$F60)</f>
-        <v>0.51868718254197621</v>
+        <v>0.46189715305465995</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="11">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B61" s="11" t="str">
         <f>IF($G61=_xlfn.MAXIFS($G:$G, $A:$A, $A61), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C61" s="1">
-        <v>44645</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="2">
-        <v>0.84789999999999999</v>
-      </c>
-      <c r="F61" s="2">
-        <v>0.32800000000000001</v>
+      <c r="C61" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="14">
+        <v>0.88626666666666665</v>
+      </c>
+      <c r="F61" s="14">
+        <v>0.60226666666666662</v>
       </c>
       <c r="G61" s="2">
         <f>SQRT($E61*$F61)</f>
-        <v>0.52736249392614187</v>
+        <v>0.73059487481853513</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="B62" s="11" t="str">
         <f>IF($G62=_xlfn.MAXIFS($G:$G, $A:$A, $A62), "latest", "")</f>
-        <v>latest</v>
-      </c>
-      <c r="C62" s="1">
-        <v>44651</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="2">
-        <v>0.6990666666666665</v>
-      </c>
-      <c r="F62" s="2">
-        <v>0.32386666666666664</v>
+        <v/>
+      </c>
+      <c r="C62" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E62" s="14">
+        <v>0.75149999999999995</v>
+      </c>
+      <c r="F62" s="14">
+        <v>0.39666666666666667</v>
       </c>
       <c r="G62" s="2">
         <f>SQRT($E62*$F62)</f>
-        <v>0.47581970441661098</v>
+        <v>0.54598076889209202</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>42</v>
+        <v>96</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="B63" s="11" t="str">
         <f>IF($G63=_xlfn.MAXIFS($G:$G, $A:$A, $A63), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C63" s="15">
         <v>44657</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E63" s="14">
-        <v>0.22640000000000002</v>
+        <v>0.44853333333333334</v>
       </c>
       <c r="F63" s="14">
-        <v>0.72326666666666672</v>
+        <v>0.31046666666666667</v>
       </c>
       <c r="G63" s="2">
         <f>SQRT($E63*$F63)</f>
-        <v>0.4046573529955107</v>
+        <v>0.37316839213535874</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K63" s="10" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
-        <v>404</v>
+        <v>144</v>
       </c>
       <c r="B64" s="11" t="str">
         <f>IF($G64=_xlfn.MAXIFS($G:$G, $A:$A, $A64), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C64" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="F64" s="2">
-        <v>0.14369999999999999</v>
+      <c r="C64" s="15">
+        <v>44657</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="14">
+        <v>0.80079999999999996</v>
+      </c>
+      <c r="F64" s="14">
+        <v>0.6579666666666667</v>
       </c>
       <c r="G64" s="2">
         <f>SQRT($E64*$F64)</f>
-        <v>0.32600693244162771</v>
+        <v>0.72587857570441261</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
-        <v>440</v>
+        <v>145</v>
       </c>
       <c r="B65" s="11" t="str">
         <f>IF($G65=_xlfn.MAXIFS($G:$G, $A:$A, $A65), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C65" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="F65" s="2">
-        <v>5.2600000000000001E-2</v>
+        <v>latest</v>
+      </c>
+      <c r="C65" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="14">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="F65" s="14">
+        <v>0.33093333333333336</v>
       </c>
       <c r="G65" s="2">
         <f>SQRT($E65*$F65)</f>
-        <v>0.17093653793147912</v>
+        <v>0.49573288506345164</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
-        <v>440</v>
+        <v>150</v>
       </c>
       <c r="B66" s="11" t="str">
         <f>IF($G66=_xlfn.MAXIFS($G:$G, $A:$A, $A66), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C66" s="1">
-        <v>44643</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="2">
-        <v>0.68120000000000003</v>
-      </c>
-      <c r="F66" s="2">
-        <v>0.13519999999999999</v>
+        <v>latest</v>
+      </c>
+      <c r="C66" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E66" s="14">
+        <v>0.85926666666666662</v>
+      </c>
+      <c r="F66" s="14">
+        <v>0.31310000000000004</v>
       </c>
       <c r="G66" s="2">
         <f>SQRT($E66*$F66)</f>
-        <v>0.30347691839742935</v>
+        <v>0.51868718254197621</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
-        <v>440</v>
+        <v>172</v>
       </c>
       <c r="B67" s="11" t="str">
         <f>IF($G67=_xlfn.MAXIFS($G:$G, $A:$A, $A67), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C67" s="1">
-        <v>44643</v>
+        <v>44645</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E67" s="2">
-        <v>0.87919999999999998</v>
+        <v>0.84789999999999999</v>
       </c>
       <c r="F67" s="2">
-        <v>0.1739</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="G67" s="2">
         <f>SQRT($E67*$F67)</f>
-        <v>0.39101519152073877</v>
+        <v>0.52736249392614187</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
-        <v>653</v>
+        <v>300</v>
       </c>
       <c r="B68" s="11" t="str">
         <f>IF($G68=_xlfn.MAXIFS($G:$G, $A:$A, $A68), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C68" s="1">
-        <v>44642</v>
+        <v>44651</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E68" s="2">
-        <v>0.88719999999999999</v>
+        <v>0.6990666666666665</v>
       </c>
       <c r="F68" s="2">
-        <v>0.4602</v>
+        <v>0.32386666666666664</v>
       </c>
       <c r="G68" s="2">
         <f>SQRT($E68*$F68)</f>
-        <v>0.63897530468712171</v>
+        <v>0.47581970441661098</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
-        <v>661</v>
+        <v>310</v>
       </c>
       <c r="B69" s="11" t="str">
         <f>IF($G69=_xlfn.MAXIFS($G:$G, $A:$A, $A69), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C69" s="1">
-        <v>44644</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="2">
-        <v>0.16830000000000001</v>
-      </c>
-      <c r="F69" s="2">
-        <v>6.4000000000000001E-2</v>
+      <c r="C69" s="15">
+        <v>44657</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="14">
+        <v>0.22640000000000002</v>
+      </c>
+      <c r="F69" s="14">
+        <v>0.72326666666666672</v>
       </c>
       <c r="G69" s="2">
         <f>SQRT($E69*$F69)</f>
-        <v>0.10378439189011034</v>
+        <v>0.4046573529955107</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
-        <v>682</v>
+        <v>404</v>
       </c>
       <c r="B70" s="11" t="str">
         <f>IF($G70=_xlfn.MAXIFS($G:$G, $A:$A, $A70), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C70" s="1">
-        <v>44646</v>
+        <v>44643</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E70" s="2">
-        <v>0.91139999999999999</v>
+        <v>0.73960000000000004</v>
       </c>
       <c r="F70" s="2">
-        <v>0.9819</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="G70" s="2">
         <f>SQRT($E70*$F70)</f>
-        <v>0.94599347777878473</v>
+        <v>0.32600693244162771</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
-        <v>693</v>
+        <v>440</v>
       </c>
       <c r="B71" s="11" t="str">
         <f>IF($G71=_xlfn.MAXIFS($G:$G, $A:$A, $A71), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C71" s="1">
-        <v>44648</v>
+        <v>44643</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E71" s="2">
-        <v>1</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="F71" s="2">
-        <v>0.42049999999999998</v>
+        <v>5.2600000000000001E-2</v>
       </c>
       <c r="G71" s="2">
         <f>SQRT($E71*$F71)</f>
-        <v>0.64845971347493903</v>
+        <v>0.17093653793147912</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
-        <v>728</v>
+        <v>440</v>
       </c>
       <c r="B72" s="11" t="str">
         <f>IF($G72=_xlfn.MAXIFS($G:$G, $A:$A, $A72), "latest", "")</f>
-        <v>latest</v>
+        <v/>
       </c>
       <c r="C72" s="1">
-        <v>44651</v>
+        <v>44643</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E72" s="2">
-        <v>1</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="F72" s="2">
-        <v>0.60399999999999998</v>
+        <v>0.13519999999999999</v>
       </c>
       <c r="G72" s="2">
         <f>SQRT($E72*$F72)</f>
-        <v>0.77717436910901794</v>
+        <v>0.30347691839742935</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
-        <v>744</v>
+        <v>440</v>
       </c>
       <c r="B73" s="11" t="str">
         <f>IF($G73=_xlfn.MAXIFS($G:$G, $A:$A, $A73), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C73" s="15">
-        <v>44654</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E73" s="14">
-        <v>0.69553333333333345</v>
-      </c>
-      <c r="F73" s="14">
-        <v>0.58150000000000002</v>
+      <c r="C73" s="1">
+        <v>44643</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0.87919999999999998</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0.1739</v>
       </c>
       <c r="G73" s="2">
         <f>SQRT($E73*$F73)</f>
-        <v>0.63596590579474732</v>
+        <v>0.39101519152073877</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
-        <v>762</v>
+        <v>653</v>
       </c>
       <c r="B74" s="11" t="str">
         <f>IF($G74=_xlfn.MAXIFS($G:$G, $A:$A, $A74), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C74" s="15">
-        <v>44656</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E74" s="14">
-        <v>0.94619999999999993</v>
-      </c>
-      <c r="F74" s="14">
-        <v>0.87099999999999977</v>
+      <c r="C74" s="1">
+        <v>44642</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="F74" s="2">
+        <v>0.4602</v>
       </c>
       <c r="G74" s="2">
         <f>SQRT($E74*$F74)</f>
-        <v>0.90782167852502826</v>
+        <v>0.63897530468712171</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
-        <v>954</v>
+        <v>661</v>
       </c>
       <c r="B75" s="11" t="str">
         <f>IF($G75=_xlfn.MAXIFS($G:$G, $A:$A, $A75), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C75" s="1">
-        <v>44652</v>
+        <v>44644</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="E75" s="2">
-        <v>0.98939999999999995</v>
+        <v>0.16830000000000001</v>
       </c>
       <c r="F75" s="2">
-        <v>0.38096666666666662</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="G75" s="2">
         <f>SQRT($E75*$F75)</f>
-        <v>0.61394496496021522</v>
+        <v>0.10378439189011034</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
-        <v>1606</v>
+        <v>682</v>
       </c>
       <c r="B76" s="11" t="str">
         <f>IF($G76=_xlfn.MAXIFS($G:$G, $A:$A, $A76), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C76" s="1">
-        <v>44650</v>
+        <v>44646</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E76" s="2">
-        <v>5.6600000000000004E-2</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="F76" s="2">
-        <v>1</v>
+        <v>0.9819</v>
       </c>
       <c r="G76" s="2">
         <f>SQRT($E76*$F76)</f>
-        <v>0.23790754506740638</v>
+        <v>0.94599347777878473</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
-        <v>2024</v>
+        <v>693</v>
       </c>
       <c r="B77" s="11" t="str">
         <f>IF($G77=_xlfn.MAXIFS($G:$G, $A:$A, $A77), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C77" s="1">
-        <v>44649</v>
+        <v>44648</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2">
-        <v>0.87609999999999999</v>
+        <v>1</v>
       </c>
       <c r="F77" s="2">
-        <v>0.49359999999999998</v>
+        <v>0.42049999999999998</v>
       </c>
       <c r="G77" s="2">
         <f>SQRT($E77*$F77)</f>
-        <v>0.65760395375940373</v>
+        <v>0.64845971347493903</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
-        <v>2028</v>
+        <v>728</v>
       </c>
       <c r="B78" s="11" t="str">
         <f>IF($G78=_xlfn.MAXIFS($G:$G, $A:$A, $A78), "latest", "")</f>
-        <v/>
+        <v>latest</v>
       </c>
       <c r="C78" s="1">
-        <v>44647</v>
+        <v>44651</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E78" s="2">
-        <v>0.14099999999999999</v>
+        <v>1</v>
       </c>
       <c r="F78" s="2">
-        <v>0.12820000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="G78" s="2">
         <f>SQRT($E78*$F78)</f>
-        <v>0.13444775937143766</v>
+        <v>0.77717436910901794</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
-        <v>2028</v>
+        <v>744</v>
       </c>
       <c r="B79" s="11" t="str">
         <f>IF($G79=_xlfn.MAXIFS($G:$G, $A:$A, $A79), "latest", "")</f>
-        <v/>
-      </c>
-      <c r="C79" s="1">
-        <v>44647</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79" s="2">
-        <v>0.12820000000000001</v>
-      </c>
-      <c r="F79" s="2">
-        <v>6.8400000000000002E-2</v>
+        <v>latest</v>
+      </c>
+      <c r="C79" s="15">
+        <v>44654</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" s="14">
+        <v>0.69553333333333345</v>
+      </c>
+      <c r="F79" s="14">
+        <v>0.58150000000000002</v>
       </c>
       <c r="G79" s="2">
         <f>SQRT($E79*$F79)</f>
-        <v>9.3642298134977445E-2</v>
+        <v>0.63596590579474732</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
-        <v>2028</v>
+        <v>762</v>
       </c>
       <c r="B80" s="11" t="str">
         <f>IF($G80=_xlfn.MAXIFS($G:$G, $A:$A, $A80), "latest", "")</f>
         <v>latest</v>
       </c>
-      <c r="C80" s="1">
-        <v>44647</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E80" s="2">
-        <v>0.9677</v>
-      </c>
-      <c r="F80" s="2">
-        <v>0.90539999999999998</v>
+      <c r="C80" s="15">
+        <v>44656</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="14">
+        <v>0.94619999999999993</v>
+      </c>
+      <c r="F80" s="14">
+        <v>0.87099999999999977</v>
       </c>
       <c r="G80" s="2">
         <f>SQRT($E80*$F80)</f>
-        <v>0.9360318263819879</v>
+        <v>0.90782167852502826</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="11">
-        <v>2038</v>
+        <v>954</v>
       </c>
       <c r="B81" s="11" t="str">
         <f>IF($G81=_xlfn.MAXIFS($G:$G, $A:$A, $A81), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C81" s="1">
-        <v>44647</v>
+        <v>44652</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E81" s="2">
-        <v>0.79410000000000003</v>
+        <v>0.98939999999999995</v>
       </c>
       <c r="F81" s="2">
-        <v>0.76470000000000005</v>
+        <v>0.38096666666666662</v>
       </c>
       <c r="G81" s="2">
         <f>SQRT($E81*$F81)</f>
+        <v>0.61394496496021522</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="11">
+        <v>1606</v>
+      </c>
+      <c r="B82" s="11" t="str">
+        <f>IF($G82=_xlfn.MAXIFS($G:$G, $A:$A, $A82), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44650</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" s="2">
+        <v>5.6600000000000004E-2</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <f>SQRT($E82*$F82)</f>
+        <v>0.23790754506740638</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
+        <v>2024</v>
+      </c>
+      <c r="B83" s="11" t="str">
+        <f>IF($G83=_xlfn.MAXIFS($G:$G, $A:$A, $A83), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C83" s="1">
+        <v>44649</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0.87609999999999999</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="G83" s="2">
+        <f>SQRT($E83*$F83)</f>
+        <v>0.65760395375940373</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B84" s="11" t="str">
+        <f>IF($G84=_xlfn.MAXIFS($G:$G, $A:$A, $A84), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C84" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="G84" s="2">
+        <f>SQRT($E84*$F84)</f>
+        <v>0.13444775937143766</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B85" s="11" t="str">
+        <f>IF($G85=_xlfn.MAXIFS($G:$G, $A:$A, $A85), "latest", "")</f>
+        <v/>
+      </c>
+      <c r="C85" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0.12820000000000001</v>
+      </c>
+      <c r="F85" s="2">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="G85" s="2">
+        <f>SQRT($E85*$F85)</f>
+        <v>9.3642298134977445E-2</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="11">
+        <v>2028</v>
+      </c>
+      <c r="B86" s="11" t="str">
+        <f>IF($G86=_xlfn.MAXIFS($G:$G, $A:$A, $A86), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C86" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0.9677</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="G86" s="2">
+        <f>SQRT($E86*$F86)</f>
+        <v>0.9360318263819879</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>2038</v>
+      </c>
+      <c r="B87" s="11" t="str">
+        <f>IF($G87=_xlfn.MAXIFS($G:$G, $A:$A, $A87), "latest", "")</f>
+        <v>latest</v>
+      </c>
+      <c r="C87" s="1">
+        <v>44647</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="G87" s="2">
+        <f>SQRT($E87*$F87)</f>
         <v>0.77926136180359928</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:K81">
-    <sortCondition ref="A46"/>
+  <sortState ref="A2:K88">
+    <sortCondition ref="A30"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="F1:F1048576">
@@ -5391,7 +5656,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5421,14 +5686,14 @@
       </c>
       <c r="B2" s="9">
         <f>COUNTIFS(record!$H:$H,$A2, record!$B:$B, "=latest")</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="9">
         <f>COUNTIFS(record!$D:$D,$D2, record!$B:$B, "=latest")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -5453,14 +5718,14 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIFS(record!$H:$H,$A4, record!$B:$B, "=latest")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="9">
         <f>COUNTIFS(record!$D:$D,$D4, record!$B:$B, "=latest")</f>
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -5530,10 +5795,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC083FF-3AF3-4ABC-A3DB-7E4234390599}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -5547,22 +5812,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="F1" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5607,11 +5872,11 @@
         <v>2</v>
       </c>
       <c r="E3" s="18">
-        <f t="shared" ref="E3:E17" si="0">SUM($B3:$D3)</f>
+        <f t="shared" ref="E3:E18" si="0">SUM($B3:$D3)</f>
         <v>5</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F17" si="1">ROUND(SUMPRODUCT(--ISNUMBER(E2:E4), E2:E4)/COUNT(E2:E4), 0)</f>
+        <f t="shared" ref="F3:F18" si="1">ROUND(SUMPRODUCT(--ISNUMBER(E2:E4), E2:E4)/COUNT(E2:E4), 0)</f>
         <v>5</v>
       </c>
     </row>
@@ -5937,7 +6202,7 @@
       </c>
       <c r="F16" s="18">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5954,15 +6219,40 @@
       </c>
       <c r="D17" s="21">
         <f>COUNTIFS(record!$C:$C,$A17, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B18" s="19">
+        <f>COUNTIFS(record!$C:$C,$A18, record!$D:$D, "=Hard", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="20">
+        <f>COUNTIFS(record!$C:$C,$A18, record!$D:$D, "=Medium", record!$B:$B, "=latest")</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="21">
+        <f>COUNTIFS(record!$C:$C,$A18, record!$D:$D, "=Easy", record!$B:$B, "=latest")</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6016,6 +6306,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6042,36 +6333,36 @@
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>84.76</v>
+        <v>20.71</v>
       </c>
       <c r="B2" s="6">
-        <v>52.66</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
-        <v>65.39</v>
+        <v>46.35</v>
       </c>
       <c r="B3" s="6">
-        <v>52.66</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>36.85</v>
+        <v>24.1</v>
       </c>
       <c r="B4" s="6">
-        <v>13.65</v>
+        <v>38.479999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <f>IF(ISBLANK(A2)*ISBLANK(B2)*ISBLANK(A4), 0,  AVERAGE(A2:A4)/100)</f>
-        <v>0.62333333333333341</v>
+        <v>0.30386666666666667</v>
       </c>
       <c r="B5" s="5">
         <f>IF(ISBLANK(B2)*ISBLANK(B3)*ISBLANK(B4), 0,  AVERAGE(B2:B4)/100)</f>
-        <v>0.39656666666666668</v>
+        <v>0.29183333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\done\study\doneAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA34F8-3E17-4545-9B60-6D98CA9D2599}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942C38C2-3DA1-46C7-A423-C96F1DBCECE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="2" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{A621AC60-7988-41A4-B20F-AA8F601AE2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="4" r:id="rId1"/>
@@ -2953,10 +2953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4F2BBBD-6164-44FE-8C61-D2404F2ED136}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -3009,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="str">
-        <f>IF($G2=_xlfn.MAXIFS($G:$G, $A:$A, $A2), "latest", "")</f>
+        <f t="shared" ref="B2:B33" si="0">IF($G2=_xlfn.MAXIFS($G:$G, $A:$A, $A2), "latest", "")</f>
         <v/>
       </c>
       <c r="C2" s="1">
@@ -3025,7 +3025,7 @@
         <v>9.9600000000000008E-2</v>
       </c>
       <c r="G2" s="2">
-        <f>SQRT($E2*$F2)</f>
+        <f t="shared" ref="G2:G33" si="1">SQRT($E2*$F2)</f>
         <v>0.26006737588555778</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -3037,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="str">
-        <f>IF($G3=_xlfn.MAXIFS($G:$G, $A:$A, $A3), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C3" s="1">
@@ -3053,7 +3053,7 @@
         <v>0.2011</v>
       </c>
       <c r="G3" s="2">
-        <f>SQRT($E3*$F3)</f>
+        <f t="shared" si="1"/>
         <v>0.41916711464522122</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -3065,7 +3065,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="str">
-        <f>IF($G4=_xlfn.MAXIFS($G:$G, $A:$A, $A4), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C4" s="1">
@@ -3081,7 +3081,7 @@
         <v>0.2356</v>
       </c>
       <c r="G4" s="2">
-        <f>SQRT($E4*$F4)</f>
+        <f t="shared" si="1"/>
         <v>0.40137673076549912</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -3093,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="11" t="str">
-        <f>IF($G5=_xlfn.MAXIFS($G:$G, $A:$A, $A5), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C5" s="1">
@@ -3109,7 +3109,7 @@
         <v>0.35160000000000002</v>
       </c>
       <c r="G5" s="2">
-        <f>SQRT($E5*$F5)</f>
+        <f t="shared" si="1"/>
         <v>0.55208879720566695</v>
       </c>
       <c r="H5" s="3" t="s">
@@ -3121,7 +3121,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="str">
-        <f>IF($G6=_xlfn.MAXIFS($G:$G, $A:$A, $A6), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C6" s="15">
@@ -3137,7 +3137,7 @@
         <v>0.97280000000000011</v>
       </c>
       <c r="G6" s="2">
-        <f>SQRT($E6*$F6)</f>
+        <f t="shared" si="1"/>
         <v>0.95199417365163896</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -3149,7 +3149,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="11" t="str">
-        <f>IF($G7=_xlfn.MAXIFS($G:$G, $A:$A, $A7), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C7" s="1">
@@ -3165,7 +3165,7 @@
         <v>0.3498</v>
       </c>
       <c r="G7" s="2">
-        <f>SQRT($E7*$F7)</f>
+        <f t="shared" si="1"/>
         <v>0.55010179058061615</v>
       </c>
       <c r="H7" s="3" t="s">
@@ -3177,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="11" t="str">
-        <f>IF($G8=_xlfn.MAXIFS($G:$G, $A:$A, $A8), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C8" s="15">
@@ -3193,7 +3193,7 @@
         <v>0.65930000000000011</v>
       </c>
       <c r="G8" s="2">
-        <f>SQRT($E8*$F8)</f>
+        <f t="shared" si="1"/>
         <v>0.68722526631859715</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -3208,7 +3208,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="str">
-        <f>IF($G9=_xlfn.MAXIFS($G:$G, $A:$A, $A9), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C9" s="1">
@@ -3224,7 +3224,7 @@
         <v>0.52410000000000001</v>
       </c>
       <c r="G9" s="2">
-        <f>SQRT($E9*$F9)</f>
+        <f t="shared" si="1"/>
         <v>0.70021107531943538</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -3239,7 +3239,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="str">
-        <f>IF($G10=_xlfn.MAXIFS($G:$G, $A:$A, $A10), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C10" s="1">
@@ -3255,7 +3255,7 @@
         <v>0.57609999999999995</v>
       </c>
       <c r="G10" s="2">
-        <f>SQRT($E10*$F10)</f>
+        <f t="shared" si="1"/>
         <v>0.66973984501446526</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="str">
-        <f>IF($G11=_xlfn.MAXIFS($G:$G, $A:$A, $A11), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C11" s="1">
@@ -3283,7 +3283,7 @@
         <v>0.1217</v>
       </c>
       <c r="G11" s="2">
-        <f>SQRT($E11*$F11)</f>
+        <f t="shared" si="1"/>
         <v>0.19780432250079877</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -3295,7 +3295,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="str">
-        <f>IF($G12=_xlfn.MAXIFS($G:$G, $A:$A, $A12), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C12" s="1">
@@ -3311,7 +3311,7 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="G12" s="2">
-        <f>SQRT($E12*$F12)</f>
+        <f t="shared" si="1"/>
         <v>0.51403073838049806</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -3323,7 +3323,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="str">
-        <f>IF($G13=_xlfn.MAXIFS($G:$G, $A:$A, $A13), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C13" s="1">
@@ -3339,7 +3339,7 @@
         <v>0.50939999999999996</v>
       </c>
       <c r="G13" s="2">
-        <f>SQRT($E13*$F13)</f>
+        <f t="shared" si="1"/>
         <v>0.62449710968106165</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -3351,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="11" t="str">
-        <f>IF($G14=_xlfn.MAXIFS($G:$G, $A:$A, $A14), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C14" s="1">
@@ -3367,7 +3367,7 @@
         <v>0.59970000000000001</v>
       </c>
       <c r="G14" s="2">
-        <f>SQRT($E14*$F14)</f>
+        <f t="shared" si="1"/>
         <v>0.72256405944386692</v>
       </c>
       <c r="H14" s="3" t="s">
@@ -3379,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="11" t="str">
-        <f>IF($G15=_xlfn.MAXIFS($G:$G, $A:$A, $A15), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C15" s="1">
@@ -3395,7 +3395,7 @@
         <v>0.55400000000000005</v>
       </c>
       <c r="G15" s="2">
-        <f>SQRT($E15*$F15)</f>
+        <f t="shared" si="1"/>
         <v>0.65558614994522268</v>
       </c>
       <c r="H15" s="3" t="s">
@@ -3407,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="11" t="str">
-        <f>IF($G16=_xlfn.MAXIFS($G:$G, $A:$A, $A16), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C16" s="1">
@@ -3423,7 +3423,7 @@
         <v>0.18920000000000001</v>
       </c>
       <c r="G16" s="2">
-        <f>SQRT($E16*$F16)</f>
+        <f t="shared" si="1"/>
         <v>0.38907444017822607</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -3435,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="str">
-        <f>IF($G17=_xlfn.MAXIFS($G:$G, $A:$A, $A17), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C17" s="1">
@@ -3451,7 +3451,7 @@
         <v>0.1835</v>
       </c>
       <c r="G17" s="2">
-        <f>SQRT($E17*$F17)</f>
+        <f t="shared" si="1"/>
         <v>0.39150676877928947</v>
       </c>
       <c r="H17" s="3" t="s">
@@ -3463,7 +3463,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="str">
-        <f>IF($G18=_xlfn.MAXIFS($G:$G, $A:$A, $A18), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C18" s="1">
@@ -3479,7 +3479,7 @@
         <v>0.54730000000000001</v>
       </c>
       <c r="G18" s="2">
-        <f>SQRT($E18*$F18)</f>
+        <f t="shared" si="1"/>
         <v>0.62921921458264451</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -3491,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="11" t="str">
-        <f>IF($G19=_xlfn.MAXIFS($G:$G, $A:$A, $A19), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C19" s="1">
@@ -3507,7 +3507,7 @@
         <v>0.64559999999999995</v>
       </c>
       <c r="G19" s="2">
-        <f>SQRT($E19*$F19)</f>
+        <f t="shared" si="1"/>
         <v>0.67679627658550245</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -3519,7 +3519,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="11" t="str">
-        <f>IF($G20=_xlfn.MAXIFS($G:$G, $A:$A, $A20), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C20" s="1">
@@ -3535,7 +3535,7 @@
         <v>0.2412</v>
       </c>
       <c r="G20" s="2">
-        <f>SQRT($E20*$F20)</f>
+        <f t="shared" si="1"/>
         <v>0.12472930690098459</v>
       </c>
       <c r="H20" s="3" t="s">
@@ -3547,7 +3547,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="11" t="str">
-        <f>IF($G21=_xlfn.MAXIFS($G:$G, $A:$A, $A21), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C21" s="1">
@@ -3563,7 +3563,7 @@
         <v>0.60550000000000004</v>
       </c>
       <c r="G21" s="2">
-        <f>SQRT($E21*$F21)</f>
+        <f t="shared" si="1"/>
         <v>0.74241945691098377</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -3575,7 +3575,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="11" t="str">
-        <f>IF($G22=_xlfn.MAXIFS($G:$G, $A:$A, $A22), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C22" s="1">
@@ -3591,7 +3591,7 @@
         <v>0.47739999999999999</v>
       </c>
       <c r="G22" s="2">
-        <f>SQRT($E22*$F22)</f>
+        <f t="shared" si="1"/>
         <v>0.61400552114781504</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -3603,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="11" t="str">
-        <f>IF($G23=_xlfn.MAXIFS($G:$G, $A:$A, $A23), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C23" s="1">
@@ -3619,7 +3619,7 @@
         <v>0.14610000000000001</v>
       </c>
       <c r="G23" s="2">
-        <f>SQRT($E23*$F23)</f>
+        <f t="shared" si="1"/>
         <v>0.30213122976613987</v>
       </c>
       <c r="H23" s="3" t="s">
@@ -3631,7 +3631,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="11" t="str">
-        <f>IF($G24=_xlfn.MAXIFS($G:$G, $A:$A, $A24), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C24" s="1">
@@ -3647,7 +3647,7 @@
         <v>0.55289999999999995</v>
       </c>
       <c r="G24" s="2">
-        <f>SQRT($E24*$F24)</f>
+        <f t="shared" si="1"/>
         <v>0.43024518591147537</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -3659,7 +3659,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="11" t="str">
-        <f>IF($G25=_xlfn.MAXIFS($G:$G, $A:$A, $A25), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="C25" s="1">
@@ -3675,7 +3675,7 @@
         <v>0.55859999999999999</v>
       </c>
       <c r="G25" s="2">
-        <f>SQRT($E25*$F25)</f>
+        <f t="shared" si="1"/>
         <v>0.60270853652491096</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -3687,7 +3687,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="11" t="str">
-        <f>IF($G26=_xlfn.MAXIFS($G:$G, $A:$A, $A26), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C26" s="1">
@@ -3703,7 +3703,7 @@
         <v>0.53749999999999998</v>
       </c>
       <c r="G26" s="2">
-        <f>SQRT($E26*$F26)</f>
+        <f t="shared" si="1"/>
         <v>0.65208607560658738</v>
       </c>
       <c r="H26" s="3" t="s">
@@ -3715,7 +3715,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="11" t="str">
-        <f>IF($G27=_xlfn.MAXIFS($G:$G, $A:$A, $A27), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C27" s="1">
@@ -3731,7 +3731,7 @@
         <v>0.13489999999999999</v>
       </c>
       <c r="G27" s="2">
-        <f>SQRT($E27*$F27)</f>
+        <f t="shared" si="1"/>
         <v>0.35981040840976236</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -3743,7 +3743,7 @@
         <v>17</v>
       </c>
       <c r="B28" s="11" t="str">
-        <f>IF($G28=_xlfn.MAXIFS($G:$G, $A:$A, $A28), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C28" s="1">
@@ -3759,7 +3759,7 @@
         <v>0.50239999999999996</v>
       </c>
       <c r="G28" s="2">
-        <f>SQRT($E28*$F28)</f>
+        <f t="shared" si="1"/>
         <v>0.59378811035587431</v>
       </c>
       <c r="H28" s="3" t="s">
@@ -3771,7 +3771,7 @@
         <v>18</v>
       </c>
       <c r="B29" s="11" t="str">
-        <f>IF($G29=_xlfn.MAXIFS($G:$G, $A:$A, $A29), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C29" s="1">
@@ -3787,7 +3787,7 @@
         <v>0.48149999999999998</v>
       </c>
       <c r="G29" s="2">
-        <f>SQRT($E29*$F29)</f>
+        <f t="shared" si="1"/>
         <v>0.4791442371562033</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -3799,7 +3799,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="11" t="str">
-        <f>IF($G30=_xlfn.MAXIFS($G:$G, $A:$A, $A30), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C30" s="1">
@@ -3815,7 +3815,7 @@
         <v>0.86723333333333341</v>
       </c>
       <c r="G30" s="2">
-        <f>SQRT($E30*$F30)</f>
+        <f t="shared" si="1"/>
         <v>0.73675052991723966</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -3827,7 +3827,7 @@
         <v>20</v>
       </c>
       <c r="B31" s="11" t="str">
-        <f>IF($G31=_xlfn.MAXIFS($G:$G, $A:$A, $A31), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C31" s="1">
@@ -3843,7 +3843,7 @@
         <v>0.64560000000000006</v>
       </c>
       <c r="G31" s="2">
-        <f>SQRT($E31*$F31)</f>
+        <f t="shared" si="1"/>
         <v>0.50791904866819082</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -3855,7 +3855,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="11" t="str">
-        <f>IF($G32=_xlfn.MAXIFS($G:$G, $A:$A, $A32), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C32" s="1">
@@ -3871,7 +3871,7 @@
         <v>0.44596666666666662</v>
       </c>
       <c r="G32" s="2">
-        <f>SQRT($E32*$F32)</f>
+        <f t="shared" si="1"/>
         <v>0.38655991055002642</v>
       </c>
       <c r="H32" s="3" t="s">
@@ -3883,7 +3883,7 @@
         <v>22</v>
       </c>
       <c r="B33" s="11" t="str">
-        <f>IF($G33=_xlfn.MAXIFS($G:$G, $A:$A, $A33), "latest", "")</f>
+        <f t="shared" si="0"/>
         <v>latest</v>
       </c>
       <c r="C33" s="1">
@@ -3899,7 +3899,7 @@
         <v>0.4543666666666667</v>
       </c>
       <c r="G33" s="2">
-        <f>SQRT($E33*$F33)</f>
+        <f t="shared" si="1"/>
         <v>0.59414864208284524</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -3911,7 +3911,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="11" t="str">
-        <f>IF($G34=_xlfn.MAXIFS($G:$G, $A:$A, $A34), "latest", "")</f>
+        <f t="shared" ref="B34:B65" si="2">IF($G34=_xlfn.MAXIFS($G:$G, $A:$A, $A34), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C34" s="1">
@@ -3927,7 +3927,7 @@
         <v>0.84616666666666673</v>
       </c>
       <c r="G34" s="2">
-        <f>SQRT($E34*$F34)</f>
+        <f t="shared" ref="G34:G65" si="3">SQRT($E34*$F34)</f>
         <v>0.8149578005434801</v>
       </c>
       <c r="H34" s="3" t="s">
@@ -3939,7 +3939,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="11" t="str">
-        <f>IF($G35=_xlfn.MAXIFS($G:$G, $A:$A, $A35), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C35" s="1">
@@ -3955,7 +3955,7 @@
         <v>0.62870000000000004</v>
       </c>
       <c r="G35" s="2">
-        <f>SQRT($E35*$F35)</f>
+        <f t="shared" si="3"/>
         <v>0.79290604739779857</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -3967,7 +3967,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="11" t="str">
-        <f>IF($G36=_xlfn.MAXIFS($G:$G, $A:$A, $A36), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C36" s="1">
@@ -3983,7 +3983,7 @@
         <v>0.54510000000000003</v>
       </c>
       <c r="G36" s="2">
-        <f>SQRT($E36*$F36)</f>
+        <f t="shared" si="3"/>
         <v>0.49987382407963715</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -3995,7 +3995,7 @@
         <v>25</v>
       </c>
       <c r="B37" s="11" t="str">
-        <f>IF($G37=_xlfn.MAXIFS($G:$G, $A:$A, $A37), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C37" s="1">
@@ -4011,7 +4011,7 @@
         <v>0.65079999999999993</v>
       </c>
       <c r="G37" s="2">
-        <f>SQRT($E37*$F37)</f>
+        <f t="shared" si="3"/>
         <v>0.72398502746949134</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -4023,7 +4023,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="11" t="str">
-        <f>IF($G38=_xlfn.MAXIFS($G:$G, $A:$A, $A38), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C38" s="1">
@@ -4039,7 +4039,7 @@
         <v>0.17220000000000002</v>
       </c>
       <c r="G38" s="2">
-        <f>SQRT($E38*$F38)</f>
+        <f t="shared" si="3"/>
         <v>0.25526550883344973</v>
       </c>
       <c r="H38" s="3" t="s">
@@ -4051,7 +4051,7 @@
         <v>27</v>
       </c>
       <c r="B39" s="11" t="str">
-        <f>IF($G39=_xlfn.MAXIFS($G:$G, $A:$A, $A39), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C39" s="1">
@@ -4067,7 +4067,7 @@
         <v>0.3685666666666666</v>
       </c>
       <c r="G39" s="2">
-        <f>SQRT($E39*$F39)</f>
+        <f t="shared" si="3"/>
         <v>0.42015609929855563</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -4079,7 +4079,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="11" t="str">
-        <f>IF($G40=_xlfn.MAXIFS($G:$G, $A:$A, $A40), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C40" s="1">
@@ -4095,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <f>SQRT($E40*$F40)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H40" s="3" t="s">
@@ -4110,7 +4110,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="11" t="str">
-        <f>IF($G41=_xlfn.MAXIFS($G:$G, $A:$A, $A41), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C41" s="15">
@@ -4126,7 +4126,7 @@
         <v>0.81103333333333338</v>
       </c>
       <c r="G41" s="2">
-        <f>SQRT($E41*$F41)</f>
+        <f t="shared" si="3"/>
         <v>0.8535521327565958</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -4141,7 +4141,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="11" t="str">
-        <f>IF($G42=_xlfn.MAXIFS($G:$G, $A:$A, $A42), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C42" s="15">
@@ -4157,7 +4157,7 @@
         <v>0.80713333333333326</v>
       </c>
       <c r="G42" s="2">
-        <f>SQRT($E42*$F42)</f>
+        <f t="shared" si="3"/>
         <v>0.7489171872332302</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -4172,7 +4172,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="str">
-        <f>IF($G43=_xlfn.MAXIFS($G:$G, $A:$A, $A43), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C43" s="15">
@@ -4188,7 +4188,7 @@
         <v>0.4417666666666667</v>
       </c>
       <c r="G43" s="2">
-        <f>SQRT($E43*$F43)</f>
+        <f t="shared" si="3"/>
         <v>0.42345376370980581</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -4203,7 +4203,7 @@
         <v>70</v>
       </c>
       <c r="B44" s="11" t="str">
-        <f>IF($G44=_xlfn.MAXIFS($G:$G, $A:$A, $A44), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C44" s="1">
@@ -4219,7 +4219,7 @@
         <v>0.45430000000000009</v>
       </c>
       <c r="G44" s="2">
-        <f>SQRT($E44*$F44)</f>
+        <f t="shared" si="3"/>
         <v>0.42920700134084488</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -4234,7 +4234,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="11" t="str">
-        <f>IF($G45=_xlfn.MAXIFS($G:$G, $A:$A, $A45), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C45" s="15">
@@ -4250,7 +4250,7 @@
         <v>0.22603333333333336</v>
       </c>
       <c r="G45" s="2">
-        <f>SQRT($E45*$F45)</f>
+        <f t="shared" si="3"/>
         <v>0.39861497574588051</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -4265,7 +4265,7 @@
         <v>84</v>
       </c>
       <c r="B46" s="11" t="str">
-        <f>IF($G46=_xlfn.MAXIFS($G:$G, $A:$A, $A46), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C46" s="15">
@@ -4281,7 +4281,7 @@
         <v>0.87153333333333327</v>
       </c>
       <c r="G46" s="2">
-        <f>SQRT($E46*$F46)</f>
+        <f t="shared" si="3"/>
         <v>0.76610677961872764</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -4296,7 +4296,7 @@
         <v>85</v>
       </c>
       <c r="B47" s="11" t="str">
-        <f>IF($G47=_xlfn.MAXIFS($G:$G, $A:$A, $A47), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C47" s="15">
@@ -4312,7 +4312,7 @@
         <v>0.65300000000000002</v>
       </c>
       <c r="G47" s="2">
-        <f>SQRT($E47*$F47)</f>
+        <f t="shared" si="3"/>
         <v>0.62869778113176134</v>
       </c>
       <c r="H47" s="3" t="s">
@@ -4327,7 +4327,7 @@
         <v>94</v>
       </c>
       <c r="B48" s="11" t="str">
-        <f>IF($G48=_xlfn.MAXIFS($G:$G, $A:$A, $A48), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C48" s="15">
@@ -4343,7 +4343,7 @@
         <v>0.64536666666666676</v>
       </c>
       <c r="G48" s="2">
-        <f>SQRT($E48*$F48)</f>
+        <f t="shared" si="3"/>
         <v>0.62406511768493456</v>
       </c>
       <c r="H48" s="3" t="s">
@@ -4361,7 +4361,7 @@
         <v>94</v>
       </c>
       <c r="B49" s="11" t="str">
-        <f>IF($G49=_xlfn.MAXIFS($G:$G, $A:$A, $A49), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C49" s="15">
@@ -4377,7 +4377,7 @@
         <v>0.77883333333333338</v>
       </c>
       <c r="G49" s="2">
-        <f>SQRT($E49*$F49)</f>
+        <f t="shared" si="3"/>
         <v>0.7902003824628564</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -4395,7 +4395,7 @@
         <v>94</v>
       </c>
       <c r="B50" s="11" t="str">
-        <f>IF($G50=_xlfn.MAXIFS($G:$G, $A:$A, $A50), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C50" s="15">
@@ -4411,7 +4411,7 @@
         <v>0.74219999999999997</v>
       </c>
       <c r="G50" s="14">
-        <f>SQRT($E50*$F50)</f>
+        <f t="shared" si="3"/>
         <v>0.44939138843551507</v>
       </c>
       <c r="H50" s="3" t="s">
@@ -4429,7 +4429,7 @@
         <v>98</v>
       </c>
       <c r="B51" s="11" t="str">
-        <f>IF($G51=_xlfn.MAXIFS($G:$G, $A:$A, $A51), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C51" s="15">
@@ -4445,7 +4445,7 @@
         <v>0.13203333333333334</v>
       </c>
       <c r="G51" s="2">
-        <f>SQRT($E51*$F51)</f>
+        <f t="shared" si="3"/>
         <v>0.29419763954034556</v>
       </c>
       <c r="H51" s="3" t="s">
@@ -4460,7 +4460,7 @@
         <v>99</v>
       </c>
       <c r="B52" s="11" t="str">
-        <f>IF($G52=_xlfn.MAXIFS($G:$G, $A:$A, $A52), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C52" s="15">
@@ -4476,7 +4476,7 @@
         <v>0.53990000000000005</v>
       </c>
       <c r="G52" s="2">
-        <f>SQRT($E52*$F52)</f>
+        <f t="shared" si="3"/>
         <v>0.48730484982879729</v>
       </c>
       <c r="H52" s="3" t="s">
@@ -4494,7 +4494,7 @@
         <v>100</v>
       </c>
       <c r="B53" s="11" t="str">
-        <f>IF($G53=_xlfn.MAXIFS($G:$G, $A:$A, $A53), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C53" s="15">
@@ -4510,7 +4510,7 @@
         <v>0.39656666666666668</v>
       </c>
       <c r="G53" s="2">
-        <f>SQRT($E53*$F53)</f>
+        <f t="shared" si="3"/>
         <v>0.49718529968435538</v>
       </c>
       <c r="H53" s="3" t="s">
@@ -4525,7 +4525,7 @@
         <v>101</v>
       </c>
       <c r="B54" s="11" t="str">
-        <f>IF($G54=_xlfn.MAXIFS($G:$G, $A:$A, $A54), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C54" s="15">
@@ -4541,7 +4541,7 @@
         <v>0.44840000000000002</v>
       </c>
       <c r="G54" s="2">
-        <f>SQRT($E54*$F54)</f>
+        <f t="shared" si="3"/>
         <v>0.55263481613086962</v>
       </c>
       <c r="H54" s="3" t="s">
@@ -4556,7 +4556,7 @@
         <v>104</v>
       </c>
       <c r="B55" s="11" t="str">
-        <f>IF($G55=_xlfn.MAXIFS($G:$G, $A:$A, $A55), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C55" s="15">
@@ -4572,7 +4572,7 @@
         <v>0.2723666666666667</v>
       </c>
       <c r="G55" s="2">
-        <f>SQRT($E55*$F55)</f>
+        <f t="shared" si="3"/>
         <v>0.38964889181016404</v>
       </c>
       <c r="H55" s="3" t="s">
@@ -4590,7 +4590,7 @@
         <v>104</v>
       </c>
       <c r="B56" s="11" t="str">
-        <f>IF($G56=_xlfn.MAXIFS($G:$G, $A:$A, $A56), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C56" s="15">
@@ -4606,7 +4606,7 @@
         <v>0.5561666666666667</v>
       </c>
       <c r="G56" s="2">
-        <f>SQRT($E56*$F56)</f>
+        <f t="shared" si="3"/>
         <v>0.51248457429359651</v>
       </c>
       <c r="H56" s="3" t="s">
@@ -4624,7 +4624,7 @@
         <v>110</v>
       </c>
       <c r="B57" s="11" t="str">
-        <f>IF($G57=_xlfn.MAXIFS($G:$G, $A:$A, $A57), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C57" s="15">
@@ -4640,7 +4640,7 @@
         <v>0.28166666666666668</v>
       </c>
       <c r="G57" s="2">
-        <f>SQRT($E57*$F57)</f>
+        <f t="shared" si="3"/>
         <v>0.50222753807412823</v>
       </c>
       <c r="H57" s="3" t="s">
@@ -4658,7 +4658,7 @@
         <v>111</v>
       </c>
       <c r="B58" s="11" t="str">
-        <f>IF($G58=_xlfn.MAXIFS($G:$G, $A:$A, $A58), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C58" s="15">
@@ -4674,7 +4674,7 @@
         <v>0.29183333333333333</v>
       </c>
       <c r="G58" s="2">
-        <f>SQRT($E58*$F58)</f>
+        <f t="shared" si="3"/>
         <v>0.29778922448977602</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -4695,7 +4695,7 @@
         <v>114</v>
       </c>
       <c r="B59" s="11" t="str">
-        <f>IF($G59=_xlfn.MAXIFS($G:$G, $A:$A, $A59), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C59" s="15">
@@ -4711,7 +4711,7 @@
         <v>0.79</v>
       </c>
       <c r="G59" s="2">
-        <f>SQRT($E59*$F59)</f>
+        <f t="shared" si="3"/>
         <v>0.74546115481179387</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -4726,7 +4726,7 @@
         <v>124</v>
       </c>
       <c r="B60" s="11" t="str">
-        <f>IF($G60=_xlfn.MAXIFS($G:$G, $A:$A, $A60), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C60" s="15">
@@ -4742,7 +4742,7 @@
         <v>0.26476666666666665</v>
       </c>
       <c r="G60" s="2">
-        <f>SQRT($E60*$F60)</f>
+        <f t="shared" si="3"/>
         <v>0.46189715305465995</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -4757,7 +4757,7 @@
         <v>143</v>
       </c>
       <c r="B61" s="11" t="str">
-        <f>IF($G61=_xlfn.MAXIFS($G:$G, $A:$A, $A61), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C61" s="15">
@@ -4773,7 +4773,7 @@
         <v>0.60226666666666662</v>
       </c>
       <c r="G61" s="2">
-        <f>SQRT($E61*$F61)</f>
+        <f t="shared" si="3"/>
         <v>0.73059487481853513</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -4788,7 +4788,7 @@
         <v>144</v>
       </c>
       <c r="B62" s="11" t="str">
-        <f>IF($G62=_xlfn.MAXIFS($G:$G, $A:$A, $A62), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C62" s="15">
@@ -4804,7 +4804,7 @@
         <v>0.39666666666666667</v>
       </c>
       <c r="G62" s="2">
-        <f>SQRT($E62*$F62)</f>
+        <f t="shared" si="3"/>
         <v>0.54598076889209202</v>
       </c>
       <c r="H62" s="3" t="s">
@@ -4822,7 +4822,7 @@
         <v>144</v>
       </c>
       <c r="B63" s="11" t="str">
-        <f>IF($G63=_xlfn.MAXIFS($G:$G, $A:$A, $A63), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C63" s="15">
@@ -4838,7 +4838,7 @@
         <v>0.31046666666666667</v>
       </c>
       <c r="G63" s="2">
-        <f>SQRT($E63*$F63)</f>
+        <f t="shared" si="3"/>
         <v>0.37316839213535874</v>
       </c>
       <c r="H63" s="3" t="s">
@@ -4856,7 +4856,7 @@
         <v>144</v>
       </c>
       <c r="B64" s="11" t="str">
-        <f>IF($G64=_xlfn.MAXIFS($G:$G, $A:$A, $A64), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C64" s="15">
@@ -4872,7 +4872,7 @@
         <v>0.6579666666666667</v>
       </c>
       <c r="G64" s="2">
-        <f>SQRT($E64*$F64)</f>
+        <f t="shared" si="3"/>
         <v>0.72587857570441261</v>
       </c>
       <c r="H64" s="3" t="s">
@@ -4890,7 +4890,7 @@
         <v>145</v>
       </c>
       <c r="B65" s="11" t="str">
-        <f>IF($G65=_xlfn.MAXIFS($G:$G, $A:$A, $A65), "latest", "")</f>
+        <f t="shared" si="2"/>
         <v>latest</v>
       </c>
       <c r="C65" s="15">
@@ -4906,7 +4906,7 @@
         <v>0.33093333333333336</v>
       </c>
       <c r="G65" s="2">
-        <f>SQRT($E65*$F65)</f>
+        <f t="shared" si="3"/>
         <v>0.49573288506345164</v>
       </c>
       <c r="H65" s="3" t="s">
@@ -4927,7 +4927,7 @@
         <v>150</v>
       </c>
       <c r="B66" s="11" t="str">
-        <f>IF($G66=_xlfn.MAXIFS($G:$G, $A:$A, $A66), "latest", "")</f>
+        <f t="shared" ref="B66:B87" si="4">IF($G66=_xlfn.MAXIFS($G:$G, $A:$A, $A66), "latest", "")</f>
         <v>latest</v>
       </c>
       <c r="C66" s="15">
@@ -4943,7 +4943,7 @@
         <v>0.31310000000000004</v>
       </c>
       <c r="G66" s="2">
-        <f>SQRT($E66*$F66)</f>
+        <f t="shared" ref="G66:G87" si="5">SQRT($E66*$F66)</f>
         <v>0.51868718254197621</v>
       </c>
       <c r="H66" s="3" t="s">
@@ -4958,7 +4958,7 @@
         <v>172</v>
       </c>
       <c r="B67" s="11" t="str">
-        <f>IF($G67=_xlfn.MAXIFS($G:$G, $A:$A, $A67), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C67" s="1">
@@ -4974,7 +4974,7 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="G67" s="2">
-        <f>SQRT($E67*$F67)</f>
+        <f t="shared" si="5"/>
         <v>0.52736249392614187</v>
       </c>
       <c r="H67" s="3" t="s">
@@ -4986,7 +4986,7 @@
         <v>300</v>
       </c>
       <c r="B68" s="11" t="str">
-        <f>IF($G68=_xlfn.MAXIFS($G:$G, $A:$A, $A68), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C68" s="1">
@@ -5002,7 +5002,7 @@
         <v>0.32386666666666664</v>
       </c>
       <c r="G68" s="2">
-        <f>SQRT($E68*$F68)</f>
+        <f t="shared" si="5"/>
         <v>0.47581970441661098</v>
       </c>
       <c r="H68" s="3" t="s">
@@ -5017,7 +5017,7 @@
         <v>310</v>
       </c>
       <c r="B69" s="11" t="str">
-        <f>IF($G69=_xlfn.MAXIFS($G:$G, $A:$A, $A69), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C69" s="15">
@@ -5033,7 +5033,7 @@
         <v>0.72326666666666672</v>
       </c>
       <c r="G69" s="2">
-        <f>SQRT($E69*$F69)</f>
+        <f t="shared" si="5"/>
         <v>0.4046573529955107</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -5054,7 +5054,7 @@
         <v>404</v>
       </c>
       <c r="B70" s="11" t="str">
-        <f>IF($G70=_xlfn.MAXIFS($G:$G, $A:$A, $A70), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C70" s="1">
@@ -5070,7 +5070,7 @@
         <v>0.14369999999999999</v>
       </c>
       <c r="G70" s="2">
-        <f>SQRT($E70*$F70)</f>
+        <f t="shared" si="5"/>
         <v>0.32600693244162771</v>
       </c>
       <c r="H70" s="3" t="s">
@@ -5082,7 +5082,7 @@
         <v>440</v>
       </c>
       <c r="B71" s="11" t="str">
-        <f>IF($G71=_xlfn.MAXIFS($G:$G, $A:$A, $A71), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C71" s="1">
@@ -5098,7 +5098,7 @@
         <v>5.2600000000000001E-2</v>
       </c>
       <c r="G71" s="2">
-        <f>SQRT($E71*$F71)</f>
+        <f t="shared" si="5"/>
         <v>0.17093653793147912</v>
       </c>
       <c r="H71" s="3" t="s">
@@ -5110,7 +5110,7 @@
         <v>440</v>
       </c>
       <c r="B72" s="11" t="str">
-        <f>IF($G72=_xlfn.MAXIFS($G:$G, $A:$A, $A72), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C72" s="1">
@@ -5126,7 +5126,7 @@
         <v>0.13519999999999999</v>
       </c>
       <c r="G72" s="2">
-        <f>SQRT($E72*$F72)</f>
+        <f t="shared" si="5"/>
         <v>0.30347691839742935</v>
       </c>
       <c r="H72" s="3" t="s">
@@ -5138,7 +5138,7 @@
         <v>440</v>
       </c>
       <c r="B73" s="11" t="str">
-        <f>IF($G73=_xlfn.MAXIFS($G:$G, $A:$A, $A73), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C73" s="1">
@@ -5154,7 +5154,7 @@
         <v>0.1739</v>
       </c>
       <c r="G73" s="2">
-        <f>SQRT($E73*$F73)</f>
+        <f t="shared" si="5"/>
         <v>0.39101519152073877</v>
       </c>
       <c r="H73" s="3" t="s">
@@ -5166,7 +5166,7 @@
         <v>653</v>
       </c>
       <c r="B74" s="11" t="str">
-        <f>IF($G74=_xlfn.MAXIFS($G:$G, $A:$A, $A74), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C74" s="1">
@@ -5182,7 +5182,7 @@
         <v>0.4602</v>
       </c>
       <c r="G74" s="2">
-        <f>SQRT($E74*$F74)</f>
+        <f t="shared" si="5"/>
         <v>0.63897530468712171</v>
       </c>
       <c r="H74" s="3" t="s">
@@ -5194,7 +5194,7 @@
         <v>661</v>
       </c>
       <c r="B75" s="11" t="str">
-        <f>IF($G75=_xlfn.MAXIFS($G:$G, $A:$A, $A75), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C75" s="1">
@@ -5210,7 +5210,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="G75" s="2">
-        <f>SQRT($E75*$F75)</f>
+        <f t="shared" si="5"/>
         <v>0.10378439189011034</v>
       </c>
       <c r="H75" s="3" t="s">
@@ -5222,7 +5222,7 @@
         <v>682</v>
       </c>
       <c r="B76" s="11" t="str">
-        <f>IF($G76=_xlfn.MAXIFS($G:$G, $A:$A, $A76), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C76" s="1">
@@ -5238,7 +5238,7 @@
         <v>0.9819</v>
       </c>
       <c r="G76" s="2">
-        <f>SQRT($E76*$F76)</f>
+        <f t="shared" si="5"/>
         <v>0.94599347777878473</v>
       </c>
       <c r="H76" s="3" t="s">
@@ -5250,7 +5250,7 @@
         <v>693</v>
       </c>
       <c r="B77" s="11" t="str">
-        <f>IF($G77=_xlfn.MAXIFS($G:$G, $A:$A, $A77), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C77" s="1">
@@ -5266,7 +5266,7 @@
         <v>0.42049999999999998</v>
       </c>
       <c r="G77" s="2">
-        <f>SQRT($E77*$F77)</f>
+        <f t="shared" si="5"/>
         <v>0.64845971347493903</v>
       </c>
       <c r="H77" s="3" t="s">
@@ -5278,7 +5278,7 @@
         <v>728</v>
       </c>
       <c r="B78" s="11" t="str">
-        <f>IF($G78=_xlfn.MAXIFS($G:$G, $A:$A, $A78), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C78" s="1">
@@ -5294,7 +5294,7 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="G78" s="2">
-        <f>SQRT($E78*$F78)</f>
+        <f t="shared" si="5"/>
         <v>0.77717436910901794</v>
       </c>
       <c r="H78" s="3" t="s">
@@ -5306,7 +5306,7 @@
         <v>744</v>
       </c>
       <c r="B79" s="11" t="str">
-        <f>IF($G79=_xlfn.MAXIFS($G:$G, $A:$A, $A79), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C79" s="15">
@@ -5322,7 +5322,7 @@
         <v>0.58150000000000002</v>
       </c>
       <c r="G79" s="2">
-        <f>SQRT($E79*$F79)</f>
+        <f t="shared" si="5"/>
         <v>0.63596590579474732</v>
       </c>
       <c r="H79" s="3" t="s">
@@ -5337,7 +5337,7 @@
         <v>762</v>
       </c>
       <c r="B80" s="11" t="str">
-        <f>IF($G80=_xlfn.MAXIFS($G:$G, $A:$A, $A80), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C80" s="15">
@@ -5353,7 +5353,7 @@
         <v>0.87099999999999977</v>
       </c>
       <c r="G80" s="2">
-        <f>SQRT($E80*$F80)</f>
+        <f t="shared" si="5"/>
         <v>0.90782167852502826</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -5365,7 +5365,7 @@
         <v>954</v>
       </c>
       <c r="B81" s="11" t="str">
-        <f>IF($G81=_xlfn.MAXIFS($G:$G, $A:$A, $A81), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C81" s="1">
@@ -5381,7 +5381,7 @@
         <v>0.38096666666666662</v>
       </c>
       <c r="G81" s="2">
-        <f>SQRT($E81*$F81)</f>
+        <f t="shared" si="5"/>
         <v>0.61394496496021522</v>
       </c>
       <c r="H81" s="3" t="s">
@@ -5393,7 +5393,7 @@
         <v>1606</v>
       </c>
       <c r="B82" s="11" t="str">
-        <f>IF($G82=_xlfn.MAXIFS($G:$G, $A:$A, $A82), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C82" s="1">
@@ -5409,7 +5409,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="2">
-        <f>SQRT($E82*$F82)</f>
+        <f t="shared" si="5"/>
         <v>0.23790754506740638</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -5421,7 +5421,7 @@
         <v>2024</v>
       </c>
       <c r="B83" s="11" t="str">
-        <f>IF($G83=_xlfn.MAXIFS($G:$G, $A:$A, $A83), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C83" s="1">
@@ -5437,7 +5437,7 @@
         <v>0.49359999999999998</v>
       </c>
       <c r="G83" s="2">
-        <f>SQRT($E83*$F83)</f>
+        <f t="shared" si="5"/>
         <v>0.65760395375940373</v>
       </c>
       <c r="H83" s="3" t="s">
@@ -5449,7 +5449,7 @@
         <v>2028</v>
       </c>
       <c r="B84" s="11" t="str">
-        <f>IF($G84=_xlfn.MAXIFS($G:$G, $A:$A, $A84), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C84" s="1">
@@ -5465,7 +5465,7 @@
         <v>0.12820000000000001</v>
       </c>
       <c r="G84" s="2">
-        <f>SQRT($E84*$F84)</f>
+        <f t="shared" si="5"/>
         <v>0.13444775937143766</v>
       </c>
       <c r="H84" s="3" t="s">
@@ -5477,7 +5477,7 @@
         <v>2028</v>
       </c>
       <c r="B85" s="11" t="str">
-        <f>IF($G85=_xlfn.MAXIFS($G:$G, $A:$A, $A85), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C85" s="1">
@@ -5493,7 +5493,7 @@
         <v>6.8400000000000002E-2</v>
       </c>
       <c r="G85" s="2">
-        <f>SQRT($E85*$F85)</f>
+        <f t="shared" si="5"/>
         <v>9.3642298134977445E-2</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -5505,7 +5505,7 @@
         <v>2028</v>
       </c>
       <c r="B86" s="11" t="str">
-        <f>IF($G86=_xlfn.MAXIFS($G:$G, $A:$A, $A86), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C86" s="1">
@@ -5521,7 +5521,7 @@
         <v>0.90539999999999998</v>
       </c>
       <c r="G86" s="2">
-        <f>SQRT($E86*$F86)</f>
+        <f t="shared" si="5"/>
         <v>0.9360318263819879</v>
       </c>
       <c r="H86" s="3" t="s">
@@ -5533,7 +5533,7 @@
         <v>2038</v>
       </c>
       <c r="B87" s="11" t="str">
-        <f>IF($G87=_xlfn.MAXIFS($G:$G, $A:$A, $A87), "latest", "")</f>
+        <f t="shared" si="4"/>
         <v>latest</v>
       </c>
       <c r="C87" s="1">
@@ -5549,11 +5549,16 @@
         <v>0.76470000000000005</v>
       </c>
       <c r="G87" s="2">
-        <f>SQRT($E87*$F87)</f>
+        <f t="shared" si="5"/>
         <v>0.77926136180359928</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C88" s="15">
+        <v>44659</v>
       </c>
     </row>
   </sheetData>
@@ -5797,8 +5802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC083FF-3AF3-4ABC-A3DB-7E4234390599}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
